--- a/data/Table of compounds_whole_2025-04-28.xlsx
+++ b/data/Table of compounds_whole_2025-04-28.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="792" documentId="11_C9C3E2DFE6E5ECF5CE906EFDC2549BB3DEDA2518" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{692D73E0-0E0F-4617-A88E-A649990A760B}"/>
+  <xr:revisionPtr revIDLastSave="794" documentId="11_C9C3E2DFE6E5ECF5CE906EFDC2549BB3DEDA2518" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1906C1C-F806-4A52-9DB6-583C967FB8F2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="9420" yWindow="0" windowWidth="9780" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Experimental Design" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="561">
   <si>
     <t>Samples</t>
   </si>
@@ -1768,6 +1768,9 @@
   </si>
   <si>
     <t>4 are reported, only 2 could be found in the provided csv file</t>
+  </si>
+  <si>
+    <t>Compound</t>
   </si>
 </sst>
 </file>
@@ -2749,7 +2752,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="426">
+  <cellXfs count="423">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3024,9 +3027,6 @@
     <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3162,9 +3162,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3240,9 +3237,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3465,6 +3459,147 @@
     <xf numFmtId="49" fontId="4" fillId="10" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="65" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3486,15 +3621,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3516,15 +3642,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3573,134 +3690,11 @@
     <xf numFmtId="49" fontId="5" fillId="10" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="65" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3863,7 +3857,7 @@
     <sortCondition ref="A1:A85"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C833621C-1E47-4C45-8F7B-9F496D081E23}" name="Samples" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{C833621C-1E47-4C45-8F7B-9F496D081E23}" name="Compound" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{0569DB07-56D4-46A1-8998-DAE8B18F7DD3}" name="Samples_ID" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4166,10 +4160,10 @@
   <dimension ref="A1:J261"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C111" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C131" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N116" sqref="N116"/>
+      <selection pane="bottomRight" activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -4181,7 +4175,7 @@
     <col min="5" max="5" width="15.81640625" customWidth="1"/>
     <col min="6" max="6" width="18.1796875" customWidth="1"/>
     <col min="7" max="7" width="14.81640625" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="247" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="245" customWidth="1"/>
     <col min="10" max="10" width="45.7265625" style="173" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4189,7 +4183,7 @@
       <c r="A1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="200"/>
+      <c r="B1" s="29"/>
       <c r="C1" s="31" t="s">
         <v>0</v>
       </c>
@@ -4208,19 +4202,19 @@
       <c r="H1" s="32" t="s">
         <v>534</v>
       </c>
-      <c r="I1" s="246" t="s">
+      <c r="I1" s="31" t="s">
         <v>530</v>
       </c>
-      <c r="J1" s="272" t="s">
+      <c r="J1" s="30" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="355"/>
-      <c r="B2" s="389" t="s">
+      <c r="A2" s="384"/>
+      <c r="B2" s="363" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="383"/>
+      <c r="C2" s="357"/>
       <c r="D2" s="4" t="s">
         <v>17</v>
       </c>
@@ -4234,15 +4228,15 @@
       <c r="H2" t="s">
         <v>535</v>
       </c>
-      <c r="I2" s="248" t="s">
-        <v>532</v>
-      </c>
-      <c r="J2" s="273"/>
+      <c r="I2" s="246" t="s">
+        <v>532</v>
+      </c>
+      <c r="J2" s="270"/>
     </row>
     <row r="3" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="355"/>
-      <c r="B3" s="390"/>
-      <c r="C3" s="384"/>
+      <c r="A3" s="384"/>
+      <c r="B3" s="364"/>
+      <c r="C3" s="358"/>
       <c r="D3" s="5" t="s">
         <v>17</v>
       </c>
@@ -4256,15 +4250,15 @@
       <c r="H3" t="s">
         <v>535</v>
       </c>
-      <c r="I3" s="248" t="s">
-        <v>532</v>
-      </c>
-      <c r="J3" s="274"/>
+      <c r="I3" s="246" t="s">
+        <v>532</v>
+      </c>
+      <c r="J3" s="271"/>
     </row>
     <row r="4" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="355"/>
-      <c r="B4" s="390"/>
-      <c r="C4" s="384"/>
+      <c r="A4" s="384"/>
+      <c r="B4" s="364"/>
+      <c r="C4" s="358"/>
       <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
@@ -4278,15 +4272,15 @@
       <c r="H4" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="I4" s="248" t="s">
-        <v>532</v>
-      </c>
-      <c r="J4" s="274"/>
+      <c r="I4" s="246" t="s">
+        <v>532</v>
+      </c>
+      <c r="J4" s="271"/>
     </row>
     <row r="5" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="355"/>
-      <c r="B5" s="390"/>
-      <c r="C5" s="384"/>
+      <c r="A5" s="384"/>
+      <c r="B5" s="364"/>
+      <c r="C5" s="358"/>
       <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
@@ -4300,15 +4294,15 @@
       <c r="H5" t="s">
         <v>535</v>
       </c>
-      <c r="I5" s="248" t="s">
-        <v>532</v>
-      </c>
-      <c r="J5" s="274"/>
+      <c r="I5" s="246" t="s">
+        <v>532</v>
+      </c>
+      <c r="J5" s="271"/>
     </row>
     <row r="6" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="355"/>
-      <c r="B6" s="390"/>
-      <c r="C6" s="384"/>
+      <c r="A6" s="384"/>
+      <c r="B6" s="364"/>
+      <c r="C6" s="358"/>
       <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
@@ -4322,15 +4316,15 @@
       <c r="H6" t="s">
         <v>535</v>
       </c>
-      <c r="I6" s="248" t="s">
-        <v>532</v>
-      </c>
-      <c r="J6" s="274"/>
+      <c r="I6" s="246" t="s">
+        <v>532</v>
+      </c>
+      <c r="J6" s="271"/>
     </row>
     <row r="7" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="355"/>
-      <c r="B7" s="390"/>
-      <c r="C7" s="384"/>
+      <c r="A7" s="384"/>
+      <c r="B7" s="364"/>
+      <c r="C7" s="358"/>
       <c r="D7" s="5" t="s">
         <v>17</v>
       </c>
@@ -4344,17 +4338,17 @@
       <c r="H7" t="s">
         <v>535</v>
       </c>
-      <c r="I7" s="248" t="s">
-        <v>532</v>
-      </c>
-      <c r="J7" s="274" t="s">
+      <c r="I7" s="246" t="s">
+        <v>532</v>
+      </c>
+      <c r="J7" s="271" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="355"/>
-      <c r="B8" s="390"/>
-      <c r="C8" s="384"/>
+      <c r="A8" s="384"/>
+      <c r="B8" s="364"/>
+      <c r="C8" s="358"/>
       <c r="D8" s="5" t="s">
         <v>17</v>
       </c>
@@ -4368,17 +4362,17 @@
       <c r="H8" t="s">
         <v>535</v>
       </c>
-      <c r="I8" s="248" t="s">
-        <v>532</v>
-      </c>
-      <c r="J8" s="275" t="s">
+      <c r="I8" s="246" t="s">
+        <v>532</v>
+      </c>
+      <c r="J8" s="272" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="355"/>
-      <c r="B9" s="390"/>
-      <c r="C9" s="385"/>
+      <c r="A9" s="384"/>
+      <c r="B9" s="364"/>
+      <c r="C9" s="359"/>
       <c r="D9" s="10" t="s">
         <v>17</v>
       </c>
@@ -4392,15 +4386,15 @@
       <c r="H9" t="s">
         <v>535</v>
       </c>
-      <c r="I9" s="248" t="s">
-        <v>532</v>
-      </c>
-      <c r="J9" s="276"/>
+      <c r="I9" s="246" t="s">
+        <v>532</v>
+      </c>
+      <c r="J9" s="273"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="355"/>
-      <c r="B10" s="390"/>
-      <c r="C10" s="385"/>
+      <c r="A10" s="384"/>
+      <c r="B10" s="364"/>
+      <c r="C10" s="359"/>
       <c r="D10" t="s">
         <v>17</v>
       </c>
@@ -4413,15 +4407,15 @@
       <c r="H10" t="s">
         <v>535</v>
       </c>
-      <c r="I10" s="247" t="s">
-        <v>532</v>
-      </c>
-      <c r="J10" s="277"/>
+      <c r="I10" s="245" t="s">
+        <v>532</v>
+      </c>
+      <c r="J10" s="274"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="355"/>
-      <c r="B11" s="390"/>
-      <c r="C11" s="385"/>
+      <c r="A11" s="384"/>
+      <c r="B11" s="364"/>
+      <c r="C11" s="359"/>
       <c r="D11" s="21" t="s">
         <v>17</v>
       </c>
@@ -4435,15 +4429,15 @@
       <c r="H11" t="s">
         <v>535</v>
       </c>
-      <c r="I11" s="248" t="s">
-        <v>532</v>
-      </c>
-      <c r="J11" s="278"/>
+      <c r="I11" s="246" t="s">
+        <v>532</v>
+      </c>
+      <c r="J11" s="275"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="355"/>
-      <c r="B12" s="390"/>
-      <c r="C12" s="385"/>
+      <c r="A12" s="384"/>
+      <c r="B12" s="364"/>
+      <c r="C12" s="359"/>
       <c r="D12" s="116" t="s">
         <v>17</v>
       </c>
@@ -4457,15 +4451,15 @@
       <c r="H12" t="s">
         <v>535</v>
       </c>
-      <c r="I12" s="248" t="s">
-        <v>532</v>
-      </c>
-      <c r="J12" s="279"/>
+      <c r="I12" s="246" t="s">
+        <v>532</v>
+      </c>
+      <c r="J12" s="276"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="355"/>
-      <c r="B13" s="390"/>
-      <c r="C13" s="385"/>
+      <c r="A13" s="384"/>
+      <c r="B13" s="364"/>
+      <c r="C13" s="359"/>
       <c r="D13" s="101" t="s">
         <v>18</v>
       </c>
@@ -4479,17 +4473,17 @@
       <c r="H13" t="s">
         <v>535</v>
       </c>
-      <c r="I13" s="248" t="s">
+      <c r="I13" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="J13" s="280" t="s">
+      <c r="J13" s="277" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="355"/>
-      <c r="B14" s="390"/>
-      <c r="C14" s="386"/>
+      <c r="A14" s="384"/>
+      <c r="B14" s="364"/>
+      <c r="C14" s="360"/>
       <c r="D14" s="18" t="s">
         <v>17</v>
       </c>
@@ -4503,14 +4497,14 @@
       <c r="H14" t="s">
         <v>535</v>
       </c>
-      <c r="I14" s="248" t="s">
-        <v>532</v>
-      </c>
-      <c r="J14" s="278"/>
+      <c r="I14" s="246" t="s">
+        <v>532</v>
+      </c>
+      <c r="J14" s="275"/>
     </row>
     <row r="15" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="355"/>
-      <c r="B15" s="390"/>
+      <c r="A15" s="384"/>
+      <c r="B15" s="364"/>
       <c r="C15" s="193"/>
       <c r="D15" s="194" t="s">
         <v>17</v>
@@ -4525,16 +4519,16 @@
       <c r="H15" t="s">
         <v>535</v>
       </c>
-      <c r="I15" s="248" t="s">
-        <v>532</v>
-      </c>
-      <c r="J15" s="281" t="s">
+      <c r="I15" s="246" t="s">
+        <v>532</v>
+      </c>
+      <c r="J15" s="278" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="355"/>
-      <c r="B16" s="390"/>
+      <c r="A16" s="384"/>
+      <c r="B16" s="364"/>
       <c r="C16" s="193"/>
       <c r="D16" s="194" t="s">
         <v>17</v>
@@ -4549,16 +4543,16 @@
       <c r="H16" t="s">
         <v>535</v>
       </c>
-      <c r="I16" s="342" t="s">
+      <c r="I16" s="339" t="s">
         <v>531</v>
       </c>
-      <c r="J16" s="280" t="s">
+      <c r="J16" s="277" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="355"/>
-      <c r="B17" s="390"/>
+      <c r="A17" s="384"/>
+      <c r="B17" s="364"/>
       <c r="C17" s="193"/>
       <c r="D17" s="194" t="s">
         <v>10</v>
@@ -4573,16 +4567,16 @@
       <c r="H17" t="s">
         <v>535</v>
       </c>
-      <c r="I17" s="342" t="s">
+      <c r="I17" s="339" t="s">
         <v>531</v>
       </c>
-      <c r="J17" s="280" t="s">
+      <c r="J17" s="277" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="356"/>
-      <c r="B18" s="391"/>
+      <c r="A18" s="385"/>
+      <c r="B18" s="365"/>
       <c r="C18" s="193"/>
       <c r="D18" s="194" t="s">
         <v>10</v>
@@ -4597,21 +4591,21 @@
       <c r="H18" t="s">
         <v>535</v>
       </c>
-      <c r="I18" s="342" t="s">
+      <c r="I18" s="339" t="s">
         <v>531</v>
       </c>
-      <c r="J18" s="280" t="s">
+      <c r="J18" s="277" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="399" t="s">
+      <c r="A19" s="373" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="410" t="s">
+      <c r="B19" s="386" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="402" t="s">
+      <c r="C19" s="376" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="102" t="s">
@@ -4632,14 +4626,14 @@
       <c r="I19" s="102" t="s">
         <v>531</v>
       </c>
-      <c r="J19" s="282" t="s">
+      <c r="J19" s="279" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="400"/>
-      <c r="B20" s="411"/>
-      <c r="C20" s="403"/>
+      <c r="A20" s="374"/>
+      <c r="B20" s="387"/>
+      <c r="C20" s="377"/>
       <c r="D20" s="103" t="s">
         <v>17</v>
       </c>
@@ -4655,15 +4649,15 @@
       <c r="H20" t="s">
         <v>535</v>
       </c>
-      <c r="I20" s="249" t="s">
-        <v>532</v>
-      </c>
-      <c r="J20" s="283"/>
+      <c r="I20" s="247" t="s">
+        <v>532</v>
+      </c>
+      <c r="J20" s="280"/>
     </row>
     <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="400"/>
-      <c r="B21" s="411"/>
-      <c r="C21" s="403"/>
+      <c r="A21" s="374"/>
+      <c r="B21" s="387"/>
+      <c r="C21" s="377"/>
       <c r="D21" s="105" t="s">
         <v>17</v>
       </c>
@@ -4679,15 +4673,15 @@
       <c r="H21" t="s">
         <v>535</v>
       </c>
-      <c r="I21" s="249" t="s">
-        <v>532</v>
-      </c>
-      <c r="J21" s="275"/>
+      <c r="I21" s="247" t="s">
+        <v>532</v>
+      </c>
+      <c r="J21" s="272"/>
     </row>
     <row r="22" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="400"/>
-      <c r="B22" s="411"/>
-      <c r="C22" s="403"/>
+      <c r="A22" s="374"/>
+      <c r="B22" s="387"/>
+      <c r="C22" s="377"/>
       <c r="D22" s="105" t="s">
         <v>17</v>
       </c>
@@ -4703,15 +4697,15 @@
       <c r="H22" t="s">
         <v>535</v>
       </c>
-      <c r="I22" s="249" t="s">
-        <v>532</v>
-      </c>
-      <c r="J22" s="275"/>
+      <c r="I22" s="247" t="s">
+        <v>532</v>
+      </c>
+      <c r="J22" s="272"/>
     </row>
     <row r="23" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="400"/>
-      <c r="B23" s="411"/>
-      <c r="C23" s="403"/>
+      <c r="A23" s="374"/>
+      <c r="B23" s="387"/>
+      <c r="C23" s="377"/>
       <c r="D23" s="105" t="s">
         <v>17</v>
       </c>
@@ -4727,17 +4721,17 @@
       <c r="H23" t="s">
         <v>535</v>
       </c>
-      <c r="I23" s="249" t="s">
-        <v>532</v>
-      </c>
-      <c r="J23" s="275" t="s">
+      <c r="I23" s="247" t="s">
+        <v>532</v>
+      </c>
+      <c r="J23" s="272" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="400"/>
-      <c r="B24" s="411"/>
-      <c r="C24" s="403"/>
+      <c r="A24" s="374"/>
+      <c r="B24" s="387"/>
+      <c r="C24" s="377"/>
       <c r="D24" s="105" t="s">
         <v>17</v>
       </c>
@@ -4753,17 +4747,17 @@
       <c r="H24" t="s">
         <v>535</v>
       </c>
-      <c r="I24" s="249" t="s">
-        <v>532</v>
-      </c>
-      <c r="J24" s="275" t="s">
+      <c r="I24" s="247" t="s">
+        <v>532</v>
+      </c>
+      <c r="J24" s="272" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="400"/>
-      <c r="B25" s="411"/>
-      <c r="C25" s="403"/>
+      <c r="A25" s="374"/>
+      <c r="B25" s="387"/>
+      <c r="C25" s="377"/>
       <c r="D25" s="105" t="s">
         <v>17</v>
       </c>
@@ -4779,17 +4773,17 @@
       <c r="H25" t="s">
         <v>535</v>
       </c>
-      <c r="I25" s="249" t="s">
-        <v>532</v>
-      </c>
-      <c r="J25" s="275" t="s">
+      <c r="I25" s="247" t="s">
+        <v>532</v>
+      </c>
+      <c r="J25" s="272" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="400"/>
-      <c r="B26" s="411"/>
-      <c r="C26" s="403"/>
+      <c r="A26" s="374"/>
+      <c r="B26" s="387"/>
+      <c r="C26" s="377"/>
       <c r="D26" s="132" t="s">
         <v>17</v>
       </c>
@@ -4805,17 +4799,17 @@
       <c r="H26" t="s">
         <v>535</v>
       </c>
-      <c r="I26" s="249" t="s">
-        <v>532</v>
-      </c>
-      <c r="J26" s="275" t="s">
+      <c r="I26" s="247" t="s">
+        <v>532</v>
+      </c>
+      <c r="J26" s="272" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="400"/>
-      <c r="B27" s="411"/>
-      <c r="C27" s="403"/>
+      <c r="A27" s="374"/>
+      <c r="B27" s="387"/>
+      <c r="C27" s="377"/>
       <c r="D27" s="132" t="s">
         <v>17</v>
       </c>
@@ -4831,17 +4825,17 @@
       <c r="H27" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I27" s="249" t="s">
-        <v>532</v>
-      </c>
-      <c r="J27" s="284" t="s">
+      <c r="I27" s="247" t="s">
+        <v>532</v>
+      </c>
+      <c r="J27" s="281" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="400"/>
-      <c r="B28" s="411"/>
-      <c r="C28" s="403"/>
+      <c r="A28" s="374"/>
+      <c r="B28" s="387"/>
+      <c r="C28" s="377"/>
       <c r="D28" s="132" t="s">
         <v>17</v>
       </c>
@@ -4857,17 +4851,17 @@
       <c r="H28" s="197" t="s">
         <v>536</v>
       </c>
-      <c r="I28" s="249" t="s">
-        <v>532</v>
-      </c>
-      <c r="J28" s="284" t="s">
+      <c r="I28" s="247" t="s">
+        <v>532</v>
+      </c>
+      <c r="J28" s="281" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="400"/>
-      <c r="B29" s="411"/>
-      <c r="C29" s="403"/>
+      <c r="A29" s="374"/>
+      <c r="B29" s="387"/>
+      <c r="C29" s="377"/>
       <c r="D29" s="132" t="s">
         <v>17</v>
       </c>
@@ -4883,17 +4877,17 @@
       <c r="H29" s="197" t="s">
         <v>537</v>
       </c>
-      <c r="I29" s="249" t="s">
-        <v>532</v>
-      </c>
-      <c r="J29" s="284" t="s">
+      <c r="I29" s="247" t="s">
+        <v>532</v>
+      </c>
+      <c r="J29" s="281" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="400"/>
-      <c r="B30" s="411"/>
-      <c r="C30" s="403"/>
+      <c r="A30" s="374"/>
+      <c r="B30" s="387"/>
+      <c r="C30" s="377"/>
       <c r="D30" s="132" t="s">
         <v>17</v>
       </c>
@@ -4909,17 +4903,17 @@
       <c r="H30" s="197" t="s">
         <v>538</v>
       </c>
-      <c r="I30" s="249" t="s">
-        <v>532</v>
-      </c>
-      <c r="J30" s="284" t="s">
+      <c r="I30" s="247" t="s">
+        <v>532</v>
+      </c>
+      <c r="J30" s="281" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="400"/>
-      <c r="B31" s="411"/>
-      <c r="C31" s="403"/>
+      <c r="A31" s="374"/>
+      <c r="B31" s="387"/>
+      <c r="C31" s="377"/>
       <c r="D31" s="132" t="s">
         <v>17</v>
       </c>
@@ -4935,17 +4929,17 @@
       <c r="H31" s="197" t="s">
         <v>539</v>
       </c>
-      <c r="I31" s="249" t="s">
-        <v>532</v>
-      </c>
-      <c r="J31" s="284" t="s">
+      <c r="I31" s="247" t="s">
+        <v>532</v>
+      </c>
+      <c r="J31" s="281" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="400"/>
-      <c r="B32" s="411"/>
-      <c r="C32" s="404"/>
+      <c r="A32" s="374"/>
+      <c r="B32" s="387"/>
+      <c r="C32" s="378"/>
       <c r="D32" s="132" t="s">
         <v>72</v>
       </c>
@@ -4961,16 +4955,16 @@
       <c r="H32" s="197" t="s">
         <v>540</v>
       </c>
-      <c r="I32" s="249" t="s">
-        <v>532</v>
-      </c>
-      <c r="J32" s="284" t="s">
+      <c r="I32" s="247" t="s">
+        <v>532</v>
+      </c>
+      <c r="J32" s="281" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="400"/>
-      <c r="B33" s="411"/>
+      <c r="A33" s="374"/>
+      <c r="B33" s="387"/>
       <c r="C33" s="113" t="s">
         <v>32</v>
       </c>
@@ -4989,16 +4983,16 @@
       <c r="H33" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I33" s="250" t="s">
-        <v>532</v>
-      </c>
-      <c r="J33" s="284" t="s">
+      <c r="I33" s="248" t="s">
+        <v>532</v>
+      </c>
+      <c r="J33" s="281" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="400"/>
-      <c r="B34" s="411"/>
+      <c r="A34" s="374"/>
+      <c r="B34" s="387"/>
       <c r="C34" s="140" t="s">
         <v>204</v>
       </c>
@@ -5017,14 +5011,14 @@
       <c r="H34" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I34" s="251" t="s">
-        <v>532</v>
-      </c>
-      <c r="J34" s="285"/>
+      <c r="I34" s="249" t="s">
+        <v>532</v>
+      </c>
+      <c r="J34" s="282"/>
     </row>
     <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="400"/>
-      <c r="B35" s="411"/>
+      <c r="A35" s="374"/>
+      <c r="B35" s="387"/>
       <c r="C35" s="140" t="s">
         <v>205</v>
       </c>
@@ -5043,14 +5037,14 @@
       <c r="H35" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I35" s="252" t="s">
-        <v>532</v>
-      </c>
-      <c r="J35" s="285"/>
+      <c r="I35" s="250" t="s">
+        <v>532</v>
+      </c>
+      <c r="J35" s="282"/>
     </row>
     <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="400"/>
-      <c r="B36" s="411"/>
+      <c r="A36" s="374"/>
+      <c r="B36" s="387"/>
       <c r="C36" s="131" t="s">
         <v>206</v>
       </c>
@@ -5069,14 +5063,14 @@
       <c r="H36" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I36" s="253" t="s">
-        <v>532</v>
-      </c>
-      <c r="J36" s="286"/>
+      <c r="I36" s="251" t="s">
+        <v>532</v>
+      </c>
+      <c r="J36" s="283"/>
     </row>
     <row r="37" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="400"/>
-      <c r="B37" s="412"/>
+      <c r="A37" s="374"/>
+      <c r="B37" s="388"/>
       <c r="C37" s="197" t="s">
         <v>357</v>
       </c>
@@ -5095,19 +5089,19 @@
       <c r="H37" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I37" s="341" t="s">
+      <c r="I37" s="338" t="s">
         <v>531</v>
       </c>
-      <c r="J37" s="340" t="s">
+      <c r="J37" s="337" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="400"/>
-      <c r="B38" s="407" t="s">
+      <c r="A38" s="374"/>
+      <c r="B38" s="381" t="s">
         <v>138</v>
       </c>
-      <c r="C38" s="408" t="s">
+      <c r="C38" s="382" t="s">
         <v>29</v>
       </c>
       <c r="D38" s="103" t="s">
@@ -5125,15 +5119,15 @@
       <c r="H38" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I38" s="255" t="s">
-        <v>532</v>
-      </c>
-      <c r="J38" s="283"/>
+      <c r="I38" s="253" t="s">
+        <v>532</v>
+      </c>
+      <c r="J38" s="280"/>
     </row>
     <row r="39" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="400"/>
-      <c r="B39" s="405"/>
-      <c r="C39" s="408"/>
+      <c r="A39" s="374"/>
+      <c r="B39" s="379"/>
+      <c r="C39" s="382"/>
       <c r="D39" s="108" t="s">
         <v>17</v>
       </c>
@@ -5149,15 +5143,15 @@
       <c r="H39" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I39" s="256" t="s">
-        <v>532</v>
-      </c>
-      <c r="J39" s="287"/>
+      <c r="I39" s="254" t="s">
+        <v>532</v>
+      </c>
+      <c r="J39" s="284"/>
     </row>
     <row r="40" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="400"/>
-      <c r="B40" s="405"/>
-      <c r="C40" s="409"/>
+      <c r="A40" s="374"/>
+      <c r="B40" s="379"/>
+      <c r="C40" s="383"/>
       <c r="D40" s="196" t="s">
         <v>17</v>
       </c>
@@ -5173,16 +5167,16 @@
       <c r="H40" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I40" s="341" t="s">
+      <c r="I40" s="338" t="s">
         <v>531</v>
       </c>
-      <c r="J40" s="340" t="s">
+      <c r="J40" s="337" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="400"/>
-      <c r="B41" s="405" t="s">
+      <c r="A41" s="374"/>
+      <c r="B41" s="379" t="s">
         <v>139</v>
       </c>
       <c r="C41" s="134" t="s">
@@ -5203,14 +5197,14 @@
       <c r="H41" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I41" s="256" t="s">
-        <v>532</v>
-      </c>
-      <c r="J41" s="340"/>
+      <c r="I41" s="254" t="s">
+        <v>532</v>
+      </c>
+      <c r="J41" s="337"/>
     </row>
     <row r="42" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="401"/>
-      <c r="B42" s="406"/>
+      <c r="A42" s="375"/>
+      <c r="B42" s="380"/>
       <c r="C42" s="134" t="s">
         <v>136</v>
       </c>
@@ -5229,10 +5223,10 @@
       <c r="H42" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I42" s="341" t="s">
+      <c r="I42" s="338" t="s">
         <v>531</v>
       </c>
-      <c r="J42" s="340" t="s">
+      <c r="J42" s="337" t="s">
         <v>550</v>
       </c>
     </row>
@@ -5240,7 +5234,7 @@
       <c r="A43" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="201"/>
+      <c r="B43" s="200"/>
       <c r="C43" s="199" t="s">
         <v>543</v>
       </c>
@@ -5259,19 +5253,19 @@
       <c r="H43" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I43" s="252" t="s">
-        <v>532</v>
-      </c>
-      <c r="J43" s="288" t="s">
+      <c r="I43" s="250" t="s">
+        <v>532</v>
+      </c>
+      <c r="J43" s="285" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="396" t="s">
+      <c r="A44" s="370" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="202"/>
-      <c r="C44" s="387" t="s">
+      <c r="B44" s="201"/>
+      <c r="C44" s="361" t="s">
         <v>34</v>
       </c>
       <c r="D44" s="60" t="s">
@@ -5289,15 +5283,15 @@
       <c r="H44" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I44" s="258" t="s">
-        <v>532</v>
-      </c>
-      <c r="J44" s="289"/>
+      <c r="I44" s="256" t="s">
+        <v>532</v>
+      </c>
+      <c r="J44" s="286"/>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="397"/>
-      <c r="B45" s="202"/>
-      <c r="C45" s="388"/>
+      <c r="A45" s="371"/>
+      <c r="B45" s="201"/>
+      <c r="C45" s="362"/>
       <c r="D45" s="63" t="s">
         <v>17</v>
       </c>
@@ -5313,15 +5307,15 @@
       <c r="H45" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I45" s="259" t="s">
-        <v>532</v>
-      </c>
-      <c r="J45" s="290"/>
+      <c r="I45" s="257" t="s">
+        <v>532</v>
+      </c>
+      <c r="J45" s="287"/>
     </row>
     <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="397"/>
-      <c r="B46" s="202"/>
-      <c r="C46" s="387" t="s">
+      <c r="A46" s="371"/>
+      <c r="B46" s="201"/>
+      <c r="C46" s="361" t="s">
         <v>36</v>
       </c>
       <c r="D46" s="60" t="s">
@@ -5339,15 +5333,15 @@
       <c r="H46" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I46" s="258" t="s">
-        <v>532</v>
-      </c>
-      <c r="J46" s="289"/>
+      <c r="I46" s="256" t="s">
+        <v>532</v>
+      </c>
+      <c r="J46" s="286"/>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="397"/>
-      <c r="B47" s="202"/>
-      <c r="C47" s="388"/>
+      <c r="A47" s="371"/>
+      <c r="B47" s="201"/>
+      <c r="C47" s="362"/>
       <c r="D47" s="63" t="s">
         <v>17</v>
       </c>
@@ -5363,14 +5357,14 @@
       <c r="H47" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I47" s="259" t="s">
-        <v>532</v>
-      </c>
-      <c r="J47" s="290"/>
+      <c r="I47" s="257" t="s">
+        <v>532</v>
+      </c>
+      <c r="J47" s="287"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="397"/>
-      <c r="B48" s="203"/>
+      <c r="A48" s="371"/>
+      <c r="B48" s="202"/>
       <c r="C48" s="147" t="s">
         <v>38</v>
       </c>
@@ -5389,14 +5383,14 @@
       <c r="H48" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I48" s="260" t="s">
-        <v>532</v>
-      </c>
-      <c r="J48" s="291"/>
+      <c r="I48" s="258" t="s">
+        <v>532</v>
+      </c>
+      <c r="J48" s="288"/>
     </row>
     <row r="49" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="398"/>
-      <c r="B49" s="204"/>
+      <c r="A49" s="372"/>
+      <c r="B49" s="203"/>
       <c r="C49" s="67" t="s">
         <v>208</v>
       </c>
@@ -5415,17 +5409,17 @@
       <c r="H49" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I49" s="261" t="s">
-        <v>532</v>
-      </c>
-      <c r="J49" s="292"/>
+      <c r="I49" s="259" t="s">
+        <v>532</v>
+      </c>
+      <c r="J49" s="289"/>
     </row>
     <row r="50" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="365" t="s">
+      <c r="A50" s="352" t="s">
         <v>43</v>
       </c>
-      <c r="B50" s="205"/>
-      <c r="C50" s="395" t="s">
+      <c r="B50" s="204"/>
+      <c r="C50" s="369" t="s">
         <v>41</v>
       </c>
       <c r="D50" s="4" t="s">
@@ -5443,15 +5437,15 @@
       <c r="H50" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I50" s="262" t="s">
-        <v>532</v>
-      </c>
-      <c r="J50" s="293"/>
+      <c r="I50" s="260" t="s">
+        <v>532</v>
+      </c>
+      <c r="J50" s="290"/>
     </row>
     <row r="51" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="365"/>
-      <c r="B51" s="205"/>
-      <c r="C51" s="395"/>
+      <c r="A51" s="352"/>
+      <c r="B51" s="204"/>
+      <c r="C51" s="369"/>
       <c r="D51" s="5" t="s">
         <v>17</v>
       </c>
@@ -5467,15 +5461,15 @@
       <c r="H51" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I51" s="263" t="s">
-        <v>532</v>
-      </c>
-      <c r="J51" s="274"/>
+      <c r="I51" s="261" t="s">
+        <v>532</v>
+      </c>
+      <c r="J51" s="271"/>
     </row>
     <row r="52" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="365"/>
-      <c r="B52" s="205"/>
-      <c r="C52" s="395"/>
+      <c r="A52" s="352"/>
+      <c r="B52" s="204"/>
+      <c r="C52" s="369"/>
       <c r="D52" s="10" t="s">
         <v>17</v>
       </c>
@@ -5491,14 +5485,14 @@
       <c r="H52" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I52" s="264" t="s">
-        <v>532</v>
-      </c>
-      <c r="J52" s="294"/>
+      <c r="I52" s="262" t="s">
+        <v>532</v>
+      </c>
+      <c r="J52" s="291"/>
     </row>
     <row r="53" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="366"/>
-      <c r="B53" s="206"/>
+      <c r="A53" s="351"/>
+      <c r="B53" s="205"/>
       <c r="C53" s="33" t="s">
         <v>45</v>
       </c>
@@ -5517,16 +5511,16 @@
       <c r="H53" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I53" s="265" t="s">
-        <v>532</v>
-      </c>
-      <c r="J53" s="295"/>
+      <c r="I53" s="263" t="s">
+        <v>532</v>
+      </c>
+      <c r="J53" s="292"/>
     </row>
     <row r="54" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="357" t="s">
+      <c r="A54" s="398" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="207" t="s">
+      <c r="B54" s="206" t="s">
         <v>48</v>
       </c>
       <c r="C54" s="137" t="s">
@@ -5547,16 +5541,16 @@
       <c r="H54" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I54" s="266" t="s">
-        <v>532</v>
-      </c>
-      <c r="J54" s="296" t="s">
+      <c r="I54" s="264" t="s">
+        <v>532</v>
+      </c>
+      <c r="J54" s="293" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="358"/>
-      <c r="B55" s="208" t="s">
+      <c r="A55" s="399"/>
+      <c r="B55" s="207" t="s">
         <v>50</v>
       </c>
       <c r="C55" s="72" t="s">
@@ -5577,10 +5571,10 @@
       <c r="H55" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I55" s="267" t="s">
-        <v>532</v>
-      </c>
-      <c r="J55" s="297" t="s">
+      <c r="I55" s="265" t="s">
+        <v>532</v>
+      </c>
+      <c r="J55" s="294" t="s">
         <v>85</v>
       </c>
     </row>
@@ -5588,7 +5582,7 @@
       <c r="A56" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="209"/>
+      <c r="B56" s="208"/>
       <c r="C56" s="42" t="s">
         <v>53</v>
       </c>
@@ -5607,21 +5601,21 @@
       <c r="H56" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I56" s="268" t="s">
-        <v>532</v>
-      </c>
-      <c r="J56" s="298" t="s">
+      <c r="I56" s="266" t="s">
+        <v>532</v>
+      </c>
+      <c r="J56" s="295" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="367" t="s">
+      <c r="A57" s="405" t="s">
         <v>143</v>
       </c>
-      <c r="B57" s="372" t="s">
+      <c r="B57" s="410" t="s">
         <v>140</v>
       </c>
-      <c r="C57" s="377" t="s">
+      <c r="C57" s="415" t="s">
         <v>54</v>
       </c>
       <c r="D57" s="54" t="s">
@@ -5639,15 +5633,15 @@
       <c r="H57" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I57" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J57" s="299"/>
+      <c r="I57" s="267" t="s">
+        <v>532</v>
+      </c>
+      <c r="J57" s="296"/>
     </row>
     <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="368"/>
-      <c r="B58" s="373"/>
-      <c r="C58" s="378"/>
+      <c r="A58" s="406"/>
+      <c r="B58" s="411"/>
+      <c r="C58" s="416"/>
       <c r="D58" s="43" t="s">
         <v>17</v>
       </c>
@@ -5663,15 +5657,15 @@
       <c r="H58" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I58" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J58" s="300"/>
+      <c r="I58" s="267" t="s">
+        <v>532</v>
+      </c>
+      <c r="J58" s="297"/>
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="368"/>
-      <c r="B59" s="373"/>
-      <c r="C59" s="378"/>
+      <c r="A59" s="406"/>
+      <c r="B59" s="411"/>
+      <c r="C59" s="416"/>
       <c r="D59" s="56" t="s">
         <v>17</v>
       </c>
@@ -5687,15 +5681,15 @@
       <c r="H59" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I59" s="270" t="s">
-        <v>532</v>
-      </c>
-      <c r="J59" s="301"/>
+      <c r="I59" s="268" t="s">
+        <v>532</v>
+      </c>
+      <c r="J59" s="298"/>
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="368"/>
-      <c r="B60" s="374"/>
-      <c r="C60" s="378"/>
+      <c r="A60" s="406"/>
+      <c r="B60" s="412"/>
+      <c r="C60" s="416"/>
       <c r="D60" s="12" t="s">
         <v>17</v>
       </c>
@@ -5711,17 +5705,17 @@
       <c r="H60" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I60" s="254" t="s">
-        <v>532</v>
-      </c>
-      <c r="J60" s="302" t="s">
+      <c r="I60" s="252" t="s">
+        <v>532</v>
+      </c>
+      <c r="J60" s="299" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="368"/>
-      <c r="B61" s="374"/>
-      <c r="C61" s="378"/>
+      <c r="A61" s="406"/>
+      <c r="B61" s="412"/>
+      <c r="C61" s="416"/>
       <c r="D61" s="12" t="s">
         <v>17</v>
       </c>
@@ -5737,17 +5731,17 @@
       <c r="H61" s="197" t="s">
         <v>536</v>
       </c>
-      <c r="I61" s="254" t="s">
-        <v>532</v>
-      </c>
-      <c r="J61" s="302" t="s">
+      <c r="I61" s="252" t="s">
+        <v>532</v>
+      </c>
+      <c r="J61" s="299" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="368"/>
-      <c r="B62" s="374"/>
-      <c r="C62" s="378"/>
+      <c r="A62" s="406"/>
+      <c r="B62" s="412"/>
+      <c r="C62" s="416"/>
       <c r="D62" s="12" t="s">
         <v>17</v>
       </c>
@@ -5763,17 +5757,17 @@
       <c r="H62" s="197" t="s">
         <v>537</v>
       </c>
-      <c r="I62" s="254" t="s">
-        <v>532</v>
-      </c>
-      <c r="J62" s="302" t="s">
+      <c r="I62" s="252" t="s">
+        <v>532</v>
+      </c>
+      <c r="J62" s="299" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="368"/>
-      <c r="B63" s="374"/>
-      <c r="C63" s="378"/>
+      <c r="A63" s="406"/>
+      <c r="B63" s="412"/>
+      <c r="C63" s="416"/>
       <c r="D63" s="12" t="s">
         <v>17</v>
       </c>
@@ -5789,17 +5783,17 @@
       <c r="H63" s="197" t="s">
         <v>538</v>
       </c>
-      <c r="I63" s="254" t="s">
-        <v>532</v>
-      </c>
-      <c r="J63" s="302" t="s">
+      <c r="I63" s="252" t="s">
+        <v>532</v>
+      </c>
+      <c r="J63" s="299" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="368"/>
-      <c r="B64" s="374"/>
-      <c r="C64" s="378"/>
+      <c r="A64" s="406"/>
+      <c r="B64" s="412"/>
+      <c r="C64" s="416"/>
       <c r="D64" s="12" t="s">
         <v>17</v>
       </c>
@@ -5815,17 +5809,17 @@
       <c r="H64" s="197" t="s">
         <v>539</v>
       </c>
-      <c r="I64" s="254" t="s">
-        <v>532</v>
-      </c>
-      <c r="J64" s="302" t="s">
+      <c r="I64" s="252" t="s">
+        <v>532</v>
+      </c>
+      <c r="J64" s="299" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="368"/>
-      <c r="B65" s="374"/>
-      <c r="C65" s="379"/>
+      <c r="A65" s="406"/>
+      <c r="B65" s="412"/>
+      <c r="C65" s="417"/>
       <c r="D65" s="12" t="s">
         <v>17</v>
       </c>
@@ -5841,16 +5835,16 @@
       <c r="H65" s="197" t="s">
         <v>540</v>
       </c>
-      <c r="I65" s="254" t="s">
-        <v>532</v>
-      </c>
-      <c r="J65" s="302" t="s">
+      <c r="I65" s="252" t="s">
+        <v>532</v>
+      </c>
+      <c r="J65" s="299" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="368"/>
-      <c r="B66" s="374"/>
+      <c r="A66" s="406"/>
+      <c r="B66" s="412"/>
       <c r="C66" s="161" t="s">
         <v>218</v>
       </c>
@@ -5869,14 +5863,14 @@
       <c r="H66" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I66" s="254" t="s">
-        <v>532</v>
-      </c>
-      <c r="J66" s="303"/>
+      <c r="I66" s="252" t="s">
+        <v>532</v>
+      </c>
+      <c r="J66" s="300"/>
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="368"/>
-      <c r="B67" s="375"/>
+      <c r="A67" s="406"/>
+      <c r="B67" s="413"/>
       <c r="C67" s="161" t="s">
         <v>219</v>
       </c>
@@ -5895,17 +5889,17 @@
       <c r="H67" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I67" s="254" t="s">
-        <v>532</v>
-      </c>
-      <c r="J67" s="303"/>
+      <c r="I67" s="252" t="s">
+        <v>532</v>
+      </c>
+      <c r="J67" s="300"/>
     </row>
     <row r="68" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="368"/>
-      <c r="B68" s="372" t="s">
+      <c r="A68" s="406"/>
+      <c r="B68" s="410" t="s">
         <v>141</v>
       </c>
-      <c r="C68" s="359" t="s">
+      <c r="C68" s="400" t="s">
         <v>58</v>
       </c>
       <c r="D68" s="54" t="s">
@@ -5923,15 +5917,15 @@
       <c r="H68" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I68" s="254" t="s">
-        <v>532</v>
-      </c>
-      <c r="J68" s="299"/>
+      <c r="I68" s="252" t="s">
+        <v>532</v>
+      </c>
+      <c r="J68" s="296"/>
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="368"/>
-      <c r="B69" s="373"/>
-      <c r="C69" s="360"/>
+      <c r="A69" s="406"/>
+      <c r="B69" s="411"/>
+      <c r="C69" s="401"/>
       <c r="D69" s="56" t="s">
         <v>17</v>
       </c>
@@ -5947,14 +5941,14 @@
       <c r="H69" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I69" s="254" t="s">
-        <v>532</v>
-      </c>
-      <c r="J69" s="301"/>
+      <c r="I69" s="252" t="s">
+        <v>532</v>
+      </c>
+      <c r="J69" s="298"/>
     </row>
     <row r="70" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="368"/>
-      <c r="B70" s="373"/>
+      <c r="A70" s="406"/>
+      <c r="B70" s="411"/>
       <c r="C70" s="136" t="s">
         <v>222</v>
       </c>
@@ -5973,14 +5967,14 @@
       <c r="H70" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I70" s="254" t="s">
-        <v>532</v>
-      </c>
-      <c r="J70" s="304"/>
+      <c r="I70" s="252" t="s">
+        <v>532</v>
+      </c>
+      <c r="J70" s="301"/>
     </row>
     <row r="71" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="368"/>
-      <c r="B71" s="376"/>
+      <c r="A71" s="406"/>
+      <c r="B71" s="414"/>
       <c r="C71" s="136" t="s">
         <v>223</v>
       </c>
@@ -5999,13 +5993,13 @@
       <c r="H71" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I71" s="254" t="s">
-        <v>532</v>
-      </c>
-      <c r="J71" s="305"/>
+      <c r="I71" s="252" t="s">
+        <v>532</v>
+      </c>
+      <c r="J71" s="302"/>
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="368"/>
+      <c r="A72" s="406"/>
       <c r="B72" s="167" t="s">
         <v>142</v>
       </c>
@@ -6027,14 +6021,14 @@
       <c r="H72" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I72" s="254" t="s">
-        <v>532</v>
-      </c>
-      <c r="J72" s="304"/>
+      <c r="I72" s="252" t="s">
+        <v>532</v>
+      </c>
+      <c r="J72" s="301"/>
     </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="368"/>
-      <c r="B73" s="210" t="s">
+      <c r="A73" s="406"/>
+      <c r="B73" s="209" t="s">
         <v>161</v>
       </c>
       <c r="C73" s="138" t="s">
@@ -6055,13 +6049,13 @@
       <c r="H73" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I73" s="254" t="s">
-        <v>532</v>
-      </c>
-      <c r="J73" s="306"/>
+      <c r="I73" s="252" t="s">
+        <v>532</v>
+      </c>
+      <c r="J73" s="303"/>
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="368"/>
+      <c r="A74" s="406"/>
       <c r="B74" s="167" t="s">
         <v>224</v>
       </c>
@@ -6083,13 +6077,13 @@
       <c r="H74" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I74" s="254" t="s">
-        <v>532</v>
-      </c>
-      <c r="J74" s="304"/>
+      <c r="I74" s="252" t="s">
+        <v>532</v>
+      </c>
+      <c r="J74" s="301"/>
     </row>
     <row r="75" spans="1:10" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="369"/>
+      <c r="A75" s="407"/>
       <c r="B75" s="166" t="s">
         <v>228</v>
       </c>
@@ -6111,16 +6105,16 @@
       <c r="H75" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I75" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J75" s="305"/>
+      <c r="I75" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J75" s="302"/>
     </row>
     <row r="76" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="364" t="s">
+      <c r="A76" s="350" t="s">
         <v>145</v>
       </c>
-      <c r="B76" s="211" t="s">
+      <c r="B76" s="210" t="s">
         <v>185</v>
       </c>
       <c r="C76" s="160" t="s">
@@ -6141,14 +6135,14 @@
       <c r="H76" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I76" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J76" s="307"/>
+      <c r="I76" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J76" s="304"/>
     </row>
     <row r="77" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="365"/>
-      <c r="B77" s="361" t="s">
+      <c r="A77" s="352"/>
+      <c r="B77" s="402" t="s">
         <v>186</v>
       </c>
       <c r="C77" s="39" t="s">
@@ -6169,14 +6163,14 @@
       <c r="H77" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I77" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J77" s="295"/>
+      <c r="I77" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J77" s="292"/>
     </row>
     <row r="78" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="365"/>
-      <c r="B78" s="362"/>
+      <c r="A78" s="352"/>
+      <c r="B78" s="403"/>
       <c r="C78" s="39" t="s">
         <v>64</v>
       </c>
@@ -6195,14 +6189,14 @@
       <c r="H78" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I78" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J78" s="295"/>
+      <c r="I78" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J78" s="292"/>
     </row>
     <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="365"/>
-      <c r="B79" s="362"/>
+      <c r="A79" s="352"/>
+      <c r="B79" s="403"/>
       <c r="C79" s="39" t="s">
         <v>68</v>
       </c>
@@ -6221,16 +6215,16 @@
       <c r="H79" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I79" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J79" s="295" t="s">
+      <c r="I79" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J79" s="292" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="365"/>
-      <c r="B80" s="363"/>
+      <c r="A80" s="352"/>
+      <c r="B80" s="404"/>
       <c r="C80" s="39" t="s">
         <v>69</v>
       </c>
@@ -6249,16 +6243,16 @@
       <c r="H80" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I80" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J80" s="295" t="s">
+      <c r="I80" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J80" s="292" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="366"/>
-      <c r="B81" s="212" t="s">
+      <c r="A81" s="351"/>
+      <c r="B81" s="211" t="s">
         <v>187</v>
       </c>
       <c r="C81" s="19" t="s">
@@ -6279,17 +6273,17 @@
       <c r="H81" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I81" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J81" s="302"/>
+      <c r="I81" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J81" s="299"/>
     </row>
     <row r="82" spans="1:10" ht="83" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="413"/>
-      <c r="B82" s="344" t="s">
+      <c r="A82" s="389"/>
+      <c r="B82" s="341" t="s">
         <v>146</v>
       </c>
-      <c r="C82" s="343" t="s">
+      <c r="C82" s="340" t="s">
         <v>71</v>
       </c>
       <c r="D82" s="74" t="s">
@@ -6307,14 +6301,14 @@
       <c r="H82" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I82" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J82" s="308"/>
+      <c r="I82" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J82" s="305"/>
     </row>
     <row r="83" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="413"/>
-      <c r="B83" s="213" t="s">
+      <c r="A83" s="389"/>
+      <c r="B83" s="212" t="s">
         <v>147</v>
       </c>
       <c r="C83" s="77" t="s">
@@ -6335,14 +6329,14 @@
       <c r="H83" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I83" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J83" s="309"/>
+      <c r="I83" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J83" s="306"/>
     </row>
     <row r="84" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="413"/>
-      <c r="B84" s="214" t="s">
+      <c r="A84" s="389"/>
+      <c r="B84" s="213" t="s">
         <v>148</v>
       </c>
       <c r="C84" s="77" t="s">
@@ -6363,14 +6357,14 @@
       <c r="H84" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I84" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J84" s="309"/>
+      <c r="I84" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J84" s="306"/>
     </row>
     <row r="85" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="413"/>
-      <c r="B85" s="214" t="s">
+      <c r="A85" s="389"/>
+      <c r="B85" s="213" t="s">
         <v>149</v>
       </c>
       <c r="C85" s="77" t="s">
@@ -6391,14 +6385,14 @@
       <c r="H85" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I85" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J85" s="309"/>
+      <c r="I85" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J85" s="306"/>
     </row>
     <row r="86" spans="1:10" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="414"/>
-      <c r="B86" s="214" t="s">
+      <c r="A86" s="390"/>
+      <c r="B86" s="213" t="s">
         <v>150</v>
       </c>
       <c r="C86" s="79" t="s">
@@ -6419,18 +6413,18 @@
       <c r="H86" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I86" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J86" s="310" t="s">
+      <c r="I86" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J86" s="307" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="364" t="s">
+      <c r="A87" s="350" t="s">
         <v>151</v>
       </c>
-      <c r="B87" s="215" t="s">
+      <c r="B87" s="214" t="s">
         <v>152</v>
       </c>
       <c r="C87" s="33" t="s">
@@ -6451,14 +6445,14 @@
       <c r="H87" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I87" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J87" s="295"/>
+      <c r="I87" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J87" s="292"/>
     </row>
     <row r="88" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="366"/>
-      <c r="B88" s="216" t="s">
+      <c r="A88" s="351"/>
+      <c r="B88" s="215" t="s">
         <v>153</v>
       </c>
       <c r="C88" s="17" t="s">
@@ -6479,18 +6473,18 @@
       <c r="H88" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I88" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J88" s="311" t="s">
+      <c r="I88" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J88" s="308" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="417" t="s">
+      <c r="A89" s="345" t="s">
         <v>156</v>
       </c>
-      <c r="B89" s="415" t="s">
+      <c r="B89" s="421" t="s">
         <v>154</v>
       </c>
       <c r="C89" s="46" t="s">
@@ -6511,14 +6505,14 @@
       <c r="H89" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I89" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J89" s="312"/>
+      <c r="I89" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J89" s="309"/>
     </row>
     <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="418"/>
-      <c r="B90" s="416"/>
+      <c r="A90" s="346"/>
+      <c r="B90" s="422"/>
       <c r="C90" s="48" t="s">
         <v>84</v>
       </c>
@@ -6537,16 +6531,16 @@
       <c r="H90" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I90" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J90" s="313" t="s">
+      <c r="I90" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J90" s="310" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="419"/>
-      <c r="B91" s="217" t="s">
+      <c r="A91" s="347"/>
+      <c r="B91" s="216" t="s">
         <v>155</v>
       </c>
       <c r="C91" s="51" t="s">
@@ -6567,17 +6561,17 @@
       <c r="H91" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I91" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J91" s="314"/>
+      <c r="I91" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J91" s="311"/>
     </row>
     <row r="92" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="364" t="s">
+      <c r="A92" s="350" t="s">
         <v>157</v>
       </c>
-      <c r="B92" s="218"/>
-      <c r="C92" s="352" t="s">
+      <c r="B92" s="217"/>
+      <c r="C92" s="396" t="s">
         <v>86</v>
       </c>
       <c r="D92" s="36" t="s">
@@ -6595,15 +6589,15 @@
       <c r="H92" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I92" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J92" s="315"/>
+      <c r="I92" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J92" s="312"/>
     </row>
     <row r="93" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="365"/>
-      <c r="B93" s="219"/>
-      <c r="C93" s="353"/>
+      <c r="A93" s="352"/>
+      <c r="B93" s="218"/>
+      <c r="C93" s="397"/>
       <c r="D93" s="38" t="s">
         <v>17</v>
       </c>
@@ -6619,16 +6613,16 @@
       <c r="H93" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I93" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J93" s="316" t="s">
+      <c r="I93" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J93" s="313" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="366"/>
-      <c r="B94" s="220"/>
+      <c r="A94" s="351"/>
+      <c r="B94" s="219"/>
       <c r="C94" s="17" t="s">
         <v>87</v>
       </c>
@@ -6647,18 +6641,18 @@
       <c r="H94" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I94" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J94" s="317" t="s">
+      <c r="I94" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J94" s="314" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="44.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="392" t="s">
+      <c r="A95" s="366" t="s">
         <v>158</v>
       </c>
-      <c r="B95" s="221" t="s">
+      <c r="B95" s="220" t="s">
         <v>92</v>
       </c>
       <c r="C95" s="81" t="s">
@@ -6679,14 +6673,14 @@
       <c r="H95" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I95" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J95" s="318"/>
+      <c r="I95" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J95" s="315"/>
     </row>
     <row r="96" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="393"/>
-      <c r="B96" s="221" t="s">
+      <c r="A96" s="367"/>
+      <c r="B96" s="220" t="s">
         <v>160</v>
       </c>
       <c r="C96" s="139" t="s">
@@ -6707,14 +6701,14 @@
       <c r="H96" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I96" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J96" s="319"/>
+      <c r="I96" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J96" s="316"/>
     </row>
     <row r="97" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="394"/>
-      <c r="B97" s="221" t="s">
+      <c r="A97" s="368"/>
+      <c r="B97" s="220" t="s">
         <v>159</v>
       </c>
       <c r="C97" s="81" t="s">
@@ -6735,16 +6729,16 @@
       <c r="H97" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I97" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J97" s="320"/>
+      <c r="I97" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J97" s="317"/>
     </row>
     <row r="98" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="354" t="s">
+      <c r="A98" s="356" t="s">
         <v>164</v>
       </c>
-      <c r="B98" s="222" t="s">
+      <c r="B98" s="221" t="s">
         <v>162</v>
       </c>
       <c r="C98" s="33" t="s">
@@ -6765,14 +6759,14 @@
       <c r="H98" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I98" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J98" s="295"/>
+      <c r="I98" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J98" s="292"/>
     </row>
     <row r="99" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="355"/>
-      <c r="B99" s="223" t="s">
+      <c r="A99" s="384"/>
+      <c r="B99" s="222" t="s">
         <v>163</v>
       </c>
       <c r="C99" s="23" t="s">
@@ -6793,16 +6787,16 @@
       <c r="H99" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I99" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J99" s="321" t="s">
+      <c r="I99" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J99" s="318" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="356"/>
-      <c r="B100" s="224" t="s">
+      <c r="A100" s="385"/>
+      <c r="B100" s="223" t="s">
         <v>213</v>
       </c>
       <c r="C100" s="155" t="s">
@@ -6823,16 +6817,16 @@
       <c r="H100" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I100" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J100" s="317"/>
+      <c r="I100" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J100" s="314"/>
     </row>
     <row r="101" spans="1:10" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="370" t="s">
+      <c r="A101" s="408" t="s">
         <v>165</v>
       </c>
-      <c r="B101" s="225" t="s">
+      <c r="B101" s="224" t="s">
         <v>166</v>
       </c>
       <c r="C101" s="152" t="s">
@@ -6853,14 +6847,14 @@
       <c r="H101" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I101" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J101" s="322"/>
+      <c r="I101" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J101" s="319"/>
     </row>
     <row r="102" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="371"/>
-      <c r="B102" s="226" t="s">
+      <c r="A102" s="409"/>
+      <c r="B102" s="225" t="s">
         <v>167</v>
       </c>
       <c r="C102" s="86" t="s">
@@ -6881,16 +6875,16 @@
       <c r="H102" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I102" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J102" s="323"/>
+      <c r="I102" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J102" s="320"/>
     </row>
     <row r="103" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="364" t="s">
+      <c r="A103" s="350" t="s">
         <v>168</v>
       </c>
-      <c r="B103" s="227" t="s">
+      <c r="B103" s="226" t="s">
         <v>102</v>
       </c>
       <c r="C103" s="23" t="s">
@@ -6911,14 +6905,14 @@
       <c r="H103" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I103" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J103" s="298"/>
+      <c r="I103" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J103" s="295"/>
     </row>
     <row r="104" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="365"/>
-      <c r="B104" s="228" t="s">
+      <c r="A104" s="352"/>
+      <c r="B104" s="227" t="s">
         <v>107</v>
       </c>
       <c r="C104" s="33" t="s">
@@ -6939,16 +6933,16 @@
       <c r="H104" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I104" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J104" s="295" t="s">
+      <c r="I104" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J104" s="292" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="366"/>
-      <c r="B105" s="229" t="s">
+      <c r="A105" s="351"/>
+      <c r="B105" s="228" t="s">
         <v>116</v>
       </c>
       <c r="C105" s="23" t="s">
@@ -6969,18 +6963,18 @@
       <c r="H105" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I105" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J105" s="302" t="s">
+      <c r="I105" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J105" s="299" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="354" t="s">
+      <c r="A106" s="356" t="s">
         <v>215</v>
       </c>
-      <c r="B106" s="230" t="s">
+      <c r="B106" s="229" t="s">
         <v>109</v>
       </c>
       <c r="C106" s="33" t="s">
@@ -7001,14 +6995,14 @@
       <c r="H106" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I106" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J106" s="295"/>
+      <c r="I106" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J106" s="292"/>
     </row>
     <row r="107" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="366"/>
-      <c r="B107" s="231" t="s">
+      <c r="A107" s="351"/>
+      <c r="B107" s="230" t="s">
         <v>216</v>
       </c>
       <c r="C107" s="17" t="s">
@@ -7029,16 +7023,16 @@
       <c r="H107" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I107" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J107" s="311"/>
+      <c r="I107" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J107" s="308"/>
     </row>
     <row r="108" spans="1:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="364" t="s">
+      <c r="A108" s="350" t="s">
         <v>243</v>
       </c>
-      <c r="B108" s="209" t="s">
+      <c r="B108" s="208" t="s">
         <v>117</v>
       </c>
       <c r="C108" s="168" t="s">
@@ -7059,14 +7053,14 @@
       <c r="H108" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I108" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J108" s="324"/>
+      <c r="I108" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J108" s="321"/>
     </row>
     <row r="109" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="366"/>
-      <c r="B109" s="231" t="s">
+      <c r="A109" s="351"/>
+      <c r="B109" s="230" t="s">
         <v>244</v>
       </c>
       <c r="C109" s="17" t="s">
@@ -7087,16 +7081,16 @@
       <c r="H109" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I109" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J109" s="311"/>
+      <c r="I109" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J109" s="308"/>
     </row>
     <row r="110" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A110" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="B110" s="232" t="s">
+      <c r="B110" s="231" t="s">
         <v>112</v>
       </c>
       <c r="C110" s="6" t="s">
@@ -7117,16 +7111,16 @@
       <c r="H110" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I110" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J110" s="325"/>
+      <c r="I110" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J110" s="322"/>
     </row>
     <row r="111" spans="1:10" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="364" t="s">
+      <c r="A111" s="350" t="s">
         <v>172</v>
       </c>
-      <c r="B111" s="209" t="s">
+      <c r="B111" s="208" t="s">
         <v>232</v>
       </c>
       <c r="C111" s="168" t="s">
@@ -7147,16 +7141,16 @@
       <c r="H111" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I111" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J111" s="425" t="s">
+      <c r="I111" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J111" s="344" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="366"/>
-      <c r="B112" s="231" t="s">
+      <c r="A112" s="351"/>
+      <c r="B112" s="230" t="s">
         <v>178</v>
       </c>
       <c r="C112" s="17" t="s">
@@ -7177,16 +7171,16 @@
       <c r="H112" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I112" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J112" s="311"/>
+      <c r="I112" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J112" s="308"/>
     </row>
     <row r="113" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A113" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="B113" s="232" t="s">
+      <c r="B113" s="231" t="s">
         <v>174</v>
       </c>
       <c r="C113" s="6" t="s">
@@ -7207,16 +7201,16 @@
       <c r="H113" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I113" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J113" s="325"/>
+      <c r="I113" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J113" s="322"/>
     </row>
     <row r="114" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A114" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="B114" s="232" t="s">
+      <c r="B114" s="231" t="s">
         <v>175</v>
       </c>
       <c r="C114" s="6" t="s">
@@ -7237,16 +7231,16 @@
       <c r="H114" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I114" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J114" s="325"/>
+      <c r="I114" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J114" s="322"/>
     </row>
     <row r="115" spans="1:10" ht="30.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A115" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="B115" s="232" t="s">
+      <c r="B115" s="231" t="s">
         <v>177</v>
       </c>
       <c r="C115" s="6" t="s">
@@ -7267,10 +7261,10 @@
       <c r="H115" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I115" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J115" s="325" t="s">
+      <c r="I115" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J115" s="322" t="s">
         <v>85</v>
       </c>
     </row>
@@ -7278,7 +7272,7 @@
       <c r="A116" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="B116" s="232" t="s">
+      <c r="B116" s="231" t="s">
         <v>180</v>
       </c>
       <c r="C116" s="6" t="s">
@@ -7299,10 +7293,10 @@
       <c r="H116" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I116" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J116" s="325" t="s">
+      <c r="I116" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J116" s="322" t="s">
         <v>85</v>
       </c>
     </row>
@@ -7310,7 +7304,7 @@
       <c r="A117" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="B117" s="232" t="s">
+      <c r="B117" s="231" t="s">
         <v>188</v>
       </c>
       <c r="C117" s="6" t="s">
@@ -7331,10 +7325,10 @@
       <c r="H117" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I117" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J117" s="325" t="s">
+      <c r="I117" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J117" s="322" t="s">
         <v>85</v>
       </c>
     </row>
@@ -7342,7 +7336,7 @@
       <c r="A118" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="B118" s="227" t="s">
+      <c r="B118" s="226" t="s">
         <v>128</v>
       </c>
       <c r="C118" s="16" t="s">
@@ -7363,10 +7357,10 @@
       <c r="H118" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I118" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J118" s="326" t="s">
+      <c r="I118" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J118" s="323" t="s">
         <v>85</v>
       </c>
     </row>
@@ -7374,7 +7368,7 @@
       <c r="A119" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="B119" s="233" t="s">
+      <c r="B119" s="232" t="s">
         <v>170</v>
       </c>
       <c r="C119" s="42" t="s">
@@ -7395,17 +7389,17 @@
       <c r="H119" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I119" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J119" s="298"/>
+      <c r="I119" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J119" s="295"/>
     </row>
     <row r="120" spans="1:10" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="349" t="s">
+      <c r="A120" s="393" t="s">
         <v>183</v>
       </c>
-      <c r="B120" s="234"/>
-      <c r="C120" s="380" t="s">
+      <c r="B120" s="233"/>
+      <c r="C120" s="418" t="s">
         <v>129</v>
       </c>
       <c r="D120" s="89" t="s">
@@ -7423,17 +7417,17 @@
       <c r="H120" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I120" s="345" t="s">
+      <c r="I120" s="342" t="s">
         <v>531</v>
       </c>
-      <c r="J120" s="346" t="s">
+      <c r="J120" s="343" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="350"/>
-      <c r="B121" s="234"/>
-      <c r="C121" s="381"/>
+      <c r="A121" s="394"/>
+      <c r="B121" s="233"/>
+      <c r="C121" s="419"/>
       <c r="D121" s="91" t="s">
         <v>17</v>
       </c>
@@ -7449,17 +7443,17 @@
       <c r="H121" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I121" s="345" t="s">
+      <c r="I121" s="342" t="s">
         <v>531</v>
       </c>
-      <c r="J121" s="346" t="s">
+      <c r="J121" s="343" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="350"/>
-      <c r="B122" s="234"/>
-      <c r="C122" s="381"/>
+      <c r="A122" s="394"/>
+      <c r="B122" s="233"/>
+      <c r="C122" s="419"/>
       <c r="D122" s="94" t="s">
         <v>17</v>
       </c>
@@ -7475,17 +7469,17 @@
       <c r="H122" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I122" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J122" s="327" t="s">
+      <c r="I122" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J122" s="324" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A123" s="350"/>
-      <c r="B123" s="235"/>
-      <c r="C123" s="381"/>
+      <c r="A123" s="394"/>
+      <c r="B123" s="234"/>
+      <c r="C123" s="419"/>
       <c r="D123" s="94" t="s">
         <v>17</v>
       </c>
@@ -7501,17 +7495,17 @@
       <c r="H123" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I123" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J123" s="327" t="s">
+      <c r="I123" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J123" s="324" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="350"/>
-      <c r="B124" s="236"/>
-      <c r="C124" s="382"/>
+      <c r="A124" s="394"/>
+      <c r="B124" s="235"/>
+      <c r="C124" s="420"/>
       <c r="D124" s="95" t="s">
         <v>17</v>
       </c>
@@ -7527,17 +7521,17 @@
       <c r="H124" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I124" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J124" s="328" t="s">
+      <c r="I124" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J124" s="325" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="350"/>
-      <c r="B125" s="236"/>
-      <c r="C125" s="347" t="s">
+      <c r="A125" s="394"/>
+      <c r="B125" s="235"/>
+      <c r="C125" s="391" t="s">
         <v>133</v>
       </c>
       <c r="D125" s="97" t="s">
@@ -7555,17 +7549,17 @@
       <c r="H125" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I125" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J125" s="329" t="s">
+      <c r="I125" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J125" s="326" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A126" s="350"/>
-      <c r="B126" s="236"/>
-      <c r="C126" s="348"/>
+      <c r="A126" s="394"/>
+      <c r="B126" s="235"/>
+      <c r="C126" s="392"/>
       <c r="D126" s="99" t="s">
         <v>17</v>
       </c>
@@ -7581,16 +7575,16 @@
       <c r="H126" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I126" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J126" s="330" t="s">
+      <c r="I126" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J126" s="327" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A127" s="351"/>
-      <c r="B127" s="237"/>
+      <c r="A127" s="395"/>
+      <c r="B127" s="236"/>
       <c r="C127" s="151" t="s">
         <v>135</v>
       </c>
@@ -7609,18 +7603,18 @@
       <c r="H127" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I127" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J127" s="331" t="s">
+      <c r="I127" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J127" s="328" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A128" s="422" t="s">
+      <c r="A128" s="353" t="s">
         <v>191</v>
       </c>
-      <c r="B128" s="238"/>
+      <c r="B128" s="237"/>
       <c r="C128" s="9" t="s">
         <v>192</v>
       </c>
@@ -7639,14 +7633,14 @@
       <c r="H128" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I128" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J128" s="332"/>
+      <c r="I128" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J128" s="329"/>
     </row>
     <row r="129" spans="1:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A129" s="423"/>
-      <c r="B129" s="239"/>
+      <c r="A129" s="354"/>
+      <c r="B129" s="238"/>
       <c r="C129" s="2" t="s">
         <v>193</v>
       </c>
@@ -7665,14 +7659,14 @@
       <c r="H129" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I129" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J129" s="333"/>
+      <c r="I129" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J129" s="330"/>
     </row>
     <row r="130" spans="1:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A130" s="424"/>
-      <c r="B130" s="240"/>
+      <c r="A130" s="355"/>
+      <c r="B130" s="239"/>
       <c r="C130" s="22" t="s">
         <v>254</v>
       </c>
@@ -7691,16 +7685,16 @@
       <c r="H130" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I130" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J130" s="334"/>
+      <c r="I130" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J130" s="331"/>
     </row>
     <row r="131" spans="1:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A131" s="422" t="s">
+      <c r="A131" s="353" t="s">
         <v>199</v>
       </c>
-      <c r="B131" s="238"/>
+      <c r="B131" s="237"/>
       <c r="C131" s="122" t="s">
         <v>196</v>
       </c>
@@ -7719,14 +7713,14 @@
       <c r="H131" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I131" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J131" s="332"/>
+      <c r="I131" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J131" s="329"/>
     </row>
     <row r="132" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A132" s="423"/>
-      <c r="B132" s="239"/>
+      <c r="A132" s="354"/>
+      <c r="B132" s="238"/>
       <c r="C132" s="123" t="s">
         <v>197</v>
       </c>
@@ -7745,14 +7739,14 @@
       <c r="H132" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I132" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J132" s="333"/>
+      <c r="I132" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J132" s="330"/>
     </row>
     <row r="133" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A133" s="424"/>
-      <c r="B133" s="241"/>
+      <c r="A133" s="355"/>
+      <c r="B133" s="240"/>
       <c r="C133" s="121" t="s">
         <v>198</v>
       </c>
@@ -7771,16 +7765,16 @@
       <c r="H133" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I133" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J133" s="335"/>
+      <c r="I133" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J133" s="332"/>
     </row>
     <row r="134" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A134" s="128" t="s">
         <v>200</v>
       </c>
-      <c r="B134" s="242"/>
+      <c r="B134" s="241"/>
       <c r="C134" s="121" t="s">
         <v>201</v>
       </c>
@@ -7799,16 +7793,16 @@
       <c r="H134" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I134" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J134" s="335"/>
+      <c r="I134" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J134" s="332"/>
     </row>
     <row r="135" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A135" s="129" t="s">
         <v>202</v>
       </c>
-      <c r="B135" s="243"/>
+      <c r="B135" s="242"/>
       <c r="C135" s="3" t="s">
         <v>203</v>
       </c>
@@ -7827,16 +7821,16 @@
       <c r="H135" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I135" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J135" s="336"/>
+      <c r="I135" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J135" s="333"/>
     </row>
     <row r="136" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A136" s="128" t="s">
         <v>229</v>
       </c>
-      <c r="B136" s="242"/>
+      <c r="B136" s="241"/>
       <c r="C136" s="3" t="s">
         <v>230</v>
       </c>
@@ -7855,16 +7849,16 @@
       <c r="H136" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I136" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J136" s="337"/>
+      <c r="I136" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J136" s="334"/>
     </row>
     <row r="137" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A137" s="420" t="s">
+      <c r="A137" s="348" t="s">
         <v>233</v>
       </c>
-      <c r="B137" s="244" t="s">
+      <c r="B137" s="243" t="s">
         <v>258</v>
       </c>
       <c r="C137" s="170" t="s">
@@ -7885,14 +7879,14 @@
       <c r="H137" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I137" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J137" s="338"/>
+      <c r="I137" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J137" s="335"/>
     </row>
     <row r="138" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A138" s="421"/>
-      <c r="B138" s="245" t="s">
+      <c r="A138" s="349"/>
+      <c r="B138" s="244" t="s">
         <v>259</v>
       </c>
       <c r="C138" s="14" t="s">
@@ -7913,16 +7907,16 @@
       <c r="H138" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I138" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J138" s="336"/>
+      <c r="I138" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J138" s="333"/>
     </row>
     <row r="139" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A139" s="127" t="s">
         <v>234</v>
       </c>
-      <c r="B139" s="243"/>
+      <c r="B139" s="242"/>
       <c r="C139" s="3" t="s">
         <v>242</v>
       </c>
@@ -7941,16 +7935,16 @@
       <c r="H139" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I139" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J139" s="325"/>
+      <c r="I139" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J139" s="322"/>
     </row>
     <row r="140" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A140" s="127" t="s">
         <v>235</v>
       </c>
-      <c r="B140" s="243"/>
+      <c r="B140" s="242"/>
       <c r="C140" s="3" t="s">
         <v>241</v>
       </c>
@@ -7969,16 +7963,16 @@
       <c r="H140" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I140" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J140" s="325"/>
+      <c r="I140" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J140" s="322"/>
     </row>
     <row r="141" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A141" s="127" t="s">
         <v>236</v>
       </c>
-      <c r="B141" s="243"/>
+      <c r="B141" s="242"/>
       <c r="C141" s="3" t="s">
         <v>248</v>
       </c>
@@ -7997,16 +7991,16 @@
       <c r="H141" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I141" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J141" s="325"/>
+      <c r="I141" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J141" s="322"/>
     </row>
     <row r="142" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A142" s="127" t="s">
         <v>237</v>
       </c>
-      <c r="B142" s="243"/>
+      <c r="B142" s="242"/>
       <c r="C142" s="3" t="s">
         <v>249</v>
       </c>
@@ -8025,16 +8019,16 @@
       <c r="H142" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I142" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J142" s="325"/>
+      <c r="I142" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J142" s="322"/>
     </row>
     <row r="143" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A143" s="127" t="s">
         <v>238</v>
       </c>
-      <c r="B143" s="243"/>
+      <c r="B143" s="242"/>
       <c r="C143" s="3" t="s">
         <v>250</v>
       </c>
@@ -8053,16 +8047,16 @@
       <c r="H143" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I143" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J143" s="325"/>
+      <c r="I143" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J143" s="322"/>
     </row>
     <row r="144" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A144" s="127" t="s">
         <v>239</v>
       </c>
-      <c r="B144" s="243"/>
+      <c r="B144" s="242"/>
       <c r="C144" s="3" t="s">
         <v>251</v>
       </c>
@@ -8081,16 +8075,16 @@
       <c r="H144" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I144" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J144" s="325"/>
+      <c r="I144" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J144" s="322"/>
     </row>
     <row r="145" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A145" s="127" t="s">
         <v>240</v>
       </c>
-      <c r="B145" s="243"/>
+      <c r="B145" s="242"/>
       <c r="C145" s="3" t="s">
         <v>252</v>
       </c>
@@ -8109,10 +8103,10 @@
       <c r="H145" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I145" s="271" t="s">
-        <v>532</v>
-      </c>
-      <c r="J145" s="325"/>
+      <c r="I145" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J145" s="322"/>
     </row>
     <row r="146" spans="1:10" ht="17.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="C146" s="12"/>
@@ -8120,8 +8114,8 @@
       <c r="E146" s="12"/>
       <c r="F146" s="12"/>
       <c r="G146" s="12"/>
-      <c r="I146" s="257"/>
-      <c r="J146" s="339"/>
+      <c r="I146" s="255"/>
+      <c r="J146" s="336"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C147" s="12"/>
@@ -8129,8 +8123,8 @@
       <c r="E147" s="12"/>
       <c r="F147" s="12"/>
       <c r="G147" s="12"/>
-      <c r="I147" s="257"/>
-      <c r="J147" s="339"/>
+      <c r="I147" s="255"/>
+      <c r="J147" s="336"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C148" s="12"/>
@@ -8138,8 +8132,8 @@
       <c r="E148" s="12"/>
       <c r="F148" s="12"/>
       <c r="G148" s="12"/>
-      <c r="I148" s="257"/>
-      <c r="J148" s="339"/>
+      <c r="I148" s="255"/>
+      <c r="J148" s="336"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C149" s="12"/>
@@ -8147,8 +8141,8 @@
       <c r="E149" s="12"/>
       <c r="F149" s="12"/>
       <c r="G149" s="12"/>
-      <c r="I149" s="257"/>
-      <c r="J149" s="339"/>
+      <c r="I149" s="255"/>
+      <c r="J149" s="336"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C150" s="12"/>
@@ -8156,8 +8150,8 @@
       <c r="E150" s="12"/>
       <c r="F150" s="12"/>
       <c r="G150" s="12"/>
-      <c r="I150" s="257"/>
-      <c r="J150" s="339"/>
+      <c r="I150" s="255"/>
+      <c r="J150" s="336"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C151" s="12"/>
@@ -8165,8 +8159,8 @@
       <c r="E151" s="12"/>
       <c r="F151" s="12"/>
       <c r="G151" s="12"/>
-      <c r="I151" s="257"/>
-      <c r="J151" s="339"/>
+      <c r="I151" s="255"/>
+      <c r="J151" s="336"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C152" s="12"/>
@@ -8174,8 +8168,8 @@
       <c r="E152" s="12"/>
       <c r="F152" s="12"/>
       <c r="G152" s="12"/>
-      <c r="I152" s="257"/>
-      <c r="J152" s="339"/>
+      <c r="I152" s="255"/>
+      <c r="J152" s="336"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C153" s="12"/>
@@ -8183,8 +8177,8 @@
       <c r="E153" s="12"/>
       <c r="F153" s="12"/>
       <c r="G153" s="12"/>
-      <c r="I153" s="257"/>
-      <c r="J153" s="339"/>
+      <c r="I153" s="255"/>
+      <c r="J153" s="336"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C154" s="12"/>
@@ -8192,8 +8186,8 @@
       <c r="E154" s="12"/>
       <c r="F154" s="12"/>
       <c r="G154" s="12"/>
-      <c r="I154" s="257"/>
-      <c r="J154" s="339"/>
+      <c r="I154" s="255"/>
+      <c r="J154" s="336"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C155" s="12"/>
@@ -8201,8 +8195,8 @@
       <c r="E155" s="12"/>
       <c r="F155" s="12"/>
       <c r="G155" s="12"/>
-      <c r="I155" s="257"/>
-      <c r="J155" s="339"/>
+      <c r="I155" s="255"/>
+      <c r="J155" s="336"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C156" s="12"/>
@@ -8210,8 +8204,8 @@
       <c r="E156" s="12"/>
       <c r="F156" s="12"/>
       <c r="G156" s="12"/>
-      <c r="I156" s="257"/>
-      <c r="J156" s="339"/>
+      <c r="I156" s="255"/>
+      <c r="J156" s="336"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C157" s="12"/>
@@ -8219,8 +8213,8 @@
       <c r="E157" s="12"/>
       <c r="F157" s="12"/>
       <c r="G157" s="12"/>
-      <c r="I157" s="257"/>
-      <c r="J157" s="339"/>
+      <c r="I157" s="255"/>
+      <c r="J157" s="336"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C158" s="12"/>
@@ -8228,8 +8222,8 @@
       <c r="E158" s="12"/>
       <c r="F158" s="12"/>
       <c r="G158" s="12"/>
-      <c r="I158" s="257"/>
-      <c r="J158" s="339"/>
+      <c r="I158" s="255"/>
+      <c r="J158" s="336"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C159" s="12"/>
@@ -8237,8 +8231,8 @@
       <c r="E159" s="12"/>
       <c r="F159" s="12"/>
       <c r="G159" s="12"/>
-      <c r="I159" s="257"/>
-      <c r="J159" s="339"/>
+      <c r="I159" s="255"/>
+      <c r="J159" s="336"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C160" s="12"/>
@@ -8246,8 +8240,8 @@
       <c r="E160" s="12"/>
       <c r="F160" s="12"/>
       <c r="G160" s="12"/>
-      <c r="I160" s="257"/>
-      <c r="J160" s="339"/>
+      <c r="I160" s="255"/>
+      <c r="J160" s="336"/>
     </row>
     <row r="161" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C161" s="12"/>
@@ -8255,8 +8249,8 @@
       <c r="E161" s="12"/>
       <c r="F161" s="12"/>
       <c r="G161" s="12"/>
-      <c r="I161" s="257"/>
-      <c r="J161" s="339"/>
+      <c r="I161" s="255"/>
+      <c r="J161" s="336"/>
     </row>
     <row r="162" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C162" s="12"/>
@@ -8264,8 +8258,8 @@
       <c r="E162" s="12"/>
       <c r="F162" s="12"/>
       <c r="G162" s="12"/>
-      <c r="I162" s="257"/>
-      <c r="J162" s="339"/>
+      <c r="I162" s="255"/>
+      <c r="J162" s="336"/>
     </row>
     <row r="163" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C163" s="12"/>
@@ -8273,8 +8267,8 @@
       <c r="E163" s="12"/>
       <c r="F163" s="12"/>
       <c r="G163" s="12"/>
-      <c r="I163" s="257"/>
-      <c r="J163" s="339"/>
+      <c r="I163" s="255"/>
+      <c r="J163" s="336"/>
     </row>
     <row r="164" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C164" s="12"/>
@@ -8282,8 +8276,8 @@
       <c r="E164" s="12"/>
       <c r="F164" s="12"/>
       <c r="G164" s="12"/>
-      <c r="I164" s="257"/>
-      <c r="J164" s="339"/>
+      <c r="I164" s="255"/>
+      <c r="J164" s="336"/>
     </row>
     <row r="165" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C165" s="12"/>
@@ -8291,8 +8285,8 @@
       <c r="E165" s="12"/>
       <c r="F165" s="12"/>
       <c r="G165" s="12"/>
-      <c r="I165" s="257"/>
-      <c r="J165" s="339"/>
+      <c r="I165" s="255"/>
+      <c r="J165" s="336"/>
     </row>
     <row r="166" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C166" s="12"/>
@@ -8300,8 +8294,8 @@
       <c r="E166" s="12"/>
       <c r="F166" s="12"/>
       <c r="G166" s="12"/>
-      <c r="I166" s="257"/>
-      <c r="J166" s="339"/>
+      <c r="I166" s="255"/>
+      <c r="J166" s="336"/>
     </row>
     <row r="167" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C167" s="12"/>
@@ -8309,8 +8303,8 @@
       <c r="E167" s="12"/>
       <c r="F167" s="12"/>
       <c r="G167" s="12"/>
-      <c r="I167" s="257"/>
-      <c r="J167" s="339"/>
+      <c r="I167" s="255"/>
+      <c r="J167" s="336"/>
     </row>
     <row r="168" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C168" s="12"/>
@@ -8318,8 +8312,8 @@
       <c r="E168" s="12"/>
       <c r="F168" s="12"/>
       <c r="G168" s="12"/>
-      <c r="I168" s="257"/>
-      <c r="J168" s="339"/>
+      <c r="I168" s="255"/>
+      <c r="J168" s="336"/>
     </row>
     <row r="169" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C169" s="12"/>
@@ -8327,8 +8321,8 @@
       <c r="E169" s="12"/>
       <c r="F169" s="12"/>
       <c r="G169" s="12"/>
-      <c r="I169" s="257"/>
-      <c r="J169" s="339"/>
+      <c r="I169" s="255"/>
+      <c r="J169" s="336"/>
     </row>
     <row r="170" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C170" s="12"/>
@@ -8336,8 +8330,8 @@
       <c r="E170" s="12"/>
       <c r="F170" s="12"/>
       <c r="G170" s="12"/>
-      <c r="I170" s="257"/>
-      <c r="J170" s="339"/>
+      <c r="I170" s="255"/>
+      <c r="J170" s="336"/>
     </row>
     <row r="171" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C171" s="12"/>
@@ -8345,8 +8339,8 @@
       <c r="E171" s="12"/>
       <c r="F171" s="12"/>
       <c r="G171" s="12"/>
-      <c r="I171" s="257"/>
-      <c r="J171" s="339"/>
+      <c r="I171" s="255"/>
+      <c r="J171" s="336"/>
     </row>
     <row r="172" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C172" s="12"/>
@@ -8354,8 +8348,8 @@
       <c r="E172" s="12"/>
       <c r="F172" s="12"/>
       <c r="G172" s="12"/>
-      <c r="I172" s="257"/>
-      <c r="J172" s="339"/>
+      <c r="I172" s="255"/>
+      <c r="J172" s="336"/>
     </row>
     <row r="173" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C173" s="12"/>
@@ -8363,8 +8357,8 @@
       <c r="E173" s="12"/>
       <c r="F173" s="12"/>
       <c r="G173" s="12"/>
-      <c r="I173" s="257"/>
-      <c r="J173" s="339"/>
+      <c r="I173" s="255"/>
+      <c r="J173" s="336"/>
     </row>
     <row r="174" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C174" s="12"/>
@@ -8372,8 +8366,8 @@
       <c r="E174" s="12"/>
       <c r="F174" s="12"/>
       <c r="G174" s="12"/>
-      <c r="I174" s="257"/>
-      <c r="J174" s="339"/>
+      <c r="I174" s="255"/>
+      <c r="J174" s="336"/>
     </row>
     <row r="175" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C175" s="12"/>
@@ -8381,8 +8375,8 @@
       <c r="E175" s="12"/>
       <c r="F175" s="12"/>
       <c r="G175" s="12"/>
-      <c r="I175" s="257"/>
-      <c r="J175" s="339"/>
+      <c r="I175" s="255"/>
+      <c r="J175" s="336"/>
     </row>
     <row r="176" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C176" s="12"/>
@@ -8390,8 +8384,8 @@
       <c r="E176" s="12"/>
       <c r="F176" s="12"/>
       <c r="G176" s="12"/>
-      <c r="I176" s="257"/>
-      <c r="J176" s="339"/>
+      <c r="I176" s="255"/>
+      <c r="J176" s="336"/>
     </row>
     <row r="177" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C177" s="12"/>
@@ -8399,8 +8393,8 @@
       <c r="E177" s="12"/>
       <c r="F177" s="12"/>
       <c r="G177" s="12"/>
-      <c r="I177" s="257"/>
-      <c r="J177" s="339"/>
+      <c r="I177" s="255"/>
+      <c r="J177" s="336"/>
     </row>
     <row r="178" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C178" s="12"/>
@@ -8408,8 +8402,8 @@
       <c r="E178" s="12"/>
       <c r="F178" s="12"/>
       <c r="G178" s="12"/>
-      <c r="I178" s="257"/>
-      <c r="J178" s="339"/>
+      <c r="I178" s="255"/>
+      <c r="J178" s="336"/>
     </row>
     <row r="179" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C179" s="12"/>
@@ -8417,8 +8411,8 @@
       <c r="E179" s="12"/>
       <c r="F179" s="12"/>
       <c r="G179" s="12"/>
-      <c r="I179" s="257"/>
-      <c r="J179" s="339"/>
+      <c r="I179" s="255"/>
+      <c r="J179" s="336"/>
     </row>
     <row r="180" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C180" s="12"/>
@@ -8426,8 +8420,8 @@
       <c r="E180" s="12"/>
       <c r="F180" s="12"/>
       <c r="G180" s="12"/>
-      <c r="I180" s="257"/>
-      <c r="J180" s="339"/>
+      <c r="I180" s="255"/>
+      <c r="J180" s="336"/>
     </row>
     <row r="181" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C181" s="12"/>
@@ -8435,8 +8429,8 @@
       <c r="E181" s="12"/>
       <c r="F181" s="12"/>
       <c r="G181" s="12"/>
-      <c r="I181" s="257"/>
-      <c r="J181" s="339"/>
+      <c r="I181" s="255"/>
+      <c r="J181" s="336"/>
     </row>
     <row r="182" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C182" s="12"/>
@@ -8444,8 +8438,8 @@
       <c r="E182" s="12"/>
       <c r="F182" s="12"/>
       <c r="G182" s="12"/>
-      <c r="I182" s="257"/>
-      <c r="J182" s="339"/>
+      <c r="I182" s="255"/>
+      <c r="J182" s="336"/>
     </row>
     <row r="183" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C183" s="12"/>
@@ -8453,8 +8447,8 @@
       <c r="E183" s="12"/>
       <c r="F183" s="12"/>
       <c r="G183" s="12"/>
-      <c r="I183" s="257"/>
-      <c r="J183" s="339"/>
+      <c r="I183" s="255"/>
+      <c r="J183" s="336"/>
     </row>
     <row r="184" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C184" s="12"/>
@@ -8462,8 +8456,8 @@
       <c r="E184" s="12"/>
       <c r="F184" s="12"/>
       <c r="G184" s="12"/>
-      <c r="I184" s="257"/>
-      <c r="J184" s="339"/>
+      <c r="I184" s="255"/>
+      <c r="J184" s="336"/>
     </row>
     <row r="185" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C185" s="12"/>
@@ -8471,8 +8465,8 @@
       <c r="E185" s="12"/>
       <c r="F185" s="12"/>
       <c r="G185" s="12"/>
-      <c r="I185" s="257"/>
-      <c r="J185" s="339"/>
+      <c r="I185" s="255"/>
+      <c r="J185" s="336"/>
     </row>
     <row r="186" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C186" s="12"/>
@@ -8480,8 +8474,8 @@
       <c r="E186" s="12"/>
       <c r="F186" s="12"/>
       <c r="G186" s="12"/>
-      <c r="I186" s="257"/>
-      <c r="J186" s="339"/>
+      <c r="I186" s="255"/>
+      <c r="J186" s="336"/>
     </row>
     <row r="187" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C187" s="12"/>
@@ -8489,8 +8483,8 @@
       <c r="E187" s="12"/>
       <c r="F187" s="12"/>
       <c r="G187" s="12"/>
-      <c r="I187" s="257"/>
-      <c r="J187" s="339"/>
+      <c r="I187" s="255"/>
+      <c r="J187" s="336"/>
     </row>
     <row r="188" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C188" s="12"/>
@@ -8498,8 +8492,8 @@
       <c r="E188" s="12"/>
       <c r="F188" s="12"/>
       <c r="G188" s="12"/>
-      <c r="I188" s="257"/>
-      <c r="J188" s="339"/>
+      <c r="I188" s="255"/>
+      <c r="J188" s="336"/>
     </row>
     <row r="189" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C189" s="12"/>
@@ -8507,8 +8501,8 @@
       <c r="E189" s="12"/>
       <c r="F189" s="12"/>
       <c r="G189" s="12"/>
-      <c r="I189" s="257"/>
-      <c r="J189" s="339"/>
+      <c r="I189" s="255"/>
+      <c r="J189" s="336"/>
     </row>
     <row r="190" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C190" s="12"/>
@@ -8516,8 +8510,8 @@
       <c r="E190" s="12"/>
       <c r="F190" s="12"/>
       <c r="G190" s="12"/>
-      <c r="I190" s="257"/>
-      <c r="J190" s="339"/>
+      <c r="I190" s="255"/>
+      <c r="J190" s="336"/>
     </row>
     <row r="191" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C191" s="12"/>
@@ -8525,8 +8519,8 @@
       <c r="E191" s="12"/>
       <c r="F191" s="12"/>
       <c r="G191" s="12"/>
-      <c r="I191" s="257"/>
-      <c r="J191" s="339"/>
+      <c r="I191" s="255"/>
+      <c r="J191" s="336"/>
     </row>
     <row r="192" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C192" s="12"/>
@@ -8534,8 +8528,8 @@
       <c r="E192" s="12"/>
       <c r="F192" s="12"/>
       <c r="G192" s="12"/>
-      <c r="I192" s="257"/>
-      <c r="J192" s="339"/>
+      <c r="I192" s="255"/>
+      <c r="J192" s="336"/>
     </row>
     <row r="193" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C193" s="12"/>
@@ -8543,8 +8537,8 @@
       <c r="E193" s="12"/>
       <c r="F193" s="12"/>
       <c r="G193" s="12"/>
-      <c r="I193" s="257"/>
-      <c r="J193" s="339"/>
+      <c r="I193" s="255"/>
+      <c r="J193" s="336"/>
     </row>
     <row r="194" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C194" s="12"/>
@@ -8552,8 +8546,8 @@
       <c r="E194" s="12"/>
       <c r="F194" s="12"/>
       <c r="G194" s="12"/>
-      <c r="I194" s="257"/>
-      <c r="J194" s="339"/>
+      <c r="I194" s="255"/>
+      <c r="J194" s="336"/>
     </row>
     <row r="195" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C195" s="12"/>
@@ -8561,8 +8555,8 @@
       <c r="E195" s="12"/>
       <c r="F195" s="12"/>
       <c r="G195" s="12"/>
-      <c r="I195" s="257"/>
-      <c r="J195" s="339"/>
+      <c r="I195" s="255"/>
+      <c r="J195" s="336"/>
     </row>
     <row r="196" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C196" s="12"/>
@@ -8570,8 +8564,8 @@
       <c r="E196" s="12"/>
       <c r="F196" s="12"/>
       <c r="G196" s="12"/>
-      <c r="I196" s="257"/>
-      <c r="J196" s="339"/>
+      <c r="I196" s="255"/>
+      <c r="J196" s="336"/>
     </row>
     <row r="197" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C197" s="12"/>
@@ -8579,8 +8573,8 @@
       <c r="E197" s="12"/>
       <c r="F197" s="12"/>
       <c r="G197" s="12"/>
-      <c r="I197" s="257"/>
-      <c r="J197" s="339"/>
+      <c r="I197" s="255"/>
+      <c r="J197" s="336"/>
     </row>
     <row r="198" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C198" s="12"/>
@@ -8588,8 +8582,8 @@
       <c r="E198" s="12"/>
       <c r="F198" s="12"/>
       <c r="G198" s="12"/>
-      <c r="I198" s="257"/>
-      <c r="J198" s="339"/>
+      <c r="I198" s="255"/>
+      <c r="J198" s="336"/>
     </row>
     <row r="199" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C199" s="12"/>
@@ -8597,8 +8591,8 @@
       <c r="E199" s="12"/>
       <c r="F199" s="12"/>
       <c r="G199" s="12"/>
-      <c r="I199" s="257"/>
-      <c r="J199" s="339"/>
+      <c r="I199" s="255"/>
+      <c r="J199" s="336"/>
     </row>
     <row r="200" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C200" s="12"/>
@@ -8606,8 +8600,8 @@
       <c r="E200" s="12"/>
       <c r="F200" s="12"/>
       <c r="G200" s="12"/>
-      <c r="I200" s="257"/>
-      <c r="J200" s="339"/>
+      <c r="I200" s="255"/>
+      <c r="J200" s="336"/>
     </row>
     <row r="201" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C201" s="12"/>
@@ -8615,8 +8609,8 @@
       <c r="E201" s="12"/>
       <c r="F201" s="12"/>
       <c r="G201" s="12"/>
-      <c r="I201" s="257"/>
-      <c r="J201" s="339"/>
+      <c r="I201" s="255"/>
+      <c r="J201" s="336"/>
     </row>
     <row r="202" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C202" s="12"/>
@@ -8624,8 +8618,8 @@
       <c r="E202" s="12"/>
       <c r="F202" s="12"/>
       <c r="G202" s="12"/>
-      <c r="I202" s="257"/>
-      <c r="J202" s="339"/>
+      <c r="I202" s="255"/>
+      <c r="J202" s="336"/>
     </row>
     <row r="203" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C203" s="12"/>
@@ -8633,8 +8627,8 @@
       <c r="E203" s="12"/>
       <c r="F203" s="12"/>
       <c r="G203" s="12"/>
-      <c r="I203" s="257"/>
-      <c r="J203" s="339"/>
+      <c r="I203" s="255"/>
+      <c r="J203" s="336"/>
     </row>
     <row r="204" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C204" s="12"/>
@@ -8642,8 +8636,8 @@
       <c r="E204" s="12"/>
       <c r="F204" s="12"/>
       <c r="G204" s="12"/>
-      <c r="I204" s="257"/>
-      <c r="J204" s="339"/>
+      <c r="I204" s="255"/>
+      <c r="J204" s="336"/>
     </row>
     <row r="205" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C205" s="12"/>
@@ -8651,8 +8645,8 @@
       <c r="E205" s="12"/>
       <c r="F205" s="12"/>
       <c r="G205" s="12"/>
-      <c r="I205" s="257"/>
-      <c r="J205" s="339"/>
+      <c r="I205" s="255"/>
+      <c r="J205" s="336"/>
     </row>
     <row r="206" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C206" s="12"/>
@@ -8660,8 +8654,8 @@
       <c r="E206" s="12"/>
       <c r="F206" s="12"/>
       <c r="G206" s="12"/>
-      <c r="I206" s="257"/>
-      <c r="J206" s="339"/>
+      <c r="I206" s="255"/>
+      <c r="J206" s="336"/>
     </row>
     <row r="207" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C207" s="12"/>
@@ -8669,8 +8663,8 @@
       <c r="E207" s="12"/>
       <c r="F207" s="12"/>
       <c r="G207" s="12"/>
-      <c r="I207" s="257"/>
-      <c r="J207" s="339"/>
+      <c r="I207" s="255"/>
+      <c r="J207" s="336"/>
     </row>
     <row r="208" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C208" s="12"/>
@@ -8678,8 +8672,8 @@
       <c r="E208" s="12"/>
       <c r="F208" s="12"/>
       <c r="G208" s="12"/>
-      <c r="I208" s="257"/>
-      <c r="J208" s="339"/>
+      <c r="I208" s="255"/>
+      <c r="J208" s="336"/>
     </row>
     <row r="209" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C209" s="12"/>
@@ -8687,8 +8681,8 @@
       <c r="E209" s="12"/>
       <c r="F209" s="12"/>
       <c r="G209" s="12"/>
-      <c r="I209" s="257"/>
-      <c r="J209" s="339"/>
+      <c r="I209" s="255"/>
+      <c r="J209" s="336"/>
     </row>
     <row r="210" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C210" s="12"/>
@@ -8696,8 +8690,8 @@
       <c r="E210" s="12"/>
       <c r="F210" s="12"/>
       <c r="G210" s="12"/>
-      <c r="I210" s="257"/>
-      <c r="J210" s="339"/>
+      <c r="I210" s="255"/>
+      <c r="J210" s="336"/>
     </row>
     <row r="211" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C211" s="12"/>
@@ -8705,8 +8699,8 @@
       <c r="E211" s="12"/>
       <c r="F211" s="12"/>
       <c r="G211" s="12"/>
-      <c r="I211" s="257"/>
-      <c r="J211" s="339"/>
+      <c r="I211" s="255"/>
+      <c r="J211" s="336"/>
     </row>
     <row r="212" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C212" s="12"/>
@@ -8714,8 +8708,8 @@
       <c r="E212" s="12"/>
       <c r="F212" s="12"/>
       <c r="G212" s="12"/>
-      <c r="I212" s="257"/>
-      <c r="J212" s="339"/>
+      <c r="I212" s="255"/>
+      <c r="J212" s="336"/>
     </row>
     <row r="213" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C213" s="12"/>
@@ -8723,8 +8717,8 @@
       <c r="E213" s="12"/>
       <c r="F213" s="12"/>
       <c r="G213" s="12"/>
-      <c r="I213" s="257"/>
-      <c r="J213" s="339"/>
+      <c r="I213" s="255"/>
+      <c r="J213" s="336"/>
     </row>
     <row r="214" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C214" s="12"/>
@@ -8732,8 +8726,8 @@
       <c r="E214" s="12"/>
       <c r="F214" s="12"/>
       <c r="G214" s="12"/>
-      <c r="I214" s="257"/>
-      <c r="J214" s="339"/>
+      <c r="I214" s="255"/>
+      <c r="J214" s="336"/>
     </row>
     <row r="215" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C215" s="12"/>
@@ -8741,8 +8735,8 @@
       <c r="E215" s="12"/>
       <c r="F215" s="12"/>
       <c r="G215" s="12"/>
-      <c r="I215" s="257"/>
-      <c r="J215" s="339"/>
+      <c r="I215" s="255"/>
+      <c r="J215" s="336"/>
     </row>
     <row r="216" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C216" s="12"/>
@@ -8750,8 +8744,8 @@
       <c r="E216" s="12"/>
       <c r="F216" s="12"/>
       <c r="G216" s="12"/>
-      <c r="I216" s="257"/>
-      <c r="J216" s="339"/>
+      <c r="I216" s="255"/>
+      <c r="J216" s="336"/>
     </row>
     <row r="217" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C217" s="12"/>
@@ -8759,8 +8753,8 @@
       <c r="E217" s="12"/>
       <c r="F217" s="12"/>
       <c r="G217" s="12"/>
-      <c r="I217" s="257"/>
-      <c r="J217" s="339"/>
+      <c r="I217" s="255"/>
+      <c r="J217" s="336"/>
     </row>
     <row r="218" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C218" s="12"/>
@@ -8768,8 +8762,8 @@
       <c r="E218" s="12"/>
       <c r="F218" s="12"/>
       <c r="G218" s="12"/>
-      <c r="I218" s="257"/>
-      <c r="J218" s="339"/>
+      <c r="I218" s="255"/>
+      <c r="J218" s="336"/>
     </row>
     <row r="219" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C219" s="12"/>
@@ -8777,8 +8771,8 @@
       <c r="E219" s="12"/>
       <c r="F219" s="12"/>
       <c r="G219" s="12"/>
-      <c r="I219" s="257"/>
-      <c r="J219" s="339"/>
+      <c r="I219" s="255"/>
+      <c r="J219" s="336"/>
     </row>
     <row r="220" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C220" s="12"/>
@@ -8786,8 +8780,8 @@
       <c r="E220" s="12"/>
       <c r="F220" s="12"/>
       <c r="G220" s="12"/>
-      <c r="I220" s="257"/>
-      <c r="J220" s="339"/>
+      <c r="I220" s="255"/>
+      <c r="J220" s="336"/>
     </row>
     <row r="221" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C221" s="12"/>
@@ -8795,8 +8789,8 @@
       <c r="E221" s="12"/>
       <c r="F221" s="12"/>
       <c r="G221" s="12"/>
-      <c r="I221" s="257"/>
-      <c r="J221" s="339"/>
+      <c r="I221" s="255"/>
+      <c r="J221" s="336"/>
     </row>
     <row r="222" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C222" s="12"/>
@@ -8804,8 +8798,8 @@
       <c r="E222" s="12"/>
       <c r="F222" s="12"/>
       <c r="G222" s="12"/>
-      <c r="I222" s="257"/>
-      <c r="J222" s="339"/>
+      <c r="I222" s="255"/>
+      <c r="J222" s="336"/>
     </row>
     <row r="223" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C223" s="12"/>
@@ -8813,8 +8807,8 @@
       <c r="E223" s="12"/>
       <c r="F223" s="12"/>
       <c r="G223" s="12"/>
-      <c r="I223" s="257"/>
-      <c r="J223" s="339"/>
+      <c r="I223" s="255"/>
+      <c r="J223" s="336"/>
     </row>
     <row r="224" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C224" s="12"/>
@@ -8822,8 +8816,8 @@
       <c r="E224" s="12"/>
       <c r="F224" s="12"/>
       <c r="G224" s="12"/>
-      <c r="I224" s="257"/>
-      <c r="J224" s="339"/>
+      <c r="I224" s="255"/>
+      <c r="J224" s="336"/>
     </row>
     <row r="225" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C225" s="12"/>
@@ -8831,8 +8825,8 @@
       <c r="E225" s="12"/>
       <c r="F225" s="12"/>
       <c r="G225" s="12"/>
-      <c r="I225" s="257"/>
-      <c r="J225" s="339"/>
+      <c r="I225" s="255"/>
+      <c r="J225" s="336"/>
     </row>
     <row r="226" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C226" s="12"/>
@@ -8840,8 +8834,8 @@
       <c r="E226" s="12"/>
       <c r="F226" s="12"/>
       <c r="G226" s="12"/>
-      <c r="I226" s="257"/>
-      <c r="J226" s="339"/>
+      <c r="I226" s="255"/>
+      <c r="J226" s="336"/>
     </row>
     <row r="227" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C227" s="12"/>
@@ -8849,8 +8843,8 @@
       <c r="E227" s="12"/>
       <c r="F227" s="12"/>
       <c r="G227" s="12"/>
-      <c r="I227" s="257"/>
-      <c r="J227" s="339"/>
+      <c r="I227" s="255"/>
+      <c r="J227" s="336"/>
     </row>
     <row r="228" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C228" s="12"/>
@@ -8858,8 +8852,8 @@
       <c r="E228" s="12"/>
       <c r="F228" s="12"/>
       <c r="G228" s="12"/>
-      <c r="I228" s="257"/>
-      <c r="J228" s="339"/>
+      <c r="I228" s="255"/>
+      <c r="J228" s="336"/>
     </row>
     <row r="229" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C229" s="12"/>
@@ -8867,8 +8861,8 @@
       <c r="E229" s="12"/>
       <c r="F229" s="12"/>
       <c r="G229" s="12"/>
-      <c r="I229" s="257"/>
-      <c r="J229" s="339"/>
+      <c r="I229" s="255"/>
+      <c r="J229" s="336"/>
     </row>
     <row r="230" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C230" s="12"/>
@@ -8876,8 +8870,8 @@
       <c r="E230" s="12"/>
       <c r="F230" s="12"/>
       <c r="G230" s="12"/>
-      <c r="I230" s="257"/>
-      <c r="J230" s="339"/>
+      <c r="I230" s="255"/>
+      <c r="J230" s="336"/>
     </row>
     <row r="231" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C231" s="12"/>
@@ -8885,8 +8879,8 @@
       <c r="E231" s="12"/>
       <c r="F231" s="12"/>
       <c r="G231" s="12"/>
-      <c r="I231" s="257"/>
-      <c r="J231" s="339"/>
+      <c r="I231" s="255"/>
+      <c r="J231" s="336"/>
     </row>
     <row r="232" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C232" s="12"/>
@@ -8894,8 +8888,8 @@
       <c r="E232" s="12"/>
       <c r="F232" s="12"/>
       <c r="G232" s="12"/>
-      <c r="I232" s="257"/>
-      <c r="J232" s="339"/>
+      <c r="I232" s="255"/>
+      <c r="J232" s="336"/>
     </row>
     <row r="233" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C233" s="12"/>
@@ -8903,8 +8897,8 @@
       <c r="E233" s="12"/>
       <c r="F233" s="12"/>
       <c r="G233" s="12"/>
-      <c r="I233" s="257"/>
-      <c r="J233" s="339"/>
+      <c r="I233" s="255"/>
+      <c r="J233" s="336"/>
     </row>
     <row r="234" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C234" s="12"/>
@@ -8912,8 +8906,8 @@
       <c r="E234" s="12"/>
       <c r="F234" s="12"/>
       <c r="G234" s="12"/>
-      <c r="I234" s="257"/>
-      <c r="J234" s="339"/>
+      <c r="I234" s="255"/>
+      <c r="J234" s="336"/>
     </row>
     <row r="235" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C235" s="12"/>
@@ -8921,8 +8915,8 @@
       <c r="E235" s="12"/>
       <c r="F235" s="12"/>
       <c r="G235" s="12"/>
-      <c r="I235" s="257"/>
-      <c r="J235" s="339"/>
+      <c r="I235" s="255"/>
+      <c r="J235" s="336"/>
     </row>
     <row r="236" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C236" s="12"/>
@@ -8930,8 +8924,8 @@
       <c r="E236" s="12"/>
       <c r="F236" s="12"/>
       <c r="G236" s="12"/>
-      <c r="I236" s="257"/>
-      <c r="J236" s="339"/>
+      <c r="I236" s="255"/>
+      <c r="J236" s="336"/>
     </row>
     <row r="237" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C237" s="12"/>
@@ -8939,8 +8933,8 @@
       <c r="E237" s="12"/>
       <c r="F237" s="12"/>
       <c r="G237" s="12"/>
-      <c r="I237" s="257"/>
-      <c r="J237" s="339"/>
+      <c r="I237" s="255"/>
+      <c r="J237" s="336"/>
     </row>
     <row r="238" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C238" s="12"/>
@@ -8948,8 +8942,8 @@
       <c r="E238" s="12"/>
       <c r="F238" s="12"/>
       <c r="G238" s="12"/>
-      <c r="I238" s="257"/>
-      <c r="J238" s="339"/>
+      <c r="I238" s="255"/>
+      <c r="J238" s="336"/>
     </row>
     <row r="239" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C239" s="12"/>
@@ -8957,8 +8951,8 @@
       <c r="E239" s="12"/>
       <c r="F239" s="12"/>
       <c r="G239" s="12"/>
-      <c r="I239" s="257"/>
-      <c r="J239" s="339"/>
+      <c r="I239" s="255"/>
+      <c r="J239" s="336"/>
     </row>
     <row r="240" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C240" s="12"/>
@@ -8966,8 +8960,8 @@
       <c r="E240" s="12"/>
       <c r="F240" s="12"/>
       <c r="G240" s="12"/>
-      <c r="I240" s="257"/>
-      <c r="J240" s="339"/>
+      <c r="I240" s="255"/>
+      <c r="J240" s="336"/>
     </row>
     <row r="241" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C241" s="12"/>
@@ -8975,8 +8969,8 @@
       <c r="E241" s="12"/>
       <c r="F241" s="12"/>
       <c r="G241" s="12"/>
-      <c r="I241" s="257"/>
-      <c r="J241" s="339"/>
+      <c r="I241" s="255"/>
+      <c r="J241" s="336"/>
     </row>
     <row r="242" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C242" s="12"/>
@@ -8984,8 +8978,8 @@
       <c r="E242" s="12"/>
       <c r="F242" s="12"/>
       <c r="G242" s="12"/>
-      <c r="I242" s="257"/>
-      <c r="J242" s="339"/>
+      <c r="I242" s="255"/>
+      <c r="J242" s="336"/>
     </row>
     <row r="243" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C243" s="12"/>
@@ -8993,8 +8987,8 @@
       <c r="E243" s="12"/>
       <c r="F243" s="12"/>
       <c r="G243" s="12"/>
-      <c r="I243" s="257"/>
-      <c r="J243" s="339"/>
+      <c r="I243" s="255"/>
+      <c r="J243" s="336"/>
     </row>
     <row r="244" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C244" s="12"/>
@@ -9002,8 +8996,8 @@
       <c r="E244" s="12"/>
       <c r="F244" s="12"/>
       <c r="G244" s="12"/>
-      <c r="I244" s="257"/>
-      <c r="J244" s="339"/>
+      <c r="I244" s="255"/>
+      <c r="J244" s="336"/>
     </row>
     <row r="245" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C245" s="12"/>
@@ -9011,8 +9005,8 @@
       <c r="E245" s="12"/>
       <c r="F245" s="12"/>
       <c r="G245" s="12"/>
-      <c r="I245" s="257"/>
-      <c r="J245" s="339"/>
+      <c r="I245" s="255"/>
+      <c r="J245" s="336"/>
     </row>
     <row r="246" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C246" s="12"/>
@@ -9020,8 +9014,8 @@
       <c r="E246" s="12"/>
       <c r="F246" s="12"/>
       <c r="G246" s="12"/>
-      <c r="I246" s="257"/>
-      <c r="J246" s="339"/>
+      <c r="I246" s="255"/>
+      <c r="J246" s="336"/>
     </row>
     <row r="247" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C247" s="12"/>
@@ -9029,8 +9023,8 @@
       <c r="E247" s="12"/>
       <c r="F247" s="12"/>
       <c r="G247" s="12"/>
-      <c r="I247" s="257"/>
-      <c r="J247" s="339"/>
+      <c r="I247" s="255"/>
+      <c r="J247" s="336"/>
     </row>
     <row r="248" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C248" s="12"/>
@@ -9038,8 +9032,8 @@
       <c r="E248" s="12"/>
       <c r="F248" s="12"/>
       <c r="G248" s="12"/>
-      <c r="I248" s="257"/>
-      <c r="J248" s="339"/>
+      <c r="I248" s="255"/>
+      <c r="J248" s="336"/>
     </row>
     <row r="249" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C249" s="12"/>
@@ -9047,8 +9041,8 @@
       <c r="E249" s="12"/>
       <c r="F249" s="12"/>
       <c r="G249" s="12"/>
-      <c r="I249" s="257"/>
-      <c r="J249" s="339"/>
+      <c r="I249" s="255"/>
+      <c r="J249" s="336"/>
     </row>
     <row r="250" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C250" s="12"/>
@@ -9056,8 +9050,8 @@
       <c r="E250" s="12"/>
       <c r="F250" s="12"/>
       <c r="G250" s="12"/>
-      <c r="I250" s="257"/>
-      <c r="J250" s="339"/>
+      <c r="I250" s="255"/>
+      <c r="J250" s="336"/>
     </row>
     <row r="251" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C251" s="12"/>
@@ -9065,8 +9059,8 @@
       <c r="E251" s="12"/>
       <c r="F251" s="12"/>
       <c r="G251" s="12"/>
-      <c r="I251" s="257"/>
-      <c r="J251" s="339"/>
+      <c r="I251" s="255"/>
+      <c r="J251" s="336"/>
     </row>
     <row r="252" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C252" s="12"/>
@@ -9074,8 +9068,8 @@
       <c r="E252" s="12"/>
       <c r="F252" s="12"/>
       <c r="G252" s="12"/>
-      <c r="I252" s="257"/>
-      <c r="J252" s="339"/>
+      <c r="I252" s="255"/>
+      <c r="J252" s="336"/>
     </row>
     <row r="253" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C253" s="12"/>
@@ -9083,8 +9077,8 @@
       <c r="E253" s="12"/>
       <c r="F253" s="12"/>
       <c r="G253" s="12"/>
-      <c r="I253" s="257"/>
-      <c r="J253" s="339"/>
+      <c r="I253" s="255"/>
+      <c r="J253" s="336"/>
     </row>
     <row r="254" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C254" s="12"/>
@@ -9092,8 +9086,8 @@
       <c r="E254" s="12"/>
       <c r="F254" s="12"/>
       <c r="G254" s="12"/>
-      <c r="I254" s="257"/>
-      <c r="J254" s="339"/>
+      <c r="I254" s="255"/>
+      <c r="J254" s="336"/>
     </row>
     <row r="255" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C255" s="12"/>
@@ -9101,8 +9095,8 @@
       <c r="E255" s="12"/>
       <c r="F255" s="12"/>
       <c r="G255" s="12"/>
-      <c r="I255" s="257"/>
-      <c r="J255" s="339"/>
+      <c r="I255" s="255"/>
+      <c r="J255" s="336"/>
     </row>
     <row r="256" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C256" s="12"/>
@@ -9110,8 +9104,8 @@
       <c r="E256" s="12"/>
       <c r="F256" s="12"/>
       <c r="G256" s="12"/>
-      <c r="I256" s="257"/>
-      <c r="J256" s="339"/>
+      <c r="I256" s="255"/>
+      <c r="J256" s="336"/>
     </row>
     <row r="257" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C257" s="12"/>
@@ -9119,8 +9113,8 @@
       <c r="E257" s="12"/>
       <c r="F257" s="12"/>
       <c r="G257" s="12"/>
-      <c r="I257" s="257"/>
-      <c r="J257" s="339"/>
+      <c r="I257" s="255"/>
+      <c r="J257" s="336"/>
     </row>
     <row r="258" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C258" s="12"/>
@@ -9128,8 +9122,8 @@
       <c r="E258" s="12"/>
       <c r="F258" s="12"/>
       <c r="G258" s="12"/>
-      <c r="I258" s="257"/>
-      <c r="J258" s="339"/>
+      <c r="I258" s="255"/>
+      <c r="J258" s="336"/>
     </row>
     <row r="259" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C259" s="12"/>
@@ -9137,8 +9131,8 @@
       <c r="E259" s="12"/>
       <c r="F259" s="12"/>
       <c r="G259" s="12"/>
-      <c r="I259" s="257"/>
-      <c r="J259" s="339"/>
+      <c r="I259" s="255"/>
+      <c r="J259" s="336"/>
     </row>
     <row r="260" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C260" s="12"/>
@@ -9146,8 +9140,8 @@
       <c r="E260" s="12"/>
       <c r="F260" s="12"/>
       <c r="G260" s="12"/>
-      <c r="I260" s="257"/>
-      <c r="J260" s="339"/>
+      <c r="I260" s="255"/>
+      <c r="J260" s="336"/>
     </row>
     <row r="261" spans="3:10" x14ac:dyDescent="0.4">
       <c r="C261" s="12"/>
@@ -9155,20 +9149,27 @@
       <c r="E261" s="12"/>
       <c r="F261" s="12"/>
       <c r="G261" s="12"/>
-      <c r="I261" s="257"/>
-      <c r="J261" s="339"/>
+      <c r="I261" s="255"/>
+      <c r="J261" s="336"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="A131:A133"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="C125:C126"/>
+    <mergeCell ref="A120:A127"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="A76:A81"/>
+    <mergeCell ref="A57:A75"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B57:B67"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="C57:C65"/>
+    <mergeCell ref="C120:C124"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B89:B90"/>
     <mergeCell ref="C2:C14"/>
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="B2:B18"/>
@@ -9185,22 +9186,15 @@
     <mergeCell ref="A2:A18"/>
     <mergeCell ref="B19:B37"/>
     <mergeCell ref="A82:A86"/>
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="A120:A127"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="A76:A81"/>
-    <mergeCell ref="A57:A75"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B57:B67"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="C57:C65"/>
-    <mergeCell ref="C120:C124"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="A131:A133"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="A92:A94"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9418,9 +9412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6606E4FC-447B-4C4B-8667-76C225606924}">
   <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -9430,7 +9422,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="B1" t="s">
         <v>260</v>

--- a/data/Table of compounds_whole_2025-04-28.xlsx
+++ b/data/Table of compounds_whole_2025-04-28.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="794" documentId="11_C9C3E2DFE6E5ECF5CE906EFDC2549BB3DEDA2518" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1906C1C-F806-4A52-9DB6-583C967FB8F2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EFDF320-032B-48DC-9D59-C09E6F5D50B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="9420" yWindow="0" windowWidth="9780" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Experimental Design" sheetId="2" r:id="rId1"/>
-    <sheet name="Batch Mapping" sheetId="4" r:id="rId2"/>
-    <sheet name="Drugs Mapping" sheetId="3" r:id="rId3"/>
+    <sheet name="Drugs Mapping" sheetId="3" r:id="rId2"/>
+    <sheet name="Batch Mapping" sheetId="4" r:id="rId3"/>
     <sheet name="Sample Mapping 281022" sheetId="5" r:id="rId4"/>
     <sheet name="Sample Mapping Time 281022" sheetId="6" r:id="rId5"/>
   </sheets>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="563">
   <si>
     <t>Samples</t>
   </si>
@@ -1771,6 +1771,12 @@
   </si>
   <si>
     <t>Compound</t>
+  </si>
+  <si>
+    <t>Control - time zero</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -2752,7 +2758,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="423">
+  <cellXfs count="442">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -3462,6 +3468,263 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="65" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3477,15 +3740,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3494,207 +3748,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="65" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="50" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3725,44 +3778,6 @@
         <right/>
         <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="7"/>
-        <color rgb="FF000000"/>
-        <name val="Courier New"/>
-        <family val="3"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thick">
-          <color indexed="64"/>
-        </left>
-        <right style="thick">
-          <color indexed="64"/>
-        </right>
-        <top style="thick">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thick">
-          <color indexed="64"/>
-        </bottom>
         <vertical/>
         <horizontal/>
       </border>
@@ -3811,6 +3826,44 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="7"/>
+        <color rgb="FF000000"/>
+        <name val="Courier New"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thick">
+          <color indexed="64"/>
+        </right>
+        <top style="thick">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -3835,30 +3888,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A9CE039-12FB-4A5F-A68F-777D338F2EE2}" name="Table1" displayName="Table1" ref="A1:B101" totalsRowShown="0">
+  <autoFilter ref="A1:B101" xr:uid="{1A9CE039-12FB-4A5F-A68F-777D338F2EE2}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B85">
+    <sortCondition ref="A1:A85"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{C833621C-1E47-4C45-8F7B-9F496D081E23}" name="Compound" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{0569DB07-56D4-46A1-8998-DAE8B18F7DD3}" name="Samples_ID" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C2EBFDB7-7C0A-4BD5-A04E-4602FDC4A7D2}" name="Table2" displayName="Table2" ref="A1:D15" totalsRowShown="0">
   <autoFilter ref="A1:D15" xr:uid="{C2EBFDB7-7C0A-4BD5-A04E-4602FDC4A7D2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C13">
     <sortCondition ref="B1:B13"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{2F51DC44-A16D-4C87-B8E4-4754ADD10661}" name="Batch_ID" dataDxfId="6"/>
-    <tableColumn id="1" xr3:uid="{E8A761DC-B001-4CC8-AFA4-5FBC1C1B9527}" name="Filename" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{1D0F9CB7-8150-4F4B-8898-BFF850A5FB44}" name="Excluded experiences" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{A50C6C58-7396-4D5C-8AE7-361FA1E3F9C2}" name="Comments" dataDxfId="3"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A9CE039-12FB-4A5F-A68F-777D338F2EE2}" name="Table1" displayName="Table1" ref="A1:B101" totalsRowShown="0">
-  <autoFilter ref="A1:B101" xr:uid="{1A9CE039-12FB-4A5F-A68F-777D338F2EE2}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B85">
-    <sortCondition ref="A1:A85"/>
-  </sortState>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C833621C-1E47-4C45-8F7B-9F496D081E23}" name="Compound" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{0569DB07-56D4-46A1-8998-DAE8B18F7DD3}" name="Samples_ID" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{2F51DC44-A16D-4C87-B8E4-4754ADD10661}" name="Batch_ID" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{E8A761DC-B001-4CC8-AFA4-5FBC1C1B9527}" name="Filename" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{1D0F9CB7-8150-4F4B-8898-BFF850A5FB44}" name="Excluded experiences" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{A50C6C58-7396-4D5C-8AE7-361FA1E3F9C2}" name="Comments" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4157,18 +4210,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J261"/>
+  <dimension ref="A1:J271"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C131" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A142" sqref="A142"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" style="28" customWidth="1"/>
+    <col min="1" max="1" width="45.81640625" style="28" customWidth="1"/>
     <col min="2" max="2" width="17.6328125" style="181" customWidth="1"/>
     <col min="3" max="3" width="21.26953125" customWidth="1"/>
     <col min="4" max="4" width="12.453125" customWidth="1"/>
@@ -4210,1729 +4263,1694 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="384"/>
-      <c r="B2" s="363" t="s">
+      <c r="A2" s="362" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="357"/>
-      <c r="D2" s="4" t="s">
-        <v>17</v>
+      <c r="B2" s="355" t="s">
+        <v>561</v>
+      </c>
+      <c r="C2" s="358"/>
+      <c r="D2" s="4">
+        <v>2</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H2" t="s">
         <v>535</v>
       </c>
-      <c r="I2" s="246" t="s">
-        <v>532</v>
-      </c>
-      <c r="J2" s="270"/>
+      <c r="I2" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="J2" s="345"/>
     </row>
     <row r="3" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="384"/>
-      <c r="B3" s="364"/>
-      <c r="C3" s="358"/>
-      <c r="D3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="A3" s="363"/>
+      <c r="B3" s="356"/>
+      <c r="C3" s="359"/>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H3" t="s">
         <v>535</v>
       </c>
-      <c r="I3" s="246" t="s">
-        <v>532</v>
-      </c>
-      <c r="J3" s="271"/>
+      <c r="I3" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="J3" s="346"/>
     </row>
     <row r="4" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="384"/>
-      <c r="B4" s="364"/>
-      <c r="C4" s="358"/>
+      <c r="A4" s="363"/>
+      <c r="B4" s="356"/>
+      <c r="C4" s="359"/>
       <c r="D4" s="5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="I4" s="246" t="s">
-        <v>532</v>
-      </c>
-      <c r="J4" s="271"/>
+        <v>8</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>535</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="J4" s="346"/>
     </row>
     <row r="5" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="384"/>
-      <c r="B5" s="364"/>
-      <c r="C5" s="358"/>
+      <c r="A5" s="363"/>
+      <c r="B5" s="356"/>
+      <c r="C5" s="359"/>
       <c r="D5" s="5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="H5" t="s">
         <v>535</v>
       </c>
-      <c r="I5" s="246" t="s">
-        <v>532</v>
-      </c>
-      <c r="J5" s="271"/>
+      <c r="I5" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="J5" s="346"/>
     </row>
     <row r="6" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="384"/>
-      <c r="B6" s="364"/>
-      <c r="C6" s="358"/>
+      <c r="A6" s="363"/>
+      <c r="B6" s="356"/>
+      <c r="C6" s="359"/>
       <c r="D6" s="5" t="s">
-        <v>17</v>
+        <v>562</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="H6" t="s">
         <v>535</v>
       </c>
-      <c r="I6" s="246" t="s">
-        <v>532</v>
-      </c>
-      <c r="J6" s="271"/>
+      <c r="I6" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="J6" s="346"/>
     </row>
     <row r="7" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="384"/>
-      <c r="B7" s="364"/>
-      <c r="C7" s="358"/>
+      <c r="A7" s="363"/>
+      <c r="B7" s="356"/>
+      <c r="C7" s="359"/>
       <c r="D7" s="5" t="s">
-        <v>17</v>
+        <v>562</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>535</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="J7" s="346"/>
+    </row>
+    <row r="8" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="363"/>
+      <c r="B8" s="356"/>
+      <c r="C8" s="359"/>
+      <c r="D8" s="347"/>
+      <c r="E8" s="347"/>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" t="s">
+        <v>535</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="363"/>
+      <c r="B9" s="356"/>
+      <c r="C9" s="360"/>
+      <c r="D9" t="s">
+        <v>562</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>144</v>
+      </c>
+      <c r="H9" t="s">
+        <v>535</v>
+      </c>
+      <c r="I9" t="s">
+        <v>531</v>
+      </c>
+      <c r="J9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="363"/>
+      <c r="B10" s="356"/>
+      <c r="C10" s="360"/>
+      <c r="D10" s="348" t="s">
+        <v>562</v>
+      </c>
+      <c r="E10" s="349"/>
+      <c r="F10" s="350" t="s">
+        <v>189</v>
+      </c>
+      <c r="G10" s="350" t="s">
+        <v>190</v>
+      </c>
+      <c r="H10" t="s">
+        <v>535</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="J10" s="351"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="363"/>
+      <c r="B11" s="357"/>
+      <c r="C11" s="361"/>
+      <c r="D11" s="352" t="s">
+        <v>562</v>
+      </c>
+      <c r="E11" s="353"/>
+      <c r="F11" s="352" t="s">
+        <v>221</v>
+      </c>
+      <c r="G11" s="352" t="s">
+        <v>247</v>
+      </c>
+      <c r="H11" t="s">
+        <v>535</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="J11" s="354"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="363"/>
+      <c r="B12" s="408" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="358"/>
+      <c r="D12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>535</v>
+      </c>
+      <c r="I12" s="246" t="s">
+        <v>532</v>
+      </c>
+      <c r="J12" s="270"/>
+    </row>
+    <row r="13" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="363"/>
+      <c r="B13" s="409"/>
+      <c r="C13" s="403"/>
+      <c r="D13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>535</v>
+      </c>
+      <c r="I13" s="246" t="s">
+        <v>532</v>
+      </c>
+      <c r="J13" s="271"/>
+    </row>
+    <row r="14" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="363"/>
+      <c r="B14" s="409"/>
+      <c r="C14" s="403"/>
+      <c r="D14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="I14" s="246" t="s">
+        <v>532</v>
+      </c>
+      <c r="J14" s="271"/>
+    </row>
+    <row r="15" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="363"/>
+      <c r="B15" s="409"/>
+      <c r="C15" s="403"/>
+      <c r="D15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" t="s">
+        <v>535</v>
+      </c>
+      <c r="I15" s="246" t="s">
+        <v>532</v>
+      </c>
+      <c r="J15" s="271"/>
+    </row>
+    <row r="16" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="363"/>
+      <c r="B16" s="409"/>
+      <c r="C16" s="403"/>
+      <c r="D16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" t="s">
+        <v>535</v>
+      </c>
+      <c r="I16" s="246" t="s">
+        <v>532</v>
+      </c>
+      <c r="J16" s="271"/>
+    </row>
+    <row r="17" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="363"/>
+      <c r="B17" s="409"/>
+      <c r="C17" s="403"/>
+      <c r="D17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H7" t="s">
-        <v>535</v>
-      </c>
-      <c r="I7" s="246" t="s">
-        <v>532</v>
-      </c>
-      <c r="J7" s="271" t="s">
+      <c r="H17" t="s">
+        <v>535</v>
+      </c>
+      <c r="I17" s="246" t="s">
+        <v>532</v>
+      </c>
+      <c r="J17" s="271" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="384"/>
-      <c r="B8" s="364"/>
-      <c r="C8" s="358"/>
-      <c r="D8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
+    <row r="18" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="363"/>
+      <c r="B18" s="409"/>
+      <c r="C18" s="403"/>
+      <c r="D18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H8" t="s">
-        <v>535</v>
-      </c>
-      <c r="I8" s="246" t="s">
-        <v>532</v>
-      </c>
-      <c r="J8" s="272" t="s">
+      <c r="H18" t="s">
+        <v>535</v>
+      </c>
+      <c r="I18" s="246" t="s">
+        <v>532</v>
+      </c>
+      <c r="J18" s="272" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="384"/>
-      <c r="B9" s="364"/>
-      <c r="C9" s="359"/>
-      <c r="D9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22" t="s">
+    <row r="19" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="363"/>
+      <c r="B19" s="409"/>
+      <c r="C19" s="404"/>
+      <c r="D19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G19" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H9" t="s">
-        <v>535</v>
-      </c>
-      <c r="I9" s="246" t="s">
-        <v>532</v>
-      </c>
-      <c r="J9" s="273"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="384"/>
-      <c r="B10" s="364"/>
-      <c r="C10" s="359"/>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="H19" t="s">
+        <v>535</v>
+      </c>
+      <c r="I19" s="246" t="s">
+        <v>532</v>
+      </c>
+      <c r="J19" s="273"/>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="363"/>
+      <c r="B20" s="409"/>
+      <c r="C20" s="404"/>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
         <v>15</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G20" t="s">
         <v>144</v>
       </c>
-      <c r="H10" t="s">
-        <v>535</v>
-      </c>
-      <c r="I10" s="245" t="s">
-        <v>532</v>
-      </c>
-      <c r="J10" s="274"/>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="384"/>
-      <c r="B11" s="364"/>
-      <c r="C11" s="359"/>
-      <c r="D11" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18" t="s">
+      <c r="H20" t="s">
+        <v>535</v>
+      </c>
+      <c r="I20" s="245" t="s">
+        <v>532</v>
+      </c>
+      <c r="J20" s="274"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="363"/>
+      <c r="B21" s="409"/>
+      <c r="C21" s="404"/>
+      <c r="D21" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G21" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="H11" t="s">
-        <v>535</v>
-      </c>
-      <c r="I11" s="246" t="s">
-        <v>532</v>
-      </c>
-      <c r="J11" s="275"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="384"/>
-      <c r="B12" s="364"/>
-      <c r="C12" s="359"/>
-      <c r="D12" s="116" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116" t="s">
+      <c r="H21" t="s">
+        <v>535</v>
+      </c>
+      <c r="I21" s="246" t="s">
+        <v>532</v>
+      </c>
+      <c r="J21" s="275"/>
+    </row>
+    <row r="22" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="363"/>
+      <c r="B22" s="409"/>
+      <c r="C22" s="404"/>
+      <c r="D22" s="116" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="116"/>
+      <c r="F22" s="116" t="s">
         <v>221</v>
       </c>
-      <c r="G12" s="116" t="s">
+      <c r="G22" s="116" t="s">
         <v>211</v>
       </c>
-      <c r="H12" t="s">
-        <v>535</v>
-      </c>
-      <c r="I12" s="246" t="s">
-        <v>532</v>
-      </c>
-      <c r="J12" s="276"/>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="384"/>
-      <c r="B13" s="364"/>
-      <c r="C13" s="359"/>
-      <c r="D13" s="101" t="s">
+      <c r="H22" t="s">
+        <v>535</v>
+      </c>
+      <c r="I22" s="246" t="s">
+        <v>532</v>
+      </c>
+      <c r="J22" s="276"/>
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="363"/>
+      <c r="B23" s="409"/>
+      <c r="C23" s="404"/>
+      <c r="D23" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101" t="s">
+      <c r="E23" s="101"/>
+      <c r="F23" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="101" t="s">
+      <c r="G23" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="H13" t="s">
-        <v>535</v>
-      </c>
-      <c r="I13" s="246" t="s">
+      <c r="H23" t="s">
+        <v>535</v>
+      </c>
+      <c r="I23" s="246" t="s">
         <v>531</v>
       </c>
-      <c r="J13" s="277" t="s">
+      <c r="J23" s="277" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="384"/>
-      <c r="B14" s="364"/>
-      <c r="C14" s="360"/>
-      <c r="D14" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18" t="s">
+    <row r="24" spans="1:10" ht="15.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="363"/>
+      <c r="B24" s="409"/>
+      <c r="C24" s="405"/>
+      <c r="D24" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18" t="s">
         <v>522</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G24" s="18" t="s">
         <v>523</v>
       </c>
-      <c r="H14" t="s">
-        <v>535</v>
-      </c>
-      <c r="I14" s="246" t="s">
-        <v>532</v>
-      </c>
-      <c r="J14" s="275"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="384"/>
-      <c r="B15" s="364"/>
-      <c r="C15" s="193"/>
-      <c r="D15" s="194" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="195"/>
-      <c r="F15" s="194" t="s">
+      <c r="H24" t="s">
+        <v>535</v>
+      </c>
+      <c r="I24" s="246" t="s">
+        <v>532</v>
+      </c>
+      <c r="J24" s="275"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="363"/>
+      <c r="B25" s="409"/>
+      <c r="C25" s="193"/>
+      <c r="D25" s="194" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="195"/>
+      <c r="F25" s="194" t="s">
         <v>522</v>
       </c>
-      <c r="G15" s="194" t="s">
+      <c r="G25" s="194" t="s">
         <v>524</v>
       </c>
-      <c r="H15" t="s">
-        <v>535</v>
-      </c>
-      <c r="I15" s="246" t="s">
-        <v>532</v>
-      </c>
-      <c r="J15" s="278" t="s">
+      <c r="H25" t="s">
+        <v>535</v>
+      </c>
+      <c r="I25" s="246" t="s">
+        <v>532</v>
+      </c>
+      <c r="J25" s="278" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="384"/>
-      <c r="B16" s="364"/>
-      <c r="C16" s="193"/>
-      <c r="D16" s="194" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="195"/>
-      <c r="F16" s="18" t="s">
+    <row r="26" spans="1:10" ht="15.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="363"/>
+      <c r="B26" s="409"/>
+      <c r="C26" s="193"/>
+      <c r="D26" s="194" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="195"/>
+      <c r="F26" s="18" t="s">
         <v>522</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G26" s="18" t="s">
         <v>523</v>
       </c>
-      <c r="H16" t="s">
-        <v>535</v>
-      </c>
-      <c r="I16" s="339" t="s">
+      <c r="H26" t="s">
+        <v>535</v>
+      </c>
+      <c r="I26" s="339" t="s">
         <v>531</v>
       </c>
-      <c r="J16" s="277" t="s">
+      <c r="J26" s="277" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="384"/>
-      <c r="B17" s="364"/>
-      <c r="C17" s="193"/>
-      <c r="D17" s="194" t="s">
+    <row r="27" spans="1:10" ht="15.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="363"/>
+      <c r="B27" s="409"/>
+      <c r="C27" s="193"/>
+      <c r="D27" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="195"/>
-      <c r="F17" s="18" t="s">
+      <c r="E27" s="195"/>
+      <c r="F27" s="18" t="s">
         <v>522</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G27" s="18" t="s">
         <v>523</v>
       </c>
-      <c r="H17" t="s">
-        <v>535</v>
-      </c>
-      <c r="I17" s="339" t="s">
+      <c r="H27" t="s">
+        <v>535</v>
+      </c>
+      <c r="I27" s="339" t="s">
         <v>531</v>
       </c>
-      <c r="J17" s="277" t="s">
+      <c r="J27" s="277" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="385"/>
-      <c r="B18" s="365"/>
-      <c r="C18" s="193"/>
-      <c r="D18" s="194" t="s">
+    <row r="28" spans="1:10" ht="15.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="364"/>
+      <c r="B28" s="410"/>
+      <c r="C28" s="193"/>
+      <c r="D28" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="195"/>
-      <c r="F18" s="18" t="s">
+      <c r="E28" s="195"/>
+      <c r="F28" s="18" t="s">
         <v>522</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G28" s="18" t="s">
         <v>523</v>
       </c>
-      <c r="H18" t="s">
-        <v>535</v>
-      </c>
-      <c r="I18" s="339" t="s">
+      <c r="H28" t="s">
+        <v>535</v>
+      </c>
+      <c r="I28" s="339" t="s">
         <v>531</v>
       </c>
-      <c r="J18" s="277" t="s">
+      <c r="J28" s="277" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="373" t="s">
+    <row r="29" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="418" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="386" t="s">
+      <c r="B29" s="429" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="376" t="s">
+      <c r="C29" s="421" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="102" t="s">
+      <c r="D29" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="115" t="s">
+      <c r="E29" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="102" t="s">
+      <c r="F29" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="102" t="s">
+      <c r="G29" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="H19" t="s">
-        <v>535</v>
-      </c>
-      <c r="I19" s="102" t="s">
+      <c r="H29" t="s">
+        <v>535</v>
+      </c>
+      <c r="I29" s="102" t="s">
         <v>531</v>
       </c>
-      <c r="J19" s="279" t="s">
+      <c r="J29" s="279" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="374"/>
-      <c r="B20" s="387"/>
-      <c r="C20" s="377"/>
-      <c r="D20" s="103" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="143" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="104" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="104" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" t="s">
-        <v>535</v>
-      </c>
-      <c r="I20" s="247" t="s">
-        <v>532</v>
-      </c>
-      <c r="J20" s="280"/>
-    </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="374"/>
-      <c r="B21" s="387"/>
-      <c r="C21" s="377"/>
-      <c r="D21" s="105" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="143" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="104" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="104" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" t="s">
-        <v>535</v>
-      </c>
-      <c r="I21" s="247" t="s">
-        <v>532</v>
-      </c>
-      <c r="J21" s="272"/>
-    </row>
-    <row r="22" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="374"/>
-      <c r="B22" s="387"/>
-      <c r="C22" s="377"/>
-      <c r="D22" s="105" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="143" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="106" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="107" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" t="s">
-        <v>535</v>
-      </c>
-      <c r="I22" s="247" t="s">
-        <v>532</v>
-      </c>
-      <c r="J22" s="272"/>
-    </row>
-    <row r="23" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="374"/>
-      <c r="B23" s="387"/>
-      <c r="C23" s="377"/>
-      <c r="D23" s="105" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="106" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="107" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" t="s">
-        <v>535</v>
-      </c>
-      <c r="I23" s="247" t="s">
-        <v>532</v>
-      </c>
-      <c r="J23" s="272" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="374"/>
-      <c r="B24" s="387"/>
-      <c r="C24" s="377"/>
-      <c r="D24" s="105" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="143" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="107" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" t="s">
-        <v>535</v>
-      </c>
-      <c r="I24" s="247" t="s">
-        <v>532</v>
-      </c>
-      <c r="J24" s="272" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="374"/>
-      <c r="B25" s="387"/>
-      <c r="C25" s="377"/>
-      <c r="D25" s="105" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="105" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="107" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" t="s">
-        <v>535</v>
-      </c>
-      <c r="I25" s="247" t="s">
-        <v>532</v>
-      </c>
-      <c r="J25" s="272" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="374"/>
-      <c r="B26" s="387"/>
-      <c r="C26" s="377"/>
-      <c r="D26" s="132" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="132" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="132" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="133" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" t="s">
-        <v>535</v>
-      </c>
-      <c r="I26" s="247" t="s">
-        <v>532</v>
-      </c>
-      <c r="J26" s="272" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="374"/>
-      <c r="B27" s="387"/>
-      <c r="C27" s="377"/>
-      <c r="D27" s="132" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="143" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="143" t="s">
-        <v>522</v>
-      </c>
-      <c r="G27" s="131" t="s">
-        <v>524</v>
-      </c>
-      <c r="H27" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I27" s="247" t="s">
-        <v>532</v>
-      </c>
-      <c r="J27" s="281" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="374"/>
-      <c r="B28" s="387"/>
-      <c r="C28" s="377"/>
-      <c r="D28" s="132" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="143" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="143" t="s">
-        <v>525</v>
-      </c>
-      <c r="G28" s="131" t="s">
-        <v>524</v>
-      </c>
-      <c r="H28" s="197" t="s">
-        <v>536</v>
-      </c>
-      <c r="I28" s="247" t="s">
-        <v>532</v>
-      </c>
-      <c r="J28" s="281" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="374"/>
-      <c r="B29" s="387"/>
-      <c r="C29" s="377"/>
-      <c r="D29" s="132" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="143" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="143" t="s">
-        <v>526</v>
-      </c>
-      <c r="G29" s="131" t="s">
-        <v>524</v>
-      </c>
-      <c r="H29" s="197" t="s">
-        <v>537</v>
-      </c>
-      <c r="I29" s="247" t="s">
-        <v>532</v>
-      </c>
-      <c r="J29" s="281" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="374"/>
-      <c r="B30" s="387"/>
-      <c r="C30" s="377"/>
-      <c r="D30" s="132" t="s">
+    <row r="30" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="419"/>
+      <c r="B30" s="430"/>
+      <c r="C30" s="422"/>
+      <c r="D30" s="103" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="143" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="143" t="s">
-        <v>544</v>
-      </c>
-      <c r="G30" s="131" t="s">
-        <v>524</v>
-      </c>
-      <c r="H30" s="197" t="s">
-        <v>538</v>
+      <c r="F30" s="104" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="104" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" t="s">
+        <v>535</v>
       </c>
       <c r="I30" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="J30" s="281" t="s">
-        <v>528</v>
-      </c>
+      <c r="J30" s="280"/>
     </row>
     <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="374"/>
-      <c r="B31" s="387"/>
-      <c r="C31" s="377"/>
-      <c r="D31" s="132" t="s">
+      <c r="A31" s="419"/>
+      <c r="B31" s="430"/>
+      <c r="C31" s="422"/>
+      <c r="D31" s="105" t="s">
         <v>17</v>
       </c>
       <c r="E31" s="143" t="s">
         <v>55</v>
       </c>
-      <c r="F31" s="143" t="s">
-        <v>527</v>
-      </c>
-      <c r="G31" s="131" t="s">
-        <v>524</v>
-      </c>
-      <c r="H31" s="197" t="s">
-        <v>539</v>
+      <c r="F31" s="104" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="104" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" t="s">
+        <v>535</v>
       </c>
       <c r="I31" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="J31" s="281" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="374"/>
-      <c r="B32" s="387"/>
-      <c r="C32" s="378"/>
-      <c r="D32" s="132" t="s">
-        <v>72</v>
+      <c r="J31" s="272"/>
+    </row>
+    <row r="32" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="419"/>
+      <c r="B32" s="430"/>
+      <c r="C32" s="422"/>
+      <c r="D32" s="105" t="s">
+        <v>17</v>
       </c>
       <c r="E32" s="143" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="143" t="s">
+      <c r="F32" s="106" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="107" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" t="s">
+        <v>535</v>
+      </c>
+      <c r="I32" s="247" t="s">
+        <v>532</v>
+      </c>
+      <c r="J32" s="272"/>
+    </row>
+    <row r="33" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="419"/>
+      <c r="B33" s="430"/>
+      <c r="C33" s="422"/>
+      <c r="D33" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" t="s">
+        <v>535</v>
+      </c>
+      <c r="I33" s="247" t="s">
+        <v>532</v>
+      </c>
+      <c r="J33" s="272" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="419"/>
+      <c r="B34" s="430"/>
+      <c r="C34" s="422"/>
+      <c r="D34" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="143" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" t="s">
+        <v>535</v>
+      </c>
+      <c r="I34" s="247" t="s">
+        <v>532</v>
+      </c>
+      <c r="J34" s="272" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="419"/>
+      <c r="B35" s="430"/>
+      <c r="C35" s="422"/>
+      <c r="D35" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="105" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="106" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="107" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" t="s">
+        <v>535</v>
+      </c>
+      <c r="I35" s="247" t="s">
+        <v>532</v>
+      </c>
+      <c r="J35" s="272" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="419"/>
+      <c r="B36" s="430"/>
+      <c r="C36" s="422"/>
+      <c r="D36" s="132" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="132" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="132" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="133" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" t="s">
+        <v>535</v>
+      </c>
+      <c r="I36" s="247" t="s">
+        <v>532</v>
+      </c>
+      <c r="J36" s="272" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="419"/>
+      <c r="B37" s="430"/>
+      <c r="C37" s="422"/>
+      <c r="D37" s="132" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="143" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="143" t="s">
+        <v>522</v>
+      </c>
+      <c r="G37" s="131" t="s">
+        <v>524</v>
+      </c>
+      <c r="H37" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I37" s="247" t="s">
+        <v>532</v>
+      </c>
+      <c r="J37" s="281" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="419"/>
+      <c r="B38" s="430"/>
+      <c r="C38" s="422"/>
+      <c r="D38" s="132" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="143" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" s="143" t="s">
+        <v>525</v>
+      </c>
+      <c r="G38" s="131" t="s">
+        <v>524</v>
+      </c>
+      <c r="H38" s="197" t="s">
+        <v>536</v>
+      </c>
+      <c r="I38" s="247" t="s">
+        <v>532</v>
+      </c>
+      <c r="J38" s="281" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="419"/>
+      <c r="B39" s="430"/>
+      <c r="C39" s="422"/>
+      <c r="D39" s="132" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="143" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="143" t="s">
+        <v>526</v>
+      </c>
+      <c r="G39" s="131" t="s">
+        <v>524</v>
+      </c>
+      <c r="H39" s="197" t="s">
+        <v>537</v>
+      </c>
+      <c r="I39" s="247" t="s">
+        <v>532</v>
+      </c>
+      <c r="J39" s="281" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="419"/>
+      <c r="B40" s="430"/>
+      <c r="C40" s="422"/>
+      <c r="D40" s="132" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="143" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40" s="143" t="s">
+        <v>544</v>
+      </c>
+      <c r="G40" s="131" t="s">
+        <v>524</v>
+      </c>
+      <c r="H40" s="197" t="s">
+        <v>538</v>
+      </c>
+      <c r="I40" s="247" t="s">
+        <v>532</v>
+      </c>
+      <c r="J40" s="281" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="419"/>
+      <c r="B41" s="430"/>
+      <c r="C41" s="422"/>
+      <c r="D41" s="132" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="143" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="143" t="s">
+        <v>527</v>
+      </c>
+      <c r="G41" s="131" t="s">
+        <v>524</v>
+      </c>
+      <c r="H41" s="197" t="s">
+        <v>539</v>
+      </c>
+      <c r="I41" s="247" t="s">
+        <v>532</v>
+      </c>
+      <c r="J41" s="281" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="419"/>
+      <c r="B42" s="430"/>
+      <c r="C42" s="423"/>
+      <c r="D42" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="E42" s="143" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" s="143" t="s">
         <v>529</v>
       </c>
-      <c r="G32" s="131" t="s">
+      <c r="G42" s="131" t="s">
         <v>524</v>
       </c>
-      <c r="H32" s="197" t="s">
+      <c r="H42" s="197" t="s">
         <v>540</v>
       </c>
-      <c r="I32" s="247" t="s">
-        <v>532</v>
-      </c>
-      <c r="J32" s="281" t="s">
+      <c r="I42" s="247" t="s">
+        <v>532</v>
+      </c>
+      <c r="J42" s="281" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="374"/>
-      <c r="B33" s="387"/>
-      <c r="C33" s="113" t="s">
+    <row r="43" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="419"/>
+      <c r="B43" s="430"/>
+      <c r="C43" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="142" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="143" t="s">
+      <c r="D43" s="142" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="F33" s="143" t="s">
+      <c r="F43" s="143" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="142" t="s">
+      <c r="G43" s="142" t="s">
         <v>33</v>
       </c>
-      <c r="H33" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I33" s="248" t="s">
-        <v>532</v>
-      </c>
-      <c r="J33" s="281" t="s">
+      <c r="H43" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I43" s="248" t="s">
+        <v>532</v>
+      </c>
+      <c r="J43" s="281" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="374"/>
-      <c r="B34" s="387"/>
-      <c r="C34" s="140" t="s">
+    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="419"/>
+      <c r="B44" s="430"/>
+      <c r="C44" s="140" t="s">
         <v>204</v>
       </c>
-      <c r="D34" s="142" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="142" t="s">
+      <c r="D44" s="142" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="142" t="s">
         <v>207</v>
       </c>
-      <c r="F34" s="108" t="s">
+      <c r="F44" s="108" t="s">
         <v>189</v>
       </c>
-      <c r="G34" s="108" t="s">
+      <c r="G44" s="108" t="s">
         <v>190</v>
       </c>
-      <c r="H34" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I34" s="249" t="s">
-        <v>532</v>
-      </c>
-      <c r="J34" s="282"/>
-    </row>
-    <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="374"/>
-      <c r="B35" s="387"/>
-      <c r="C35" s="140" t="s">
+      <c r="H44" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I44" s="249" t="s">
+        <v>532</v>
+      </c>
+      <c r="J44" s="282"/>
+    </row>
+    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="419"/>
+      <c r="B45" s="430"/>
+      <c r="C45" s="140" t="s">
         <v>205</v>
       </c>
-      <c r="D35" s="142" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="144" t="s">
+      <c r="D45" s="142" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="144" t="s">
         <v>207</v>
       </c>
-      <c r="F35" s="111" t="s">
+      <c r="F45" s="111" t="s">
         <v>189</v>
       </c>
-      <c r="G35" s="141" t="s">
+      <c r="G45" s="141" t="s">
         <v>190</v>
       </c>
-      <c r="H35" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I35" s="250" t="s">
-        <v>532</v>
-      </c>
-      <c r="J35" s="282"/>
-    </row>
-    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="374"/>
-      <c r="B36" s="387"/>
-      <c r="C36" s="131" t="s">
+      <c r="H45" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I45" s="250" t="s">
+        <v>532</v>
+      </c>
+      <c r="J45" s="282"/>
+    </row>
+    <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="419"/>
+      <c r="B46" s="430"/>
+      <c r="C46" s="131" t="s">
         <v>206</v>
       </c>
-      <c r="D36" s="143" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="130" t="s">
+      <c r="D46" s="143" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="130" t="s">
         <v>207</v>
       </c>
-      <c r="F36" s="142" t="s">
+      <c r="F46" s="142" t="s">
         <v>189</v>
       </c>
-      <c r="G36" s="142" t="s">
+      <c r="G46" s="142" t="s">
         <v>190</v>
       </c>
-      <c r="H36" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I36" s="251" t="s">
-        <v>532</v>
-      </c>
-      <c r="J36" s="283"/>
-    </row>
-    <row r="37" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="374"/>
-      <c r="B37" s="388"/>
-      <c r="C37" s="197" t="s">
+      <c r="H46" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I46" s="251" t="s">
+        <v>532</v>
+      </c>
+      <c r="J46" s="283"/>
+    </row>
+    <row r="47" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="419"/>
+      <c r="B47" s="431"/>
+      <c r="C47" s="197" t="s">
         <v>357</v>
       </c>
-      <c r="D37" s="198" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="196" t="s">
+      <c r="D47" s="198" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="196" t="s">
         <v>118</v>
       </c>
-      <c r="F37" s="196" t="s">
+      <c r="F47" s="196" t="s">
         <v>522</v>
       </c>
-      <c r="G37" s="197" t="s">
+      <c r="G47" s="197" t="s">
         <v>523</v>
       </c>
-      <c r="H37" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I37" s="338" t="s">
+      <c r="H47" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I47" s="338" t="s">
         <v>531</v>
       </c>
-      <c r="J37" s="337" t="s">
+      <c r="J47" s="337" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="374"/>
-      <c r="B38" s="381" t="s">
+    <row r="48" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="419"/>
+      <c r="B48" s="426" t="s">
         <v>138</v>
       </c>
-      <c r="C38" s="382" t="s">
+      <c r="C48" s="427" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="103" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" s="104" t="s">
+      <c r="D48" s="103" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="F38" s="104" t="s">
+      <c r="F48" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="114" t="s">
+      <c r="G48" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="H38" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I38" s="253" t="s">
-        <v>532</v>
-      </c>
-      <c r="J38" s="280"/>
-    </row>
-    <row r="39" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="374"/>
-      <c r="B39" s="379"/>
-      <c r="C39" s="382"/>
-      <c r="D39" s="108" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="109" t="s">
+      <c r="H48" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I48" s="253" t="s">
+        <v>532</v>
+      </c>
+      <c r="J48" s="280"/>
+    </row>
+    <row r="49" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="419"/>
+      <c r="B49" s="424"/>
+      <c r="C49" s="427"/>
+      <c r="D49" s="108" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="F39" s="109" t="s">
+      <c r="F49" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="G39" s="110" t="s">
+      <c r="G49" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="H39" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I39" s="254" t="s">
-        <v>532</v>
-      </c>
-      <c r="J39" s="284"/>
-    </row>
-    <row r="40" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="374"/>
-      <c r="B40" s="379"/>
-      <c r="C40" s="383"/>
-      <c r="D40" s="196" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40" s="109" t="s">
+      <c r="H49" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I49" s="254" t="s">
+        <v>532</v>
+      </c>
+      <c r="J49" s="284"/>
+    </row>
+    <row r="50" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="419"/>
+      <c r="B50" s="424"/>
+      <c r="C50" s="428"/>
+      <c r="D50" s="196" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="F40" s="196" t="s">
+      <c r="F50" s="196" t="s">
         <v>522</v>
       </c>
-      <c r="G40" s="197" t="s">
+      <c r="G50" s="197" t="s">
         <v>523</v>
       </c>
-      <c r="H40" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I40" s="338" t="s">
+      <c r="H50" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I50" s="338" t="s">
         <v>531</v>
       </c>
-      <c r="J40" s="337" t="s">
+      <c r="J50" s="337" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="374"/>
-      <c r="B41" s="379" t="s">
+    <row r="51" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="419"/>
+      <c r="B51" s="424" t="s">
         <v>139</v>
       </c>
-      <c r="C41" s="134" t="s">
+      <c r="C51" s="134" t="s">
         <v>136</v>
       </c>
-      <c r="D41" s="111" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" s="112" t="s">
+      <c r="D51" s="111" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="F41" s="112" t="s">
+      <c r="F51" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="G41" s="113" t="s">
+      <c r="G51" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="H41" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I41" s="254" t="s">
-        <v>532</v>
-      </c>
-      <c r="J41" s="337"/>
-    </row>
-    <row r="42" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="375"/>
-      <c r="B42" s="380"/>
-      <c r="C42" s="134" t="s">
+      <c r="H51" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I51" s="254" t="s">
+        <v>532</v>
+      </c>
+      <c r="J51" s="337"/>
+    </row>
+    <row r="52" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="420"/>
+      <c r="B52" s="425"/>
+      <c r="C52" s="134" t="s">
         <v>136</v>
       </c>
-      <c r="D42" s="196" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" s="196" t="s">
+      <c r="D52" s="196" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="196" t="s">
         <v>31</v>
       </c>
-      <c r="F42" s="196" t="s">
+      <c r="F52" s="196" t="s">
         <v>522</v>
       </c>
-      <c r="G42" s="197" t="s">
+      <c r="G52" s="197" t="s">
         <v>523</v>
       </c>
-      <c r="H42" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I42" s="338" t="s">
+      <c r="H52" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I52" s="338" t="s">
         <v>531</v>
       </c>
-      <c r="J42" s="337" t="s">
+      <c r="J52" s="337" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="25" t="s">
+    <row r="53" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="200"/>
-      <c r="C43" s="199" t="s">
+      <c r="B53" s="200"/>
+      <c r="C53" s="199" t="s">
         <v>543</v>
       </c>
-      <c r="D43" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" s="23" t="s">
+      <c r="D53" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F43" s="23" t="s">
+      <c r="F53" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G43" s="12" t="s">
+      <c r="G53" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H43" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I43" s="250" t="s">
-        <v>532</v>
-      </c>
-      <c r="J43" s="285" t="s">
+      <c r="H53" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I53" s="250" t="s">
+        <v>532</v>
+      </c>
+      <c r="J53" s="285" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="370" t="s">
+    <row r="54" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="415" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="201"/>
-      <c r="C44" s="361" t="s">
+      <c r="B54" s="201"/>
+      <c r="C54" s="406" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" s="61" t="s">
+      <c r="D54" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="F44" s="61" t="s">
+      <c r="F54" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="G44" s="62" t="s">
+      <c r="G54" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="H44" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I44" s="256" t="s">
-        <v>532</v>
-      </c>
-      <c r="J44" s="286"/>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="371"/>
-      <c r="B45" s="201"/>
-      <c r="C45" s="362"/>
-      <c r="D45" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="64" t="s">
+      <c r="H54" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I54" s="256" t="s">
+        <v>532</v>
+      </c>
+      <c r="J54" s="286"/>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="416"/>
+      <c r="B55" s="201"/>
+      <c r="C55" s="407"/>
+      <c r="D55" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="F45" s="64" t="s">
+      <c r="F55" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="65" t="s">
+      <c r="G55" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="H45" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I45" s="257" t="s">
-        <v>532</v>
-      </c>
-      <c r="J45" s="287"/>
-    </row>
-    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="371"/>
-      <c r="B46" s="201"/>
-      <c r="C46" s="361" t="s">
+      <c r="H55" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I55" s="257" t="s">
+        <v>532</v>
+      </c>
+      <c r="J55" s="287"/>
+    </row>
+    <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="416"/>
+      <c r="B56" s="201"/>
+      <c r="C56" s="406" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="61" t="s">
+      <c r="D56" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="F46" s="61" t="s">
+      <c r="F56" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="62" t="s">
+      <c r="G56" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="H46" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I46" s="256" t="s">
-        <v>532</v>
-      </c>
-      <c r="J46" s="286"/>
-    </row>
-    <row r="47" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="371"/>
-      <c r="B47" s="201"/>
-      <c r="C47" s="362"/>
-      <c r="D47" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="E47" s="64" t="s">
+      <c r="H56" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I56" s="256" t="s">
+        <v>532</v>
+      </c>
+      <c r="J56" s="286"/>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="416"/>
+      <c r="B57" s="201"/>
+      <c r="C57" s="407"/>
+      <c r="D57" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="F47" s="64" t="s">
+      <c r="F57" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="G47" s="65" t="s">
+      <c r="G57" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="H47" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I47" s="257" t="s">
-        <v>532</v>
-      </c>
-      <c r="J47" s="287"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="371"/>
-      <c r="B48" s="202"/>
-      <c r="C48" s="147" t="s">
+      <c r="H57" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I57" s="257" t="s">
+        <v>532</v>
+      </c>
+      <c r="J57" s="287"/>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="416"/>
+      <c r="B58" s="202"/>
+      <c r="C58" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="D48" s="148" t="s">
-        <v>17</v>
-      </c>
-      <c r="E48" s="147" t="s">
+      <c r="D58" s="148" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="F48" s="149" t="s">
+      <c r="F58" s="149" t="s">
         <v>14</v>
       </c>
-      <c r="G48" s="150" t="s">
+      <c r="G58" s="150" t="s">
         <v>22</v>
       </c>
-      <c r="H48" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I48" s="258" t="s">
-        <v>532</v>
-      </c>
-      <c r="J48" s="288"/>
-    </row>
-    <row r="49" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="372"/>
-      <c r="B49" s="203"/>
-      <c r="C49" s="67" t="s">
+      <c r="H58" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I58" s="258" t="s">
+        <v>532</v>
+      </c>
+      <c r="J58" s="288"/>
+    </row>
+    <row r="59" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="417"/>
+      <c r="B59" s="203"/>
+      <c r="C59" s="67" t="s">
         <v>208</v>
       </c>
-      <c r="D49" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="E49" s="67" t="s">
+      <c r="D59" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="F49" s="66" t="s">
+      <c r="F59" s="66" t="s">
         <v>189</v>
       </c>
-      <c r="G49" s="68" t="s">
+      <c r="G59" s="68" t="s">
         <v>211</v>
       </c>
-      <c r="H49" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I49" s="259" t="s">
-        <v>532</v>
-      </c>
-      <c r="J49" s="289"/>
-    </row>
-    <row r="50" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="352" t="s">
+      <c r="H59" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I59" s="259" t="s">
+        <v>532</v>
+      </c>
+      <c r="J59" s="289"/>
+    </row>
+    <row r="60" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="383" t="s">
         <v>43</v>
       </c>
-      <c r="B50" s="204"/>
-      <c r="C50" s="369" t="s">
+      <c r="B60" s="204"/>
+      <c r="C60" s="414" t="s">
         <v>41</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E50" s="1" t="s">
+      <c r="D60" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F50" s="146" t="s">
+      <c r="F60" s="146" t="s">
         <v>6</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="G60" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H50" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I50" s="260" t="s">
-        <v>532</v>
-      </c>
-      <c r="J50" s="290"/>
-    </row>
-    <row r="51" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="352"/>
-      <c r="B51" s="204"/>
-      <c r="C51" s="369"/>
-      <c r="D51" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E51" s="2" t="s">
+      <c r="H60" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I60" s="260" t="s">
+        <v>532</v>
+      </c>
+      <c r="J60" s="290"/>
+    </row>
+    <row r="61" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="383"/>
+      <c r="B61" s="204"/>
+      <c r="C61" s="414"/>
+      <c r="D61" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F51" s="13" t="s">
+      <c r="F61" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="G61" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H51" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I51" s="261" t="s">
-        <v>532</v>
-      </c>
-      <c r="J51" s="271"/>
-    </row>
-    <row r="52" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="352"/>
-      <c r="B52" s="204"/>
-      <c r="C52" s="369"/>
-      <c r="D52" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E52" s="10" t="s">
+      <c r="H61" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I61" s="261" t="s">
+        <v>532</v>
+      </c>
+      <c r="J61" s="271"/>
+    </row>
+    <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="383"/>
+      <c r="B62" s="204"/>
+      <c r="C62" s="414"/>
+      <c r="D62" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F52" s="20" t="s">
+      <c r="F62" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="10" t="s">
+      <c r="G62" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H52" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I52" s="262" t="s">
-        <v>532</v>
-      </c>
-      <c r="J52" s="291"/>
-    </row>
-    <row r="53" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="351"/>
-      <c r="B53" s="205"/>
-      <c r="C53" s="33" t="s">
+      <c r="H62" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I62" s="262" t="s">
+        <v>532</v>
+      </c>
+      <c r="J62" s="291"/>
+    </row>
+    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="384"/>
+      <c r="B63" s="205"/>
+      <c r="C63" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="39">
+      <c r="D63" s="39">
         <v>4</v>
       </c>
-      <c r="E53" s="33" t="s">
+      <c r="E63" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="F53" s="34" t="s">
+      <c r="F63" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G53" s="39" t="s">
+      <c r="G63" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="H53" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I53" s="263" t="s">
-        <v>532</v>
-      </c>
-      <c r="J53" s="292"/>
-    </row>
-    <row r="54" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="398" t="s">
+      <c r="H63" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I63" s="263" t="s">
+        <v>532</v>
+      </c>
+      <c r="J63" s="292"/>
+    </row>
+    <row r="64" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="375" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="206" t="s">
+      <c r="B64" s="206" t="s">
         <v>48</v>
       </c>
-      <c r="C54" s="137" t="s">
+      <c r="C64" s="137" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="E54" s="69" t="s">
+      <c r="D64" s="69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="F54" s="70" t="s">
+      <c r="F64" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="G54" s="69" t="s">
+      <c r="G64" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="H54" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I54" s="264" t="s">
-        <v>532</v>
-      </c>
-      <c r="J54" s="293" t="s">
+      <c r="H64" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I64" s="264" t="s">
+        <v>532</v>
+      </c>
+      <c r="J64" s="293" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="399"/>
-      <c r="B55" s="207" t="s">
+    <row r="65" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="376"/>
+      <c r="B65" s="207" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="72" t="s">
+      <c r="C65" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="D55" s="71" t="s">
-        <v>17</v>
-      </c>
-      <c r="E55" s="72" t="s">
+      <c r="D65" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="F55" s="73" t="s">
+      <c r="F65" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="G55" s="71" t="s">
+      <c r="G65" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="H55" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I55" s="265" t="s">
-        <v>532</v>
-      </c>
-      <c r="J55" s="294" t="s">
+      <c r="H65" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I65" s="265" t="s">
+        <v>532</v>
+      </c>
+      <c r="J65" s="294" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="26" t="s">
+    <row r="66" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="208"/>
-      <c r="C56" s="42" t="s">
+      <c r="B66" s="208"/>
+      <c r="C66" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="D56" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="40" t="s">
+      <c r="D66" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="F56" s="41" t="s">
+      <c r="F66" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G56" s="40" t="s">
+      <c r="G66" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="H56" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I56" s="266" t="s">
-        <v>532</v>
-      </c>
-      <c r="J56" s="295" t="s">
+      <c r="H66" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I66" s="266" t="s">
+        <v>532</v>
+      </c>
+      <c r="J66" s="295" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="405" t="s">
+    <row r="67" spans="1:10" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="385" t="s">
         <v>143</v>
       </c>
-      <c r="B57" s="410" t="s">
+      <c r="B67" s="390" t="s">
         <v>140</v>
       </c>
-      <c r="C57" s="415" t="s">
+      <c r="C67" s="395" t="s">
         <v>54</v>
       </c>
-      <c r="D57" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="54" t="s">
+      <c r="D67" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="F57" s="55" t="s">
+      <c r="F67" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="G57" s="54" t="s">
+      <c r="G67" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H57" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I57" s="267" t="s">
-        <v>532</v>
-      </c>
-      <c r="J57" s="296"/>
-    </row>
-    <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="406"/>
-      <c r="B58" s="411"/>
-      <c r="C58" s="416"/>
-      <c r="D58" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="E58" s="43" t="s">
+      <c r="H67" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I67" s="267" t="s">
+        <v>532</v>
+      </c>
+      <c r="J67" s="296"/>
+    </row>
+    <row r="68" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="386"/>
+      <c r="B68" s="391"/>
+      <c r="C68" s="396"/>
+      <c r="D68" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="F58" s="44" t="s">
+      <c r="F68" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="G58" s="43" t="s">
+      <c r="G68" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H58" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I58" s="267" t="s">
-        <v>532</v>
-      </c>
-      <c r="J58" s="297"/>
-    </row>
-    <row r="59" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="406"/>
-      <c r="B59" s="411"/>
-      <c r="C59" s="416"/>
-      <c r="D59" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="E59" s="56" t="s">
+      <c r="H68" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I68" s="267" t="s">
+        <v>532</v>
+      </c>
+      <c r="J68" s="297"/>
+    </row>
+    <row r="69" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="386"/>
+      <c r="B69" s="391"/>
+      <c r="C69" s="396"/>
+      <c r="D69" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="F59" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="H59" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I59" s="268" t="s">
-        <v>532</v>
-      </c>
-      <c r="J59" s="298"/>
-    </row>
-    <row r="60" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="406"/>
-      <c r="B60" s="412"/>
-      <c r="C60" s="416"/>
-      <c r="D60" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E60" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F60" s="143" t="s">
-        <v>522</v>
-      </c>
-      <c r="G60" s="131" t="s">
-        <v>524</v>
-      </c>
-      <c r="H60" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I60" s="252" t="s">
-        <v>532</v>
-      </c>
-      <c r="J60" s="299" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="406"/>
-      <c r="B61" s="412"/>
-      <c r="C61" s="416"/>
-      <c r="D61" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E61" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F61" s="143" t="s">
-        <v>525</v>
-      </c>
-      <c r="G61" s="131" t="s">
-        <v>524</v>
-      </c>
-      <c r="H61" s="197" t="s">
-        <v>536</v>
-      </c>
-      <c r="I61" s="252" t="s">
-        <v>532</v>
-      </c>
-      <c r="J61" s="299" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="406"/>
-      <c r="B62" s="412"/>
-      <c r="C62" s="416"/>
-      <c r="D62" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E62" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F62" s="143" t="s">
-        <v>526</v>
-      </c>
-      <c r="G62" s="131" t="s">
-        <v>524</v>
-      </c>
-      <c r="H62" s="197" t="s">
-        <v>537</v>
-      </c>
-      <c r="I62" s="252" t="s">
-        <v>532</v>
-      </c>
-      <c r="J62" s="299" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="406"/>
-      <c r="B63" s="412"/>
-      <c r="C63" s="416"/>
-      <c r="D63" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E63" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F63" s="143" t="s">
-        <v>544</v>
-      </c>
-      <c r="G63" s="131" t="s">
-        <v>524</v>
-      </c>
-      <c r="H63" s="197" t="s">
-        <v>538</v>
-      </c>
-      <c r="I63" s="252" t="s">
-        <v>532</v>
-      </c>
-      <c r="J63" s="299" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="406"/>
-      <c r="B64" s="412"/>
-      <c r="C64" s="416"/>
-      <c r="D64" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E64" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F64" s="143" t="s">
-        <v>527</v>
-      </c>
-      <c r="G64" s="131" t="s">
-        <v>524</v>
-      </c>
-      <c r="H64" s="197" t="s">
-        <v>539</v>
-      </c>
-      <c r="I64" s="252" t="s">
-        <v>532</v>
-      </c>
-      <c r="J64" s="299" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="406"/>
-      <c r="B65" s="412"/>
-      <c r="C65" s="417"/>
-      <c r="D65" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E65" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F65" s="143" t="s">
-        <v>529</v>
-      </c>
-      <c r="G65" s="131" t="s">
-        <v>524</v>
-      </c>
-      <c r="H65" s="197" t="s">
-        <v>540</v>
-      </c>
-      <c r="I65" s="252" t="s">
-        <v>532</v>
-      </c>
-      <c r="J65" s="299" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="406"/>
-      <c r="B66" s="412"/>
-      <c r="C66" s="161" t="s">
-        <v>218</v>
-      </c>
-      <c r="D66" s="159" t="s">
-        <v>17</v>
-      </c>
-      <c r="E66" s="159" t="s">
-        <v>44</v>
-      </c>
-      <c r="F66" s="159" t="s">
-        <v>221</v>
-      </c>
-      <c r="G66" s="159" t="s">
-        <v>211</v>
-      </c>
-      <c r="H66" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I66" s="252" t="s">
-        <v>532</v>
-      </c>
-      <c r="J66" s="300"/>
-    </row>
-    <row r="67" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="406"/>
-      <c r="B67" s="413"/>
-      <c r="C67" s="161" t="s">
-        <v>219</v>
-      </c>
-      <c r="D67" s="159" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67" s="159" t="s">
-        <v>220</v>
-      </c>
-      <c r="F67" s="159" t="s">
-        <v>221</v>
-      </c>
-      <c r="G67" s="159" t="s">
-        <v>211</v>
-      </c>
-      <c r="H67" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I67" s="252" t="s">
-        <v>532</v>
-      </c>
-      <c r="J67" s="300"/>
-    </row>
-    <row r="68" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="406"/>
-      <c r="B68" s="410" t="s">
-        <v>141</v>
-      </c>
-      <c r="C68" s="400" t="s">
-        <v>58</v>
-      </c>
-      <c r="D68" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="F68" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="G68" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="H68" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I68" s="252" t="s">
-        <v>532</v>
-      </c>
-      <c r="J68" s="296"/>
-    </row>
-    <row r="69" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="406"/>
-      <c r="B69" s="411"/>
-      <c r="C69" s="401"/>
-      <c r="D69" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="E69" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="F69" s="58" t="s">
+      <c r="F69" s="57" t="s">
         <v>13</v>
       </c>
       <c r="G69" s="56" t="s">
@@ -5941,503 +5959,481 @@
       <c r="H69" s="197" t="s">
         <v>535</v>
       </c>
-      <c r="I69" s="252" t="s">
+      <c r="I69" s="268" t="s">
         <v>532</v>
       </c>
       <c r="J69" s="298"/>
     </row>
     <row r="70" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="406"/>
-      <c r="B70" s="411"/>
-      <c r="C70" s="136" t="s">
+      <c r="A70" s="386"/>
+      <c r="B70" s="392"/>
+      <c r="C70" s="396"/>
+      <c r="D70" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F70" s="143" t="s">
+        <v>522</v>
+      </c>
+      <c r="G70" s="131" t="s">
+        <v>524</v>
+      </c>
+      <c r="H70" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I70" s="252" t="s">
+        <v>532</v>
+      </c>
+      <c r="J70" s="299" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="386"/>
+      <c r="B71" s="392"/>
+      <c r="C71" s="396"/>
+      <c r="D71" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F71" s="143" t="s">
+        <v>525</v>
+      </c>
+      <c r="G71" s="131" t="s">
+        <v>524</v>
+      </c>
+      <c r="H71" s="197" t="s">
+        <v>536</v>
+      </c>
+      <c r="I71" s="252" t="s">
+        <v>532</v>
+      </c>
+      <c r="J71" s="299" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="386"/>
+      <c r="B72" s="392"/>
+      <c r="C72" s="396"/>
+      <c r="D72" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F72" s="143" t="s">
+        <v>526</v>
+      </c>
+      <c r="G72" s="131" t="s">
+        <v>524</v>
+      </c>
+      <c r="H72" s="197" t="s">
+        <v>537</v>
+      </c>
+      <c r="I72" s="252" t="s">
+        <v>532</v>
+      </c>
+      <c r="J72" s="299" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="386"/>
+      <c r="B73" s="392"/>
+      <c r="C73" s="396"/>
+      <c r="D73" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F73" s="143" t="s">
+        <v>544</v>
+      </c>
+      <c r="G73" s="131" t="s">
+        <v>524</v>
+      </c>
+      <c r="H73" s="197" t="s">
+        <v>538</v>
+      </c>
+      <c r="I73" s="252" t="s">
+        <v>532</v>
+      </c>
+      <c r="J73" s="299" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="386"/>
+      <c r="B74" s="392"/>
+      <c r="C74" s="396"/>
+      <c r="D74" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F74" s="143" t="s">
+        <v>527</v>
+      </c>
+      <c r="G74" s="131" t="s">
+        <v>524</v>
+      </c>
+      <c r="H74" s="197" t="s">
+        <v>539</v>
+      </c>
+      <c r="I74" s="252" t="s">
+        <v>532</v>
+      </c>
+      <c r="J74" s="299" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="386"/>
+      <c r="B75" s="392"/>
+      <c r="C75" s="397"/>
+      <c r="D75" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F75" s="143" t="s">
+        <v>529</v>
+      </c>
+      <c r="G75" s="131" t="s">
+        <v>524</v>
+      </c>
+      <c r="H75" s="197" t="s">
+        <v>540</v>
+      </c>
+      <c r="I75" s="252" t="s">
+        <v>532</v>
+      </c>
+      <c r="J75" s="299" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="386"/>
+      <c r="B76" s="392"/>
+      <c r="C76" s="161" t="s">
+        <v>218</v>
+      </c>
+      <c r="D76" s="159" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76" s="159" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" s="159" t="s">
+        <v>221</v>
+      </c>
+      <c r="G76" s="159" t="s">
+        <v>211</v>
+      </c>
+      <c r="H76" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I76" s="252" t="s">
+        <v>532</v>
+      </c>
+      <c r="J76" s="300"/>
+    </row>
+    <row r="77" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="386"/>
+      <c r="B77" s="393"/>
+      <c r="C77" s="161" t="s">
+        <v>219</v>
+      </c>
+      <c r="D77" s="159" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77" s="159" t="s">
+        <v>220</v>
+      </c>
+      <c r="F77" s="159" t="s">
+        <v>221</v>
+      </c>
+      <c r="G77" s="159" t="s">
+        <v>211</v>
+      </c>
+      <c r="H77" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I77" s="252" t="s">
+        <v>532</v>
+      </c>
+      <c r="J77" s="300"/>
+    </row>
+    <row r="78" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="386"/>
+      <c r="B78" s="390" t="s">
+        <v>141</v>
+      </c>
+      <c r="C78" s="377" t="s">
+        <v>58</v>
+      </c>
+      <c r="D78" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="F78" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="G78" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="H78" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I78" s="252" t="s">
+        <v>532</v>
+      </c>
+      <c r="J78" s="296"/>
+    </row>
+    <row r="79" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="386"/>
+      <c r="B79" s="391"/>
+      <c r="C79" s="378"/>
+      <c r="D79" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="F79" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="H79" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I79" s="252" t="s">
+        <v>532</v>
+      </c>
+      <c r="J79" s="298"/>
+    </row>
+    <row r="80" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="386"/>
+      <c r="B80" s="391"/>
+      <c r="C80" s="136" t="s">
         <v>222</v>
       </c>
-      <c r="D70" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E70" s="163" t="s">
+      <c r="D80" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80" s="163" t="s">
         <v>28</v>
       </c>
-      <c r="F70" s="165" t="s">
+      <c r="F80" s="165" t="s">
         <v>189</v>
       </c>
-      <c r="G70" s="59" t="s">
+      <c r="G80" s="59" t="s">
         <v>211</v>
       </c>
-      <c r="H70" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I70" s="252" t="s">
-        <v>532</v>
-      </c>
-      <c r="J70" s="301"/>
-    </row>
-    <row r="71" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="406"/>
-      <c r="B71" s="414"/>
-      <c r="C71" s="136" t="s">
+      <c r="H80" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I80" s="252" t="s">
+        <v>532</v>
+      </c>
+      <c r="J80" s="301"/>
+    </row>
+    <row r="81" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="386"/>
+      <c r="B81" s="394"/>
+      <c r="C81" s="136" t="s">
         <v>223</v>
       </c>
-      <c r="D71" s="162" t="s">
-        <v>17</v>
-      </c>
-      <c r="E71" s="163" t="s">
+      <c r="D81" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E81" s="163" t="s">
         <v>51</v>
       </c>
-      <c r="F71" s="164" t="s">
+      <c r="F81" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="G71" s="163" t="s">
+      <c r="G81" s="163" t="s">
         <v>211</v>
       </c>
-      <c r="H71" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I71" s="252" t="s">
-        <v>532</v>
-      </c>
-      <c r="J71" s="302"/>
-    </row>
-    <row r="72" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="406"/>
-      <c r="B72" s="167" t="s">
+      <c r="H81" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I81" s="252" t="s">
+        <v>532</v>
+      </c>
+      <c r="J81" s="302"/>
+    </row>
+    <row r="82" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="386"/>
+      <c r="B82" s="167" t="s">
         <v>142</v>
       </c>
-      <c r="C72" s="59" t="s">
+      <c r="C82" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="D72" s="135" t="s">
-        <v>17</v>
-      </c>
-      <c r="E72" s="59" t="s">
+      <c r="D82" s="135" t="s">
+        <v>17</v>
+      </c>
+      <c r="E82" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="F72" s="59" t="s">
+      <c r="F82" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="G72" s="59" t="s">
+      <c r="G82" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="H72" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I72" s="252" t="s">
-        <v>532</v>
-      </c>
-      <c r="J72" s="301"/>
-    </row>
-    <row r="73" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="406"/>
-      <c r="B73" s="209" t="s">
+      <c r="H82" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I82" s="252" t="s">
+        <v>532</v>
+      </c>
+      <c r="J82" s="301"/>
+    </row>
+    <row r="83" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="386"/>
+      <c r="B83" s="209" t="s">
         <v>161</v>
       </c>
-      <c r="C73" s="138" t="s">
+      <c r="C83" s="138" t="s">
         <v>95</v>
       </c>
-      <c r="D73" s="138" t="s">
-        <v>17</v>
-      </c>
-      <c r="E73" s="138" t="s">
+      <c r="D83" s="138" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83" s="138" t="s">
         <v>96</v>
       </c>
-      <c r="F73" s="59" t="s">
+      <c r="F83" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="G73" s="138" t="s">
+      <c r="G83" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="H73" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I73" s="252" t="s">
-        <v>532</v>
-      </c>
-      <c r="J73" s="303"/>
-    </row>
-    <row r="74" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="406"/>
-      <c r="B74" s="167" t="s">
+      <c r="H83" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I83" s="252" t="s">
+        <v>532</v>
+      </c>
+      <c r="J83" s="303"/>
+    </row>
+    <row r="84" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="386"/>
+      <c r="B84" s="167" t="s">
         <v>224</v>
       </c>
-      <c r="C74" s="59" t="s">
+      <c r="C84" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="D74" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="E74" s="59" t="s">
+      <c r="D84" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="F74" s="164" t="s">
+      <c r="F84" s="164" t="s">
         <v>189</v>
       </c>
-      <c r="G74" s="59" t="s">
+      <c r="G84" s="59" t="s">
         <v>211</v>
       </c>
-      <c r="H74" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I74" s="252" t="s">
-        <v>532</v>
-      </c>
-      <c r="J74" s="301"/>
-    </row>
-    <row r="75" spans="1:10" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="407"/>
-      <c r="B75" s="166" t="s">
+      <c r="H84" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I84" s="252" t="s">
+        <v>532</v>
+      </c>
+      <c r="J84" s="301"/>
+    </row>
+    <row r="85" spans="1:10" ht="29.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="387"/>
+      <c r="B85" s="166" t="s">
         <v>228</v>
       </c>
-      <c r="C75" s="162" t="s">
+      <c r="C85" s="162" t="s">
         <v>226</v>
       </c>
-      <c r="D75" s="163" t="s">
-        <v>17</v>
-      </c>
-      <c r="E75" s="163" t="s">
+      <c r="D85" s="163" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85" s="163" t="s">
         <v>227</v>
       </c>
-      <c r="F75" s="164" t="s">
+      <c r="F85" s="164" t="s">
         <v>221</v>
       </c>
-      <c r="G75" s="163" t="s">
+      <c r="G85" s="163" t="s">
         <v>211</v>
       </c>
-      <c r="H75" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I75" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J75" s="302"/>
-    </row>
-    <row r="76" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="350" t="s">
+      <c r="H85" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I85" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J85" s="302"/>
+    </row>
+    <row r="86" spans="1:10" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="382" t="s">
         <v>145</v>
       </c>
-      <c r="B76" s="210" t="s">
+      <c r="B86" s="210" t="s">
         <v>185</v>
       </c>
-      <c r="C76" s="160" t="s">
+      <c r="C86" s="160" t="s">
         <v>62</v>
       </c>
-      <c r="D76" s="157" t="s">
-        <v>17</v>
-      </c>
-      <c r="E76" s="157" t="s">
+      <c r="D86" s="157" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86" s="157" t="s">
         <v>82</v>
       </c>
-      <c r="F76" s="158" t="s">
+      <c r="F86" s="158" t="s">
         <v>8</v>
       </c>
-      <c r="G76" s="157" t="s">
+      <c r="G86" s="157" t="s">
         <v>9</v>
       </c>
-      <c r="H76" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I76" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J76" s="304"/>
-    </row>
-    <row r="77" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="352"/>
-      <c r="B77" s="402" t="s">
+      <c r="H86" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I86" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J86" s="304"/>
+    </row>
+    <row r="87" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="383"/>
+      <c r="B87" s="379" t="s">
         <v>186</v>
       </c>
-      <c r="C77" s="39" t="s">
+      <c r="C87" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="D77" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="E77" s="39" t="s">
+      <c r="D87" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E87" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="F77" s="34" t="s">
+      <c r="F87" s="34" t="s">
         <v>8</v>
-      </c>
-      <c r="G77" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="H77" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I77" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J77" s="292"/>
-    </row>
-    <row r="78" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="352"/>
-      <c r="B78" s="403"/>
-      <c r="C78" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="D78" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="F78" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="H78" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I78" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J78" s="292"/>
-    </row>
-    <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="352"/>
-      <c r="B79" s="403"/>
-      <c r="C79" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="D79" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="F79" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G79" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="H79" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I79" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J79" s="292" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="352"/>
-      <c r="B80" s="404"/>
-      <c r="C80" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="D80" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="E80" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="F80" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G80" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="H80" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I80" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J80" s="292" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="351"/>
-      <c r="B81" s="211" t="s">
-        <v>187</v>
-      </c>
-      <c r="C81" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D81" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E81" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="F81" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="H81" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I81" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J81" s="299"/>
-    </row>
-    <row r="82" spans="1:10" ht="83" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="389"/>
-      <c r="B82" s="341" t="s">
-        <v>146</v>
-      </c>
-      <c r="C82" s="340" t="s">
-        <v>71</v>
-      </c>
-      <c r="D82" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="E82" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="F82" s="75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="H82" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I82" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J82" s="305"/>
-    </row>
-    <row r="83" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="389"/>
-      <c r="B83" s="212" t="s">
-        <v>147</v>
-      </c>
-      <c r="C83" s="77" t="s">
-        <v>73</v>
-      </c>
-      <c r="D83" s="77" t="s">
-        <v>17</v>
-      </c>
-      <c r="E83" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="F83" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" s="77" t="s">
-        <v>56</v>
-      </c>
-      <c r="H83" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I83" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J83" s="306"/>
-    </row>
-    <row r="84" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="389"/>
-      <c r="B84" s="213" t="s">
-        <v>148</v>
-      </c>
-      <c r="C84" s="77" t="s">
-        <v>74</v>
-      </c>
-      <c r="D84" s="77" t="s">
-        <v>17</v>
-      </c>
-      <c r="E84" s="77" t="s">
-        <v>31</v>
-      </c>
-      <c r="F84" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="G84" s="77" t="s">
-        <v>56</v>
-      </c>
-      <c r="H84" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I84" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J84" s="306"/>
-    </row>
-    <row r="85" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="389"/>
-      <c r="B85" s="213" t="s">
-        <v>149</v>
-      </c>
-      <c r="C85" s="77" t="s">
-        <v>75</v>
-      </c>
-      <c r="D85" s="77" t="s">
-        <v>17</v>
-      </c>
-      <c r="E85" s="77" t="s">
-        <v>31</v>
-      </c>
-      <c r="F85" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" s="77" t="s">
-        <v>56</v>
-      </c>
-      <c r="H85" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I85" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J85" s="306"/>
-    </row>
-    <row r="86" spans="1:10" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="390"/>
-      <c r="B86" s="213" t="s">
-        <v>150</v>
-      </c>
-      <c r="C86" s="79" t="s">
-        <v>76</v>
-      </c>
-      <c r="D86" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="E86" s="79" t="s">
-        <v>77</v>
-      </c>
-      <c r="F86" s="80" t="s">
-        <v>15</v>
-      </c>
-      <c r="G86" s="79" t="s">
-        <v>33</v>
-      </c>
-      <c r="H86" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I86" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J86" s="307" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="350" t="s">
-        <v>151</v>
-      </c>
-      <c r="B87" s="214" t="s">
-        <v>152</v>
-      </c>
-      <c r="C87" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="D87" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="E87" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="F87" s="34" t="s">
-        <v>20</v>
       </c>
       <c r="G87" s="39" t="s">
         <v>9</v>
@@ -6451,1754 +6447,1946 @@
       <c r="J87" s="292"/>
     </row>
     <row r="88" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="351"/>
-      <c r="B88" s="215" t="s">
+      <c r="A88" s="383"/>
+      <c r="B88" s="380"/>
+      <c r="C88" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="D88" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E88" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="F88" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G88" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="H88" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I88" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J88" s="292"/>
+    </row>
+    <row r="89" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="383"/>
+      <c r="B89" s="380"/>
+      <c r="C89" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="F89" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G89" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="H89" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I89" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J89" s="292" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="383"/>
+      <c r="B90" s="381"/>
+      <c r="C90" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D90" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F90" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G90" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="H90" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I90" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J90" s="292" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="384"/>
+      <c r="B91" s="211" t="s">
+        <v>187</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D91" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E91" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G91" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H91" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I91" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J91" s="299"/>
+    </row>
+    <row r="92" spans="1:10" ht="83" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="432"/>
+      <c r="B92" s="341" t="s">
+        <v>146</v>
+      </c>
+      <c r="C92" s="340" t="s">
+        <v>71</v>
+      </c>
+      <c r="D92" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E92" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="F92" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="G92" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="H92" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I92" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J92" s="305"/>
+    </row>
+    <row r="93" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="432"/>
+      <c r="B93" s="212" t="s">
+        <v>147</v>
+      </c>
+      <c r="C93" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="D93" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="E93" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="F93" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="H93" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I93" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J93" s="306"/>
+    </row>
+    <row r="94" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="432"/>
+      <c r="B94" s="213" t="s">
+        <v>148</v>
+      </c>
+      <c r="C94" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="D94" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="E94" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="F94" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="H94" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I94" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J94" s="306"/>
+    </row>
+    <row r="95" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="432"/>
+      <c r="B95" s="213" t="s">
+        <v>149</v>
+      </c>
+      <c r="C95" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="D95" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="E95" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="F95" s="78" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="H95" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I95" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J95" s="306"/>
+    </row>
+    <row r="96" spans="1:10" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="433"/>
+      <c r="B96" s="213" t="s">
+        <v>150</v>
+      </c>
+      <c r="C96" s="79" t="s">
+        <v>76</v>
+      </c>
+      <c r="D96" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="E96" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="F96" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="G96" s="79" t="s">
+        <v>33</v>
+      </c>
+      <c r="H96" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I96" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J96" s="307" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="382" t="s">
+        <v>151</v>
+      </c>
+      <c r="B97" s="214" t="s">
+        <v>152</v>
+      </c>
+      <c r="C97" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D97" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="F97" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G97" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="H97" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I97" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J97" s="292"/>
+    </row>
+    <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="384"/>
+      <c r="B98" s="215" t="s">
         <v>153</v>
       </c>
-      <c r="C88" s="17" t="s">
+      <c r="C98" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D88" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E88" s="14" t="s">
+      <c r="D98" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E98" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F88" s="15" t="s">
+      <c r="F98" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G88" s="14" t="s">
+      <c r="G98" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H88" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I88" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J88" s="308" t="s">
+      <c r="H98" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I98" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J98" s="308" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="345" t="s">
+    <row r="99" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="434" t="s">
         <v>156</v>
       </c>
-      <c r="B89" s="421" t="s">
+      <c r="B99" s="401" t="s">
         <v>154</v>
       </c>
-      <c r="C89" s="46" t="s">
+      <c r="C99" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="D89" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="45" t="s">
+      <c r="D99" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E99" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="F89" s="53" t="s">
+      <c r="F99" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="G89" s="45" t="s">
+      <c r="G99" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="H89" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I89" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J89" s="309"/>
-    </row>
-    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="346"/>
-      <c r="B90" s="422"/>
-      <c r="C90" s="48" t="s">
+      <c r="H99" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I99" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J99" s="309"/>
+    </row>
+    <row r="100" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="435"/>
+      <c r="B100" s="402"/>
+      <c r="C100" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="D90" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" s="47" t="s">
+      <c r="D100" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="F90" s="49" t="s">
+      <c r="F100" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="G90" s="47" t="s">
+      <c r="G100" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="H90" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I90" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J90" s="310" t="s">
+      <c r="H100" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I100" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J100" s="310" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="347"/>
-      <c r="B91" s="216" t="s">
+    <row r="101" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="436"/>
+      <c r="B101" s="216" t="s">
         <v>155</v>
       </c>
-      <c r="C91" s="51" t="s">
+      <c r="C101" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="D91" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="E91" s="50" t="s">
+      <c r="D101" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="F91" s="52" t="s">
+      <c r="F101" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="50" t="s">
+      <c r="G101" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="H91" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I91" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J91" s="311"/>
-    </row>
-    <row r="92" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="350" t="s">
+      <c r="H101" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I101" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J101" s="311"/>
+    </row>
+    <row r="102" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="382" t="s">
         <v>157</v>
       </c>
-      <c r="B92" s="217"/>
-      <c r="C92" s="396" t="s">
+      <c r="B102" s="217"/>
+      <c r="C102" s="370" t="s">
         <v>86</v>
       </c>
-      <c r="D92" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="E92" s="35" t="s">
+      <c r="D102" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E102" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="F92" s="35" t="s">
+      <c r="F102" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="G92" s="36" t="s">
+      <c r="G102" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="H92" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I92" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J92" s="312"/>
-    </row>
-    <row r="93" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="352"/>
-      <c r="B93" s="218"/>
-      <c r="C93" s="397"/>
-      <c r="D93" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="E93" s="37" t="s">
+      <c r="H102" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I102" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J102" s="312"/>
+    </row>
+    <row r="103" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="383"/>
+      <c r="B103" s="218"/>
+      <c r="C103" s="371"/>
+      <c r="D103" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E103" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="F93" s="37" t="s">
+      <c r="F103" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="G93" s="38" t="s">
+      <c r="G103" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="H93" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I93" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J93" s="313" t="s">
+      <c r="H103" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I103" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J103" s="313" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="351"/>
-      <c r="B94" s="219"/>
-      <c r="C94" s="17" t="s">
+    <row r="104" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="384"/>
+      <c r="B104" s="219"/>
+      <c r="C104" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D94" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E94" s="14" t="s">
+      <c r="D104" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="F94" s="14" t="s">
+      <c r="F104" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G94" s="15" t="s">
+      <c r="G104" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="H94" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I94" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J94" s="314" t="s">
+      <c r="H104" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I104" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J104" s="314" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="44.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="366" t="s">
+    <row r="105" spans="1:10" ht="44.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="411" t="s">
         <v>158</v>
       </c>
-      <c r="B95" s="220" t="s">
+      <c r="B105" s="220" t="s">
         <v>92</v>
       </c>
-      <c r="C95" s="81" t="s">
+      <c r="C105" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="D95" s="82" t="s">
-        <v>17</v>
-      </c>
-      <c r="E95" s="83" t="s">
+      <c r="D105" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="F95" s="83" t="s">
+      <c r="F105" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="G95" s="82" t="s">
+      <c r="G105" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="H95" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I95" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J95" s="315"/>
-    </row>
-    <row r="96" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="367"/>
-      <c r="B96" s="220" t="s">
+      <c r="H105" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I105" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J105" s="315"/>
+    </row>
+    <row r="106" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="412"/>
+      <c r="B106" s="220" t="s">
         <v>160</v>
       </c>
-      <c r="C96" s="139" t="s">
+      <c r="C106" s="139" t="s">
         <v>90</v>
       </c>
-      <c r="D96" s="84" t="s">
-        <v>17</v>
-      </c>
-      <c r="E96" s="85" t="s">
+      <c r="D106" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="E106" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="F96" s="85" t="s">
+      <c r="F106" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="G96" s="84" t="s">
+      <c r="G106" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="H96" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I96" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J96" s="316"/>
-    </row>
-    <row r="97" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="368"/>
-      <c r="B97" s="220" t="s">
+      <c r="H106" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I106" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J106" s="316"/>
+    </row>
+    <row r="107" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A107" s="413"/>
+      <c r="B107" s="220" t="s">
         <v>159</v>
       </c>
-      <c r="C97" s="81" t="s">
+      <c r="C107" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="D97" s="82" t="s">
-        <v>17</v>
-      </c>
-      <c r="E97" s="83" t="s">
+      <c r="D107" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="E107" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="F97" s="85" t="s">
+      <c r="F107" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="G97" s="84" t="s">
+      <c r="G107" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="H97" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I97" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J97" s="317"/>
-    </row>
-    <row r="98" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="356" t="s">
+      <c r="H107" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I107" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J107" s="317"/>
+    </row>
+    <row r="108" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A108" s="372" t="s">
         <v>164</v>
       </c>
-      <c r="B98" s="221" t="s">
+      <c r="B108" s="221" t="s">
         <v>162</v>
       </c>
-      <c r="C98" s="33" t="s">
+      <c r="C108" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="D98" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="E98" s="39" t="s">
+      <c r="D108" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="F98" s="39" t="s">
+      <c r="F108" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G98" s="39" t="s">
+      <c r="G108" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="H98" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I98" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J98" s="292"/>
-    </row>
-    <row r="99" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="384"/>
-      <c r="B99" s="222" t="s">
+      <c r="H108" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I108" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J108" s="292"/>
+    </row>
+    <row r="109" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A109" s="373"/>
+      <c r="B109" s="222" t="s">
         <v>163</v>
       </c>
-      <c r="C99" s="23" t="s">
+      <c r="C109" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D99" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E99" s="19" t="s">
+      <c r="D109" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E109" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="F99" s="39" t="s">
+      <c r="F109" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="G99" s="39" t="s">
+      <c r="G109" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="H99" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I99" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J99" s="318" t="s">
+      <c r="H109" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I109" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J109" s="318" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="385"/>
-      <c r="B100" s="223" t="s">
+    <row r="110" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A110" s="374"/>
+      <c r="B110" s="223" t="s">
         <v>213</v>
       </c>
-      <c r="C100" s="155" t="s">
+      <c r="C110" s="155" t="s">
         <v>212</v>
       </c>
-      <c r="D100" s="156" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="145" t="s">
+      <c r="D110" s="156" t="s">
+        <v>17</v>
+      </c>
+      <c r="E110" s="145" t="s">
         <v>55</v>
       </c>
-      <c r="F100" s="14" t="s">
+      <c r="F110" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="G100" s="15" t="s">
+      <c r="G110" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="H100" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I100" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J100" s="314"/>
-    </row>
-    <row r="101" spans="1:10" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="408" t="s">
+      <c r="H110" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I110" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J110" s="314"/>
+    </row>
+    <row r="111" spans="1:10" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="388" t="s">
         <v>165</v>
       </c>
-      <c r="B101" s="224" t="s">
+      <c r="B111" s="224" t="s">
         <v>166</v>
       </c>
-      <c r="C101" s="152" t="s">
+      <c r="C111" s="152" t="s">
         <v>99</v>
       </c>
-      <c r="D101" s="153" t="s">
-        <v>17</v>
-      </c>
-      <c r="E101" s="154" t="s">
+      <c r="D111" s="153" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="154" t="s">
         <v>101</v>
       </c>
-      <c r="F101" s="154" t="s">
+      <c r="F111" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="G101" s="153" t="s">
+      <c r="G111" s="153" t="s">
         <v>56</v>
       </c>
-      <c r="H101" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I101" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J101" s="319"/>
-    </row>
-    <row r="102" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="409"/>
-      <c r="B102" s="225" t="s">
+      <c r="H111" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I111" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J111" s="319"/>
+    </row>
+    <row r="112" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A112" s="389"/>
+      <c r="B112" s="225" t="s">
         <v>167</v>
       </c>
-      <c r="C102" s="86" t="s">
+      <c r="C112" s="86" t="s">
         <v>100</v>
       </c>
-      <c r="D102" s="87" t="s">
-        <v>17</v>
-      </c>
-      <c r="E102" s="88" t="s">
+      <c r="D112" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="F102" s="88" t="s">
+      <c r="F112" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="G102" s="87" t="s">
+      <c r="G112" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="H102" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I102" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J102" s="320"/>
-    </row>
-    <row r="103" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="350" t="s">
+      <c r="H112" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I112" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J112" s="320"/>
+    </row>
+    <row r="113" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A113" s="382" t="s">
         <v>168</v>
       </c>
-      <c r="B103" s="226" t="s">
+      <c r="B113" s="226" t="s">
         <v>102</v>
       </c>
-      <c r="C103" s="23" t="s">
+      <c r="C113" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="D103" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="E103" s="42" t="s">
+      <c r="D113" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E113" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="F103" s="19" t="s">
+      <c r="F113" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G103" s="12" t="s">
+      <c r="G113" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H103" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I103" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J103" s="295"/>
-    </row>
-    <row r="104" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="352"/>
-      <c r="B104" s="227" t="s">
+      <c r="H113" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I113" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J113" s="295"/>
+    </row>
+    <row r="114" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A114" s="383"/>
+      <c r="B114" s="227" t="s">
         <v>107</v>
       </c>
-      <c r="C104" s="33" t="s">
+      <c r="C114" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="D104" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="E104" s="39" t="s">
+      <c r="D114" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E114" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="F104" s="39" t="s">
+      <c r="F114" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="G104" s="34" t="s">
+      <c r="G114" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="H104" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I104" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J104" s="292" t="s">
+      <c r="H114" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I114" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J114" s="292" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="351"/>
-      <c r="B105" s="228" t="s">
+    <row r="115" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A115" s="384"/>
+      <c r="B115" s="228" t="s">
         <v>116</v>
       </c>
-      <c r="C105" s="23" t="s">
+      <c r="C115" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D105" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E105" s="19" t="s">
+      <c r="D115" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E115" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="F105" s="19" t="s">
+      <c r="F115" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G105" s="12" t="s">
+      <c r="G115" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="H105" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I105" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J105" s="299" t="s">
+      <c r="H115" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I115" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J115" s="299" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="356" t="s">
+    <row r="116" spans="1:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A116" s="372" t="s">
         <v>215</v>
       </c>
-      <c r="B106" s="229" t="s">
+      <c r="B116" s="229" t="s">
         <v>109</v>
       </c>
-      <c r="C106" s="33" t="s">
+      <c r="C116" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="D106" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E106" s="39" t="s">
+      <c r="D116" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E116" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="F106" s="39" t="s">
+      <c r="F116" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G106" s="34" t="s">
+      <c r="G116" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="H106" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I106" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J106" s="292"/>
-    </row>
-    <row r="107" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="351"/>
-      <c r="B107" s="230" t="s">
+      <c r="H116" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I116" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J116" s="292"/>
+    </row>
+    <row r="117" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="384"/>
+      <c r="B117" s="230" t="s">
         <v>216</v>
       </c>
-      <c r="C107" s="17" t="s">
+      <c r="C117" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="D107" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E107" s="14" t="s">
+      <c r="D117" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E117" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="F107" s="14" t="s">
+      <c r="F117" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="G107" s="15" t="s">
+      <c r="G117" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="H107" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I107" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J107" s="308"/>
-    </row>
-    <row r="108" spans="1:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="350" t="s">
+      <c r="H117" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I117" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J117" s="308"/>
+    </row>
+    <row r="118" spans="1:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A118" s="382" t="s">
         <v>243</v>
       </c>
-      <c r="B108" s="208" t="s">
+      <c r="B118" s="208" t="s">
         <v>117</v>
       </c>
-      <c r="C108" s="168" t="s">
+      <c r="C118" s="168" t="s">
         <v>110</v>
       </c>
-      <c r="D108" s="168" t="s">
-        <v>17</v>
-      </c>
-      <c r="E108" s="170" t="s">
+      <c r="D118" s="168" t="s">
+        <v>17</v>
+      </c>
+      <c r="E118" s="170" t="s">
         <v>31</v>
       </c>
-      <c r="F108" s="170" t="s">
+      <c r="F118" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="G108" s="169" t="s">
+      <c r="G118" s="169" t="s">
         <v>21</v>
       </c>
-      <c r="H108" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I108" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J108" s="321"/>
-    </row>
-    <row r="109" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="351"/>
-      <c r="B109" s="230" t="s">
+      <c r="H118" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I118" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J118" s="321"/>
+    </row>
+    <row r="119" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A119" s="384"/>
+      <c r="B119" s="230" t="s">
         <v>244</v>
       </c>
-      <c r="C109" s="17" t="s">
+      <c r="C119" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="D109" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E109" s="14" t="s">
+      <c r="D119" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="F109" s="14" t="s">
+      <c r="F119" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="G109" s="15" t="s">
+      <c r="G119" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="H109" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I109" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J109" s="308"/>
-    </row>
-    <row r="110" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A110" s="26" t="s">
+      <c r="H119" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I119" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J119" s="308"/>
+    </row>
+    <row r="120" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A120" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="B110" s="231" t="s">
+      <c r="B120" s="231" t="s">
         <v>112</v>
       </c>
-      <c r="C110" s="6" t="s">
+      <c r="C120" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D110" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E110" s="3" t="s">
+      <c r="D120" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E120" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F110" s="3" t="s">
+      <c r="F120" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G110" s="11" t="s">
+      <c r="G120" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H110" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I110" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J110" s="322"/>
-    </row>
-    <row r="111" spans="1:10" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="350" t="s">
+      <c r="H120" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I120" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J120" s="322"/>
+    </row>
+    <row r="121" spans="1:10" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A121" s="382" t="s">
         <v>172</v>
       </c>
-      <c r="B111" s="208" t="s">
+      <c r="B121" s="208" t="s">
         <v>232</v>
       </c>
-      <c r="C111" s="168" t="s">
+      <c r="C121" s="168" t="s">
         <v>231</v>
       </c>
-      <c r="D111" s="169" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111" s="170" t="s">
+      <c r="D121" s="169" t="s">
+        <v>17</v>
+      </c>
+      <c r="E121" s="170" t="s">
         <v>210</v>
       </c>
-      <c r="F111" s="170" t="s">
+      <c r="F121" s="170" t="s">
         <v>221</v>
       </c>
-      <c r="G111" s="169" t="s">
+      <c r="G121" s="169" t="s">
         <v>211</v>
       </c>
-      <c r="H111" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I111" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J111" s="344" t="s">
+      <c r="H121" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I121" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J121" s="344" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A112" s="351"/>
-      <c r="B112" s="230" t="s">
+    <row r="122" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A122" s="384"/>
+      <c r="B122" s="230" t="s">
         <v>178</v>
       </c>
-      <c r="C112" s="17" t="s">
+      <c r="C122" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D112" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="14" t="s">
+      <c r="D122" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F112" s="14" t="s">
+      <c r="F122" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G112" s="15" t="s">
+      <c r="G122" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H112" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I112" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J112" s="308"/>
-    </row>
-    <row r="113" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A113" s="26" t="s">
+      <c r="H122" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I122" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J122" s="308"/>
+    </row>
+    <row r="123" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A123" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="B113" s="231" t="s">
+      <c r="B123" s="231" t="s">
         <v>174</v>
       </c>
-      <c r="C113" s="6" t="s">
+      <c r="C123" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D113" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E113" s="3" t="s">
+      <c r="D123" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F113" s="3" t="s">
+      <c r="F123" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G113" s="11" t="s">
+      <c r="G123" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H113" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I113" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J113" s="322"/>
-    </row>
-    <row r="114" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A114" s="26" t="s">
+      <c r="H123" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I123" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J123" s="322"/>
+    </row>
+    <row r="124" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A124" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="B114" s="231" t="s">
+      <c r="B124" s="231" t="s">
         <v>175</v>
       </c>
-      <c r="C114" s="6" t="s">
+      <c r="C124" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D114" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E114" s="3" t="s">
+      <c r="D124" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E124" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F114" s="3" t="s">
+      <c r="F124" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G114" s="11" t="s">
+      <c r="G124" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="H114" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I114" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J114" s="322"/>
-    </row>
-    <row r="115" spans="1:10" ht="30.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A115" s="26" t="s">
+      <c r="H124" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I124" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J124" s="322"/>
+    </row>
+    <row r="125" spans="1:10" ht="30.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A125" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="B115" s="231" t="s">
+      <c r="B125" s="231" t="s">
         <v>177</v>
       </c>
-      <c r="C115" s="6" t="s">
+      <c r="C125" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D115" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E115" s="3" t="s">
+      <c r="D125" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E125" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F115" s="3" t="s">
+      <c r="F125" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G115" s="11" t="s">
+      <c r="G125" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H115" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I115" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J115" s="322" t="s">
+      <c r="H125" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I125" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J125" s="322" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A116" s="26" t="s">
+    <row r="126" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A126" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="B116" s="231" t="s">
+      <c r="B126" s="231" t="s">
         <v>180</v>
       </c>
-      <c r="C116" s="6" t="s">
+      <c r="C126" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D116" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E116" s="3" t="s">
+      <c r="D126" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E126" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F116" s="3" t="s">
+      <c r="F126" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G116" s="11" t="s">
+      <c r="G126" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H116" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I116" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J116" s="322" t="s">
+      <c r="H126" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I126" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J126" s="322" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A117" s="26" t="s">
+    <row r="127" spans="1:10" ht="45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A127" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="B117" s="231" t="s">
+      <c r="B127" s="231" t="s">
         <v>188</v>
       </c>
-      <c r="C117" s="6" t="s">
+      <c r="C127" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D117" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E117" s="3" t="s">
+      <c r="D127" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E127" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F117" s="3" t="s">
+      <c r="F127" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G117" s="11" t="s">
+      <c r="G127" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H117" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I117" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J117" s="322" t="s">
+      <c r="H127" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I127" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J127" s="322" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A118" s="27" t="s">
+    <row r="128" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A128" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="B118" s="226" t="s">
+      <c r="B128" s="226" t="s">
         <v>128</v>
       </c>
-      <c r="C118" s="16" t="s">
+      <c r="C128" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="D118" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E118" s="9" t="s">
+      <c r="D128" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E128" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="F118" s="9" t="s">
+      <c r="F128" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G118" s="9" t="s">
+      <c r="G128" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="H118" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I118" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J118" s="323" t="s">
+      <c r="H128" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I128" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J128" s="323" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A119" s="26" t="s">
+    <row r="129" spans="1:10" ht="45" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A129" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="B119" s="232" t="s">
+      <c r="B129" s="232" t="s">
         <v>170</v>
       </c>
-      <c r="C119" s="42" t="s">
+      <c r="C129" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="D119" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="E119" s="40" t="s">
+      <c r="D129" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E129" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="F119" s="40" t="s">
+      <c r="F129" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G119" s="41" t="s">
+      <c r="G129" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="H119" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I119" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J119" s="295"/>
-    </row>
-    <row r="120" spans="1:10" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="393" t="s">
+      <c r="H129" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I129" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J129" s="295"/>
+    </row>
+    <row r="130" spans="1:10" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A130" s="367" t="s">
         <v>183</v>
       </c>
-      <c r="B120" s="233"/>
-      <c r="C120" s="418" t="s">
+      <c r="B130" s="233"/>
+      <c r="C130" s="398" t="s">
         <v>129</v>
       </c>
-      <c r="D120" s="89" t="s">
-        <v>17</v>
-      </c>
-      <c r="E120" s="90" t="s">
+      <c r="D130" s="89" t="s">
+        <v>17</v>
+      </c>
+      <c r="E130" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="F120" s="90" t="s">
+      <c r="F130" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="G120" s="89" t="s">
+      <c r="G130" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="H120" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I120" s="342" t="s">
+      <c r="H130" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I130" s="342" t="s">
         <v>531</v>
       </c>
-      <c r="J120" s="343" t="s">
+      <c r="J130" s="343" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="394"/>
-      <c r="B121" s="233"/>
-      <c r="C121" s="419"/>
-      <c r="D121" s="91" t="s">
-        <v>17</v>
-      </c>
-      <c r="E121" s="92" t="s">
+    <row r="131" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A131" s="368"/>
+      <c r="B131" s="233"/>
+      <c r="C131" s="399"/>
+      <c r="D131" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="E131" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="F121" s="93" t="s">
+      <c r="F131" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="G121" s="94" t="s">
+      <c r="G131" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="H121" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I121" s="342" t="s">
+      <c r="H131" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I131" s="342" t="s">
         <v>531</v>
       </c>
-      <c r="J121" s="343" t="s">
+      <c r="J131" s="343" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="394"/>
-      <c r="B122" s="233"/>
-      <c r="C122" s="419"/>
-      <c r="D122" s="94" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="93" t="s">
+    <row r="132" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A132" s="368"/>
+      <c r="B132" s="233"/>
+      <c r="C132" s="399"/>
+      <c r="D132" s="94" t="s">
+        <v>17</v>
+      </c>
+      <c r="E132" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="F122" s="93" t="s">
+      <c r="F132" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="G122" s="94" t="s">
+      <c r="G132" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="H122" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I122" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J122" s="324" t="s">
+      <c r="H132" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I132" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J132" s="324" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A123" s="394"/>
-      <c r="B123" s="234"/>
-      <c r="C123" s="419"/>
-      <c r="D123" s="94" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="93" t="s">
+    <row r="133" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A133" s="368"/>
+      <c r="B133" s="234"/>
+      <c r="C133" s="399"/>
+      <c r="D133" s="94" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="F123" s="93" t="s">
+      <c r="F133" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="G123" s="94" t="s">
+      <c r="G133" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="H123" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I123" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J123" s="324" t="s">
+      <c r="H133" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I133" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J133" s="324" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="394"/>
-      <c r="B124" s="235"/>
-      <c r="C124" s="420"/>
-      <c r="D124" s="95" t="s">
-        <v>17</v>
-      </c>
-      <c r="E124" s="96" t="s">
+    <row r="134" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A134" s="368"/>
+      <c r="B134" s="235"/>
+      <c r="C134" s="400"/>
+      <c r="D134" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="96" t="s">
         <v>132</v>
       </c>
-      <c r="F124" s="96" t="s">
+      <c r="F134" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="G124" s="95" t="s">
+      <c r="G134" s="95" t="s">
         <v>144</v>
       </c>
-      <c r="H124" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I124" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J124" s="325" t="s">
+      <c r="H134" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I134" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J134" s="325" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="394"/>
-      <c r="B125" s="235"/>
-      <c r="C125" s="391" t="s">
+    <row r="135" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A135" s="368"/>
+      <c r="B135" s="235"/>
+      <c r="C135" s="365" t="s">
         <v>133</v>
       </c>
-      <c r="D125" s="97" t="s">
+      <c r="D135" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="E125" s="98" t="s">
+      <c r="E135" s="98" t="s">
         <v>104</v>
       </c>
-      <c r="F125" s="98" t="s">
+      <c r="F135" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="G125" s="97" t="s">
+      <c r="G135" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="H125" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I125" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J125" s="326" t="s">
+      <c r="H135" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I135" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J135" s="326" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A126" s="394"/>
-      <c r="B126" s="235"/>
-      <c r="C126" s="392"/>
-      <c r="D126" s="99" t="s">
-        <v>17</v>
-      </c>
-      <c r="E126" s="100" t="s">
+    <row r="136" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A136" s="368"/>
+      <c r="B136" s="235"/>
+      <c r="C136" s="366"/>
+      <c r="D136" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="E136" s="100" t="s">
         <v>104</v>
       </c>
-      <c r="F126" s="100" t="s">
+      <c r="F136" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="G126" s="99" t="s">
+      <c r="G136" s="99" t="s">
         <v>144</v>
       </c>
-      <c r="H126" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I126" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J126" s="327" t="s">
+      <c r="H136" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I136" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J136" s="327" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A127" s="395"/>
-      <c r="B127" s="236"/>
-      <c r="C127" s="151" t="s">
+    <row r="137" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A137" s="369"/>
+      <c r="B137" s="236"/>
+      <c r="C137" s="151" t="s">
         <v>135</v>
       </c>
-      <c r="D127" s="117" t="s">
-        <v>17</v>
-      </c>
-      <c r="E127" s="118" t="s">
+      <c r="D137" s="117" t="s">
+        <v>17</v>
+      </c>
+      <c r="E137" s="118" t="s">
         <v>115</v>
       </c>
-      <c r="F127" s="118" t="s">
+      <c r="F137" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="G127" s="119" t="s">
+      <c r="G137" s="119" t="s">
         <v>144</v>
       </c>
-      <c r="H127" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I127" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J127" s="328" t="s">
+      <c r="H137" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I137" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J137" s="328" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A128" s="353" t="s">
+    <row r="138" spans="1:10" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A138" s="439" t="s">
         <v>191</v>
       </c>
-      <c r="B128" s="237"/>
-      <c r="C128" s="9" t="s">
+      <c r="B138" s="237"/>
+      <c r="C138" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="D128" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E128" s="9" t="s">
+      <c r="D138" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E138" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="F128" s="9" t="s">
+      <c r="F138" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="G128" s="9" t="s">
+      <c r="G138" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="H128" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I128" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J128" s="329"/>
-    </row>
-    <row r="129" spans="1:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A129" s="354"/>
-      <c r="B129" s="238"/>
-      <c r="C129" s="2" t="s">
+      <c r="H138" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I138" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J138" s="329"/>
+    </row>
+    <row r="139" spans="1:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A139" s="440"/>
+      <c r="B139" s="238"/>
+      <c r="C139" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D129" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E129" s="5" t="s">
+      <c r="D139" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E139" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="F129" s="5" t="s">
+      <c r="F139" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="G129" s="5" t="s">
+      <c r="G139" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="H129" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I129" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J129" s="330"/>
-    </row>
-    <row r="130" spans="1:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A130" s="355"/>
-      <c r="B130" s="239"/>
-      <c r="C130" s="22" t="s">
+      <c r="H139" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I139" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J139" s="330"/>
+    </row>
+    <row r="140" spans="1:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A140" s="441"/>
+      <c r="B140" s="239"/>
+      <c r="C140" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="D130" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E130" s="10" t="s">
+      <c r="D140" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E140" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F130" s="10" t="s">
+      <c r="F140" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="G130" s="22" t="s">
+      <c r="G140" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="H130" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I130" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J130" s="331"/>
-    </row>
-    <row r="131" spans="1:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A131" s="353" t="s">
+      <c r="H140" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I140" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J140" s="331"/>
+    </row>
+    <row r="141" spans="1:10" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A141" s="439" t="s">
         <v>199</v>
       </c>
-      <c r="B131" s="237"/>
-      <c r="C131" s="122" t="s">
+      <c r="B141" s="237"/>
+      <c r="C141" s="122" t="s">
         <v>196</v>
       </c>
-      <c r="D131" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E131" s="124" t="s">
+      <c r="D141" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E141" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="F131" s="9" t="s">
+      <c r="F141" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="G131" s="9" t="s">
+      <c r="G141" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="H131" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I131" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J131" s="329"/>
-    </row>
-    <row r="132" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A132" s="354"/>
-      <c r="B132" s="238"/>
-      <c r="C132" s="123" t="s">
+      <c r="H141" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I141" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J141" s="329"/>
+    </row>
+    <row r="142" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A142" s="440"/>
+      <c r="B142" s="238"/>
+      <c r="C142" s="123" t="s">
         <v>197</v>
       </c>
-      <c r="D132" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E132" s="125" t="s">
+      <c r="D142" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E142" s="125" t="s">
         <v>209</v>
       </c>
-      <c r="F132" s="5" t="s">
+      <c r="F142" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="G132" s="5" t="s">
+      <c r="G142" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="H132" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I132" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J132" s="330"/>
-    </row>
-    <row r="133" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A133" s="355"/>
-      <c r="B133" s="240"/>
-      <c r="C133" s="121" t="s">
+      <c r="H142" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I142" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J142" s="330"/>
+    </row>
+    <row r="143" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A143" s="441"/>
+      <c r="B143" s="240"/>
+      <c r="C143" s="121" t="s">
         <v>198</v>
       </c>
-      <c r="D133" s="121" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" s="126" t="s">
+      <c r="D143" s="121" t="s">
+        <v>17</v>
+      </c>
+      <c r="E143" s="126" t="s">
         <v>51</v>
       </c>
-      <c r="F133" s="120" t="s">
+      <c r="F143" s="120" t="s">
         <v>189</v>
       </c>
-      <c r="G133" s="120" t="s">
+      <c r="G143" s="120" t="s">
         <v>190</v>
       </c>
-      <c r="H133" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I133" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J133" s="332"/>
-    </row>
-    <row r="134" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A134" s="128" t="s">
+      <c r="H143" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I143" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J143" s="332"/>
+    </row>
+    <row r="144" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A144" s="128" t="s">
         <v>200</v>
       </c>
-      <c r="B134" s="241"/>
-      <c r="C134" s="121" t="s">
+      <c r="B144" s="241"/>
+      <c r="C144" s="121" t="s">
         <v>201</v>
       </c>
-      <c r="D134" s="121" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134" s="126" t="s">
+      <c r="D144" s="121" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144" s="126" t="s">
         <v>46</v>
       </c>
-      <c r="F134" s="120" t="s">
+      <c r="F144" s="120" t="s">
         <v>189</v>
       </c>
-      <c r="G134" s="120" t="s">
+      <c r="G144" s="120" t="s">
         <v>190</v>
       </c>
-      <c r="H134" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I134" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J134" s="332"/>
-    </row>
-    <row r="135" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A135" s="129" t="s">
+      <c r="H144" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I144" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J144" s="332"/>
+    </row>
+    <row r="145" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A145" s="129" t="s">
         <v>202</v>
-      </c>
-      <c r="B135" s="242"/>
-      <c r="C135" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E135" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="F135" s="120" t="s">
-        <v>189</v>
-      </c>
-      <c r="G135" s="120" t="s">
-        <v>190</v>
-      </c>
-      <c r="H135" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I135" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J135" s="333"/>
-    </row>
-    <row r="136" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A136" s="128" t="s">
-        <v>229</v>
-      </c>
-      <c r="B136" s="241"/>
-      <c r="C136" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E136" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="G136" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="H136" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I136" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J136" s="334"/>
-    </row>
-    <row r="137" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A137" s="348" t="s">
-        <v>233</v>
-      </c>
-      <c r="B137" s="243" t="s">
-        <v>258</v>
-      </c>
-      <c r="C137" s="170" t="s">
-        <v>255</v>
-      </c>
-      <c r="D137" s="168" t="s">
-        <v>17</v>
-      </c>
-      <c r="E137" s="168" t="s">
-        <v>257</v>
-      </c>
-      <c r="F137" s="168" t="s">
-        <v>221</v>
-      </c>
-      <c r="G137" s="168" t="s">
-        <v>247</v>
-      </c>
-      <c r="H137" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I137" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J137" s="335"/>
-    </row>
-    <row r="138" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A138" s="349"/>
-      <c r="B138" s="244" t="s">
-        <v>259</v>
-      </c>
-      <c r="C138" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="D138" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E138" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F138" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="G138" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="H138" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I138" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J138" s="333"/>
-    </row>
-    <row r="139" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A139" s="127" t="s">
-        <v>234</v>
-      </c>
-      <c r="B139" s="242"/>
-      <c r="C139" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="G139" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="H139" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I139" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J139" s="322"/>
-    </row>
-    <row r="140" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A140" s="127" t="s">
-        <v>235</v>
-      </c>
-      <c r="B140" s="242"/>
-      <c r="C140" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="G140" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="H140" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I140" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J140" s="322"/>
-    </row>
-    <row r="141" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A141" s="127" t="s">
-        <v>236</v>
-      </c>
-      <c r="B141" s="242"/>
-      <c r="C141" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="G141" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="H141" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I141" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J141" s="322"/>
-    </row>
-    <row r="142" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A142" s="127" t="s">
-        <v>237</v>
-      </c>
-      <c r="B142" s="242"/>
-      <c r="C142" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="G142" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="H142" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I142" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J142" s="322"/>
-    </row>
-    <row r="143" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A143" s="127" t="s">
-        <v>238</v>
-      </c>
-      <c r="B143" s="242"/>
-      <c r="C143" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="G143" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="H143" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I143" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J143" s="322"/>
-    </row>
-    <row r="144" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A144" s="127" t="s">
-        <v>239</v>
-      </c>
-      <c r="B144" s="242"/>
-      <c r="C144" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="G144" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="H144" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I144" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J144" s="322"/>
-    </row>
-    <row r="145" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A145" s="127" t="s">
-        <v>240</v>
       </c>
       <c r="B145" s="242"/>
       <c r="C145" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F145" s="120" t="s">
+        <v>189</v>
+      </c>
+      <c r="G145" s="120" t="s">
+        <v>190</v>
+      </c>
+      <c r="H145" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I145" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J145" s="333"/>
+    </row>
+    <row r="146" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A146" s="128" t="s">
+        <v>229</v>
+      </c>
+      <c r="B146" s="241"/>
+      <c r="C146" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E146" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G146" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="H146" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I146" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J146" s="334"/>
+    </row>
+    <row r="147" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A147" s="437" t="s">
+        <v>233</v>
+      </c>
+      <c r="B147" s="243" t="s">
+        <v>258</v>
+      </c>
+      <c r="C147" s="170" t="s">
+        <v>255</v>
+      </c>
+      <c r="D147" s="168" t="s">
+        <v>17</v>
+      </c>
+      <c r="E147" s="168" t="s">
+        <v>257</v>
+      </c>
+      <c r="F147" s="168" t="s">
+        <v>221</v>
+      </c>
+      <c r="G147" s="168" t="s">
+        <v>247</v>
+      </c>
+      <c r="H147" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I147" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J147" s="335"/>
+    </row>
+    <row r="148" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A148" s="438"/>
+      <c r="B148" s="244" t="s">
+        <v>259</v>
+      </c>
+      <c r="C148" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="D148" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E148" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F148" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="G148" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="H148" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I148" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J148" s="333"/>
+    </row>
+    <row r="149" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A149" s="127" t="s">
+        <v>234</v>
+      </c>
+      <c r="B149" s="242"/>
+      <c r="C149" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G149" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="H149" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I149" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J149" s="322"/>
+    </row>
+    <row r="150" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A150" s="127" t="s">
+        <v>235</v>
+      </c>
+      <c r="B150" s="242"/>
+      <c r="C150" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G150" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="H150" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I150" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J150" s="322"/>
+    </row>
+    <row r="151" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A151" s="127" t="s">
+        <v>236</v>
+      </c>
+      <c r="B151" s="242"/>
+      <c r="C151" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G151" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="H151" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I151" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J151" s="322"/>
+    </row>
+    <row r="152" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A152" s="127" t="s">
+        <v>237</v>
+      </c>
+      <c r="B152" s="242"/>
+      <c r="C152" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G152" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="H152" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I152" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J152" s="322"/>
+    </row>
+    <row r="153" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A153" s="127" t="s">
+        <v>238</v>
+      </c>
+      <c r="B153" s="242"/>
+      <c r="C153" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G153" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="H153" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I153" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J153" s="322"/>
+    </row>
+    <row r="154" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A154" s="127" t="s">
+        <v>239</v>
+      </c>
+      <c r="B154" s="242"/>
+      <c r="C154" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G154" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="H154" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I154" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J154" s="322"/>
+    </row>
+    <row r="155" spans="1:10" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A155" s="127" t="s">
+        <v>240</v>
+      </c>
+      <c r="B155" s="242"/>
+      <c r="C155" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D145" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="3" t="s">
+      <c r="D155" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="F145" s="3" t="s">
+      <c r="F155" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="G145" s="17" t="s">
+      <c r="G155" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="H145" s="197" t="s">
-        <v>535</v>
-      </c>
-      <c r="I145" s="269" t="s">
-        <v>532</v>
-      </c>
-      <c r="J145" s="322"/>
-    </row>
-    <row r="146" spans="1:10" ht="17.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C146" s="12"/>
-      <c r="D146" s="12"/>
-      <c r="E146" s="12"/>
-      <c r="F146" s="12"/>
-      <c r="G146" s="12"/>
-      <c r="I146" s="255"/>
-      <c r="J146" s="336"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="C147" s="12"/>
-      <c r="D147" s="12"/>
-      <c r="E147" s="12"/>
-      <c r="F147" s="12"/>
-      <c r="G147" s="12"/>
-      <c r="I147" s="255"/>
-      <c r="J147" s="336"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="C148" s="12"/>
-      <c r="D148" s="12"/>
-      <c r="E148" s="12"/>
-      <c r="F148" s="12"/>
-      <c r="G148" s="12"/>
-      <c r="I148" s="255"/>
-      <c r="J148" s="336"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="C149" s="12"/>
-      <c r="D149" s="12"/>
-      <c r="E149" s="12"/>
-      <c r="F149" s="12"/>
-      <c r="G149" s="12"/>
-      <c r="I149" s="255"/>
-      <c r="J149" s="336"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="C150" s="12"/>
-      <c r="D150" s="12"/>
-      <c r="E150" s="12"/>
-      <c r="F150" s="12"/>
-      <c r="G150" s="12"/>
-      <c r="I150" s="255"/>
-      <c r="J150" s="336"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="C151" s="12"/>
-      <c r="D151" s="12"/>
-      <c r="E151" s="12"/>
-      <c r="F151" s="12"/>
-      <c r="G151" s="12"/>
-      <c r="I151" s="255"/>
-      <c r="J151" s="336"/>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="C152" s="12"/>
-      <c r="D152" s="12"/>
-      <c r="E152" s="12"/>
-      <c r="F152" s="12"/>
-      <c r="G152" s="12"/>
-      <c r="I152" s="255"/>
-      <c r="J152" s="336"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="C153" s="12"/>
-      <c r="D153" s="12"/>
-      <c r="E153" s="12"/>
-      <c r="F153" s="12"/>
-      <c r="G153" s="12"/>
-      <c r="I153" s="255"/>
-      <c r="J153" s="336"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="C154" s="12"/>
-      <c r="D154" s="12"/>
-      <c r="E154" s="12"/>
-      <c r="F154" s="12"/>
-      <c r="G154" s="12"/>
-      <c r="I154" s="255"/>
-      <c r="J154" s="336"/>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="C155" s="12"/>
-      <c r="D155" s="12"/>
-      <c r="E155" s="12"/>
-      <c r="F155" s="12"/>
-      <c r="G155" s="12"/>
-      <c r="I155" s="255"/>
-      <c r="J155" s="336"/>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="H155" s="197" t="s">
+        <v>535</v>
+      </c>
+      <c r="I155" s="269" t="s">
+        <v>532</v>
+      </c>
+      <c r="J155" s="322"/>
+    </row>
+    <row r="156" spans="1:10" ht="17.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="C156" s="12"/>
       <c r="D156" s="12"/>
       <c r="E156" s="12"/>
@@ -9152,49 +9340,141 @@
       <c r="I261" s="255"/>
       <c r="J261" s="336"/>
     </row>
+    <row r="262" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C262" s="12"/>
+      <c r="D262" s="12"/>
+      <c r="E262" s="12"/>
+      <c r="F262" s="12"/>
+      <c r="G262" s="12"/>
+      <c r="I262" s="255"/>
+      <c r="J262" s="336"/>
+    </row>
+    <row r="263" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C263" s="12"/>
+      <c r="D263" s="12"/>
+      <c r="E263" s="12"/>
+      <c r="F263" s="12"/>
+      <c r="G263" s="12"/>
+      <c r="I263" s="255"/>
+      <c r="J263" s="336"/>
+    </row>
+    <row r="264" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C264" s="12"/>
+      <c r="D264" s="12"/>
+      <c r="E264" s="12"/>
+      <c r="F264" s="12"/>
+      <c r="G264" s="12"/>
+      <c r="I264" s="255"/>
+      <c r="J264" s="336"/>
+    </row>
+    <row r="265" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C265" s="12"/>
+      <c r="D265" s="12"/>
+      <c r="E265" s="12"/>
+      <c r="F265" s="12"/>
+      <c r="G265" s="12"/>
+      <c r="I265" s="255"/>
+      <c r="J265" s="336"/>
+    </row>
+    <row r="266" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C266" s="12"/>
+      <c r="D266" s="12"/>
+      <c r="E266" s="12"/>
+      <c r="F266" s="12"/>
+      <c r="G266" s="12"/>
+      <c r="I266" s="255"/>
+      <c r="J266" s="336"/>
+    </row>
+    <row r="267" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C267" s="12"/>
+      <c r="D267" s="12"/>
+      <c r="E267" s="12"/>
+      <c r="F267" s="12"/>
+      <c r="G267" s="12"/>
+      <c r="I267" s="255"/>
+      <c r="J267" s="336"/>
+    </row>
+    <row r="268" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C268" s="12"/>
+      <c r="D268" s="12"/>
+      <c r="E268" s="12"/>
+      <c r="F268" s="12"/>
+      <c r="G268" s="12"/>
+      <c r="I268" s="255"/>
+      <c r="J268" s="336"/>
+    </row>
+    <row r="269" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C269" s="12"/>
+      <c r="D269" s="12"/>
+      <c r="E269" s="12"/>
+      <c r="F269" s="12"/>
+      <c r="G269" s="12"/>
+      <c r="I269" s="255"/>
+      <c r="J269" s="336"/>
+    </row>
+    <row r="270" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C270" s="12"/>
+      <c r="D270" s="12"/>
+      <c r="E270" s="12"/>
+      <c r="F270" s="12"/>
+      <c r="G270" s="12"/>
+      <c r="I270" s="255"/>
+      <c r="J270" s="336"/>
+    </row>
+    <row r="271" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C271" s="12"/>
+      <c r="D271" s="12"/>
+      <c r="E271" s="12"/>
+      <c r="F271" s="12"/>
+      <c r="G271" s="12"/>
+      <c r="I271" s="255"/>
+      <c r="J271" s="336"/>
+    </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="C125:C126"/>
-    <mergeCell ref="A120:A127"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="A76:A81"/>
-    <mergeCell ref="A57:A75"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B57:B67"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="C57:C65"/>
-    <mergeCell ref="C120:C124"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C2:C14"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="B2:B18"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A19:A42"/>
-    <mergeCell ref="C19:C32"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="B19:B37"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="A131:A133"/>
-    <mergeCell ref="A128:A130"/>
+  <mergeCells count="43">
+    <mergeCell ref="B29:B47"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="A99:A101"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="A141:A143"/>
+    <mergeCell ref="A138:A140"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="C130:C134"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C12:C24"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="B12:B28"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="A60:A63"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A29:A52"/>
+    <mergeCell ref="C29:C42"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="A2:A28"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="A130:A137"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="A86:A91"/>
+    <mergeCell ref="A67:A85"/>
     <mergeCell ref="A111:A112"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="B67:B77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="C67:C75"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9203,10 +9483,842 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6606E4FC-447B-4C4B-8667-76C225606924}">
+  <dimension ref="A1:B102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="37.7265625" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="171" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="160" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8" s="171" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B12" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="B13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B16" s="171" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="168" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="171" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="172" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="172" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="172" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B24" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="171" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="187" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="171" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B28" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B29" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="171" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="187" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" s="171" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="187" t="s">
+        <v>203</v>
+      </c>
+      <c r="B33" s="171" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B34" s="172" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B35" s="171" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B36" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B38" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" s="171" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B42" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B43" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B44" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="187" t="s">
+        <v>201</v>
+      </c>
+      <c r="B46" s="171" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B49" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B50" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" s="171" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" s="171" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B54" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B55" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58" s="171" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B60" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B61" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B64" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B65" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="187" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" s="171" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B67" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B68" s="171" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B70" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="187" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" s="171" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="187" t="s">
+        <v>119</v>
+      </c>
+      <c r="B72" s="171" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B73" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B74" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B75" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B76" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B77" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B78" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B79" s="171" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B80" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B81" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B82" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B83" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B84" s="171" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="B85" s="171" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="113" t="s">
+        <v>32</v>
+      </c>
+      <c r="B86" s="171" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="B87" s="171" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B88" s="171" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="137" t="s">
+        <v>47</v>
+      </c>
+      <c r="B89" s="171" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="B90" s="171" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="79" t="s">
+        <v>76</v>
+      </c>
+      <c r="B91" s="171" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B92" s="171" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B93" s="171" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94" s="171" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B95" s="171" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B96" s="171" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B97" s="171" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="151" t="s">
+        <v>135</v>
+      </c>
+      <c r="B98" s="171" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B99" s="171" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B100" s="171" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B101" s="172" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ADEA23E-E81E-4AF5-920B-9A516112A0D6}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -9404,836 +10516,6 @@
   <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6606E4FC-447B-4C4B-8667-76C225606924}">
-  <dimension ref="A1:B102"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="37.7265625" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>560</v>
-      </c>
-      <c r="B1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="171" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="160" t="s">
-        <v>225</v>
-      </c>
-      <c r="B3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="23" t="s">
-        <v>241</v>
-      </c>
-      <c r="B4" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="B6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="B8" s="171" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="B12" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="B13" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="B16" s="171" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="168" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="171" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="172" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="172" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="172" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B24" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B25" s="171" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="187" t="s">
-        <v>99</v>
-      </c>
-      <c r="B27" s="171" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B28" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B29" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="171" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="187" t="s">
-        <v>136</v>
-      </c>
-      <c r="B32" s="171" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="187" t="s">
-        <v>203</v>
-      </c>
-      <c r="B33" s="171" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B34" s="172" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="B35" s="171" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="B36" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B38" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B39" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B40" s="171" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B42" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B43" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B44" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B45" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="187" t="s">
-        <v>201</v>
-      </c>
-      <c r="B46" s="171" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B47" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B48" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B49" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B50" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51" s="171" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B52" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B53" s="171" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B54" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B55" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B56" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B57" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B58" s="171" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B59" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B60" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="B61" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B62" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B63" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B64" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B65" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="187" t="s">
-        <v>91</v>
-      </c>
-      <c r="B66" s="171" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B67" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B68" s="171" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B70" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="187" t="s">
-        <v>84</v>
-      </c>
-      <c r="B71" s="171" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="187" t="s">
-        <v>119</v>
-      </c>
-      <c r="B72" s="171" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B73" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B74" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B75" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B76" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B77" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B78" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B79" s="171" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B80" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B81" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B82" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B83" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B84" s="171" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="40" t="s">
-        <v>214</v>
-      </c>
-      <c r="B85" s="171" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="113" t="s">
-        <v>32</v>
-      </c>
-      <c r="B86" s="171" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="40" t="s">
-        <v>543</v>
-      </c>
-      <c r="B87" s="171" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="B88" s="171" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="137" t="s">
-        <v>47</v>
-      </c>
-      <c r="B89" s="171" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="B90" s="171" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="79" t="s">
-        <v>76</v>
-      </c>
-      <c r="B91" s="171" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B92" s="171" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B93" s="171" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="B94" s="171" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B95" s="171" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B96" s="171" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="B97" s="171" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" s="151" t="s">
-        <v>135</v>
-      </c>
-      <c r="B98" s="171" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="B99" s="171" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="B100" s="171" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B101" s="172" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
-  </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
